--- a/dataset/2nd_data/hwang/hwang_env_detail_data.xlsx
+++ b/dataset/2nd_data/hwang/hwang_env_detail_data.xlsx
@@ -6856,10 +6856,8 @@
       <c r="BO30" t="n">
         <v>0.5</v>
       </c>
-      <c r="BP30" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
+      <c r="BP30" t="n">
+        <v>0</v>
       </c>
       <c r="BQ30" t="n">
         <v>-1.9</v>
@@ -7055,10 +7053,8 @@
       <c r="BJ31" t="n">
         <v>17.99461682242996</v>
       </c>
-      <c r="BK31" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
+      <c r="BK31" t="n">
+        <v>0</v>
       </c>
       <c r="BL31" t="n">
         <v>17.99774193548387</v>
@@ -7069,15 +7065,11 @@
       <c r="BN31" t="n">
         <v>2.266666666666667</v>
       </c>
-      <c r="BO31" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="BP31" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
+      <c r="BO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>0</v>
       </c>
       <c r="BQ31" t="n">
         <v>-2.609999999999999</v>
@@ -15977,10 +15969,8 @@
       <c r="BN73" t="n">
         <v>3.1</v>
       </c>
-      <c r="BO73" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
+      <c r="BO73" t="n">
+        <v>0</v>
       </c>
       <c r="BP73" t="n">
         <v>2.899999999999999</v>
@@ -16391,10 +16381,8 @@
       <c r="BJ75" t="n">
         <v>22.15617590822191</v>
       </c>
-      <c r="BK75" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
+      <c r="BK75" t="n">
+        <v>0</v>
       </c>
       <c r="BL75" t="n">
         <v>22.99011730205281</v>
@@ -16405,10 +16393,8 @@
       <c r="BN75" t="n">
         <v>2.466666666666667</v>
       </c>
-      <c r="BO75" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
+      <c r="BO75" t="n">
+        <v>0</v>
       </c>
       <c r="BP75" t="n">
         <v>2.81</v>
@@ -16619,10 +16605,8 @@
       <c r="BN76" t="n">
         <v>2.083333333333333</v>
       </c>
-      <c r="BO76" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
+      <c r="BO76" t="n">
+        <v>0</v>
       </c>
       <c r="BP76" t="n">
         <v>3.19</v>
@@ -20013,10 +19997,8 @@
       <c r="BN92" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="BO92" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
+      <c r="BO92" t="n">
+        <v>0</v>
       </c>
       <c r="BP92" t="n">
         <v>1</v>

--- a/dataset/2nd_data/hwang/hwang_env_detail_data.xlsx
+++ b/dataset/2nd_data/hwang/hwang_env_detail_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR135"/>
+  <dimension ref="A1:BQ135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,30 +689,25 @@
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>suitable_temperature_time</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
           <t>suitable_humidity_time</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>sunrise_diff</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>sunset_diff</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>suitable_temperature_diff_lowerbound</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>suitable_temperature_diff_upperbound</t>
         </is>
@@ -912,21 +907,18 @@
         <v>21.06550239234456</v>
       </c>
       <c r="BM2" t="n">
-        <v>2.066666666666667</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.083333333333333</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.8900000000000006</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="BR2" t="n">
         <v>1.289999999999999</v>
       </c>
     </row>
@@ -1124,21 +1116,18 @@
         <v>22.55653206650835</v>
       </c>
       <c r="BM3" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>0</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.3000000000000007</v>
+        <v>1.810000000000002</v>
       </c>
       <c r="BP3" t="n">
-        <v>1.810000000000002</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="BR3" t="n">
         <v>1.100000000000001</v>
       </c>
     </row>
@@ -1336,21 +1325,18 @@
         <v>23.26230403800482</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.9166666666666666</v>
+        <v>1.016666666666667</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.016666666666667</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BO4" t="n">
-        <v>1.289999999999999</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BP4" t="n">
-        <v>1.699999999999999</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="BR4" t="n">
         <v>0.8900000000000006</v>
       </c>
     </row>
@@ -1548,21 +1534,18 @@
         <v>20.47904988123519</v>
       </c>
       <c r="BM5" t="n">
-        <v>2.983333333333333</v>
+        <v>2.566666666666667</v>
       </c>
       <c r="BN5" t="n">
-        <v>2.566666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="BO5" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="BP5" t="n">
-        <v>1.6</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="BR5" t="n">
         <v>1.100000000000001</v>
       </c>
     </row>
@@ -1760,21 +1743,18 @@
         <v>22.79743467933502</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.85</v>
+        <v>10.31666666666667</v>
       </c>
       <c r="BN6" t="n">
-        <v>10.31666666666667</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BO6" t="n">
-        <v>1.699999999999999</v>
+        <v>1.789999999999999</v>
       </c>
       <c r="BP6" t="n">
-        <v>1.789999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="BR6" t="n">
         <v>2.199999999999999</v>
       </c>
     </row>
@@ -1972,21 +1952,18 @@
         <v>17.31313397129188</v>
       </c>
       <c r="BM7" t="n">
-        <v>3.6</v>
+        <v>19.65</v>
       </c>
       <c r="BN7" t="n">
-        <v>19.65</v>
+        <v>1.500000000000002</v>
       </c>
       <c r="BO7" t="n">
-        <v>1.500000000000002</v>
+        <v>1.59</v>
       </c>
       <c r="BP7" t="n">
-        <v>1.59</v>
+        <v>-0.8100000000000005</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-0.8100000000000005</v>
-      </c>
-      <c r="BR7" t="n">
         <v>-6.210000000000001</v>
       </c>
     </row>
@@ -2184,21 +2161,18 @@
         <v>20.48028571428575</v>
       </c>
       <c r="BM8" t="n">
-        <v>1.85</v>
+        <v>16.06666666666667</v>
       </c>
       <c r="BN8" t="n">
-        <v>16.06666666666667</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BO8" t="n">
-        <v>1.390000000000001</v>
+        <v>1.51</v>
       </c>
       <c r="BP8" t="n">
-        <v>1.51</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0.6099999999999994</v>
-      </c>
-      <c r="BR8" t="n">
         <v>-0.2100000000000009</v>
       </c>
     </row>
@@ -2396,21 +2370,18 @@
         <v>21.1127553444181</v>
       </c>
       <c r="BM9" t="n">
-        <v>1.983333333333333</v>
+        <v>13.48333333333333</v>
       </c>
       <c r="BN9" t="n">
-        <v>13.48333333333333</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="BO9" t="n">
-        <v>1.399999999999999</v>
+        <v>1.81</v>
       </c>
       <c r="BP9" t="n">
-        <v>1.81</v>
+        <v>-0.3100000000000005</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0.3100000000000005</v>
-      </c>
-      <c r="BR9" t="n">
         <v>-0.7100000000000009</v>
       </c>
     </row>
@@ -2608,21 +2579,18 @@
         <v>21.61204275534449</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.7833333333333333</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="BN10" t="n">
-        <v>1.416666666666667</v>
+        <v>0.3099999999999987</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.3099999999999987</v>
+        <v>1.689999999999998</v>
       </c>
       <c r="BP10" t="n">
-        <v>1.689999999999998</v>
+        <v>-0.1099999999999994</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.1099999999999994</v>
-      </c>
-      <c r="BR10" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2820,21 +2788,18 @@
         <v>23.25123515439439</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.9833333333333333</v>
+        <v>0</v>
       </c>
       <c r="BN11" t="n">
-        <v>0</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.1000000000000014</v>
+        <v>1.710000000000001</v>
       </c>
       <c r="BP11" t="n">
-        <v>1.710000000000001</v>
+        <v>-0.1099999999999994</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-0.1099999999999994</v>
-      </c>
-      <c r="BR11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3032,21 +2997,18 @@
         <v>22.04935866983378</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.9166666666666666</v>
+        <v>1.883333333333333</v>
       </c>
       <c r="BN12" t="n">
-        <v>1.883333333333333</v>
+        <v>1.190000000000001</v>
       </c>
       <c r="BO12" t="n">
-        <v>1.190000000000001</v>
+        <v>1.700000000000001</v>
       </c>
       <c r="BP12" t="n">
-        <v>1.700000000000001</v>
+        <v>-0.3100000000000005</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-0.3100000000000005</v>
-      </c>
-      <c r="BR12" t="n">
         <v>0.1999999999999993</v>
       </c>
     </row>
@@ -3244,21 +3206,18 @@
         <v>20.26788598574828</v>
       </c>
       <c r="BM13" t="n">
-        <v>1.416666666666667</v>
+        <v>7.816666666666666</v>
       </c>
       <c r="BN13" t="n">
-        <v>7.816666666666666</v>
+        <v>1.309999999999999</v>
       </c>
       <c r="BO13" t="n">
-        <v>1.309999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="BP13" t="n">
-        <v>1.6</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="BR13" t="n">
         <v>1.789999999999999</v>
       </c>
     </row>
@@ -3456,21 +3415,18 @@
         <v>21.23883610451317</v>
       </c>
       <c r="BM14" t="n">
-        <v>1.016666666666667</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.1999999999999993</v>
+        <v>0.6899999999999977</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.6899999999999977</v>
+        <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR14" t="n">
         <v>-1.5</v>
       </c>
     </row>
@@ -3668,21 +3624,18 @@
         <v>22.10674584323045</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="BN15" t="n">
-        <v>0</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.1999999999999993</v>
+        <v>1.109999999999999</v>
       </c>
       <c r="BP15" t="n">
-        <v>1.109999999999999</v>
+        <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR15" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -3880,21 +3833,18 @@
         <v>20.90852731591453</v>
       </c>
       <c r="BM16" t="n">
-        <v>1.033333333333333</v>
+        <v>0</v>
       </c>
       <c r="BN16" t="n">
-        <v>0</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.4100000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="BP16" t="n">
-        <v>1.5</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="BQ16" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="BR16" t="n">
         <v>-0.2100000000000009</v>
       </c>
     </row>
@@ -4092,21 +4042,18 @@
         <v>21.90845605700717</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="BN17" t="n">
-        <v>0</v>
+        <v>0.1900000000000013</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.1900000000000013</v>
+        <v>2</v>
       </c>
       <c r="BP17" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="BQ17" t="n">
-        <v>-3</v>
-      </c>
-      <c r="BR17" t="n">
         <v>1.390000000000001</v>
       </c>
     </row>
@@ -4304,21 +4251,18 @@
         <v>23.00845605700718</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.6166666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN18" t="n">
-        <v>0</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="BO18" t="n">
-        <v>0.8999999999999986</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BP18" t="n">
-        <v>1.289999999999999</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="BQ18" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="BR18" t="n">
         <v>1.390000000000001</v>
       </c>
     </row>
@@ -4516,21 +4460,18 @@
         <v>21.02251781472687</v>
       </c>
       <c r="BM19" t="n">
-        <v>1.566666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO19" t="n">
-        <v>1</v>
+        <v>1.109999999999999</v>
       </c>
       <c r="BP19" t="n">
-        <v>1.109999999999999</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BQ19" t="n">
-        <v>-0.6099999999999994</v>
-      </c>
-      <c r="BR19" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -4728,21 +4669,18 @@
         <v>21.69534441805231</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.7166666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN20" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="BO20" t="n">
-        <v>1.09</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="BP20" t="n">
-        <v>1.300000000000001</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="BQ20" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="BR20" t="n">
         <v>-0.2100000000000009</v>
       </c>
     </row>
@@ -4940,21 +4878,18 @@
         <v>21.9535391923991</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.8166666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN21" t="n">
-        <v>0</v>
+        <v>0.3100000000000023</v>
       </c>
       <c r="BO21" t="n">
-        <v>0.3100000000000023</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="BP21" t="n">
-        <v>1.100000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ21" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="BR21" t="n">
         <v>1.199999999999999</v>
       </c>
     </row>
@@ -5152,21 +5087,18 @@
         <v>20.12477434679339</v>
       </c>
       <c r="BM22" t="n">
-        <v>2.316666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="BN22" t="n">
-        <v>0.06666666666666667</v>
+        <v>1.01</v>
       </c>
       <c r="BO22" t="n">
-        <v>1.01</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="BP22" t="n">
-        <v>1.199999999999999</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="BQ22" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="BR22" t="n">
         <v>-0.3999999999999986</v>
       </c>
     </row>
@@ -5364,21 +5296,18 @@
         <v>22.13068883610458</v>
       </c>
       <c r="BM23" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="BN23" t="n">
-        <v>0</v>
+        <v>0.2899999999999991</v>
       </c>
       <c r="BO23" t="n">
-        <v>0.2899999999999991</v>
+        <v>1.6</v>
       </c>
       <c r="BP23" t="n">
-        <v>1.6</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="BQ23" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="BR23" t="n">
         <v>0.7899999999999991</v>
       </c>
     </row>
@@ -5576,21 +5505,18 @@
         <v>23.37327790973881</v>
       </c>
       <c r="BM24" t="n">
-        <v>0.6833333333333333</v>
+        <v>0</v>
       </c>
       <c r="BN24" t="n">
-        <v>0</v>
+        <v>0.3099999999999987</v>
       </c>
       <c r="BO24" t="n">
-        <v>0.3099999999999987</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="BP24" t="n">
-        <v>1.600000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ24" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="BR24" t="n">
         <v>1.699999999999999</v>
       </c>
     </row>
@@ -5788,21 +5714,18 @@
         <v>22.7898099762471</v>
       </c>
       <c r="BM25" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="BN25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BO25" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="BP25" t="n">
-        <v>1.4</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ25" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="BR25" t="n">
         <v>0.7899999999999991</v>
       </c>
     </row>
@@ -6000,21 +5923,18 @@
         <v>24.08204275534451</v>
       </c>
       <c r="BM26" t="n">
-        <v>1.066666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BO26" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="BP26" t="n">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ26" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="BR26" t="n">
         <v>1.390000000000001</v>
       </c>
     </row>
@@ -6212,21 +6132,18 @@
         <v>22.93757719714973</v>
       </c>
       <c r="BM27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN27" t="n">
-        <v>0</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BO27" t="n">
-        <v>0.3000000000000007</v>
+        <v>1.19</v>
       </c>
       <c r="BP27" t="n">
-        <v>1.19</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="BQ27" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="BR27" t="n">
         <v>2.199999999999999</v>
       </c>
     </row>
@@ -6424,21 +6341,18 @@
         <v>23.15230403800481</v>
       </c>
       <c r="BM28" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="BN28" t="n">
-        <v>0</v>
+        <v>0.7899999999999991</v>
       </c>
       <c r="BO28" t="n">
-        <v>0.7899999999999991</v>
+        <v>1.4</v>
       </c>
       <c r="BP28" t="n">
-        <v>1.4</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="BQ28" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="BR28" t="n">
         <v>1.289999999999999</v>
       </c>
     </row>
@@ -6636,21 +6550,18 @@
         <v>22.59657957244664</v>
       </c>
       <c r="BM29" t="n">
-        <v>0.9333333333333333</v>
+        <v>0</v>
       </c>
       <c r="BN29" t="n">
-        <v>0</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BO29" t="n">
-        <v>0.6999999999999993</v>
+        <v>1.9</v>
       </c>
       <c r="BP29" t="n">
-        <v>1.9</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="BQ29" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="BR29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6848,21 +6759,18 @@
         <v>22.06926253687318</v>
       </c>
       <c r="BM30" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="BN30" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BO30" t="n">
-        <v>0.5</v>
+        <v>1.863333333333334</v>
       </c>
       <c r="BP30" t="n">
-        <v>0</v>
+        <v>-1.9</v>
       </c>
       <c r="BQ30" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="BR30" t="n">
         <v>0.1000000000000014</v>
       </c>
     </row>
@@ -7054,27 +6962,24 @@
         <v>17.99461682242996</v>
       </c>
       <c r="BK31" t="n">
-        <v>0</v>
+        <v>15.3440601403605</v>
       </c>
       <c r="BL31" t="n">
         <v>17.99774193548387</v>
       </c>
       <c r="BM31" t="n">
-        <v>2.866666666666667</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="BN31" t="n">
-        <v>2.266666666666667</v>
+        <v>1.05</v>
       </c>
       <c r="BO31" t="n">
-        <v>0</v>
+        <v>1.826666666666667</v>
       </c>
       <c r="BP31" t="n">
-        <v>0</v>
+        <v>-2.609999999999999</v>
       </c>
       <c r="BQ31" t="n">
-        <v>-2.609999999999999</v>
-      </c>
-      <c r="BR31" t="n">
         <v>-1.609999999999999</v>
       </c>
     </row>
@@ -7272,21 +7177,18 @@
         <v>16.76086330935254</v>
       </c>
       <c r="BM32" t="n">
-        <v>2.416666666666667</v>
+        <v>3.716666666666667</v>
       </c>
       <c r="BN32" t="n">
-        <v>3.716666666666667</v>
+        <v>1.6</v>
       </c>
       <c r="BO32" t="n">
-        <v>1.6</v>
+        <v>1.790000000000001</v>
       </c>
       <c r="BP32" t="n">
-        <v>1.790000000000001</v>
+        <v>-2.4</v>
       </c>
       <c r="BQ32" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="BR32" t="n">
         <v>-3</v>
       </c>
     </row>
@@ -7484,21 +7386,18 @@
         <v>18.32626237623765</v>
       </c>
       <c r="BM33" t="n">
-        <v>2.966666666666667</v>
+        <v>3.033333333333333</v>
       </c>
       <c r="BN33" t="n">
-        <v>3.033333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="BO33" t="n">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="BP33" t="n">
-        <v>1.81</v>
+        <v>-2.4</v>
       </c>
       <c r="BQ33" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="BR33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7696,21 +7595,18 @@
         <v>17.47797029702974</v>
       </c>
       <c r="BM34" t="n">
-        <v>1.516666666666667</v>
+        <v>4.633333333333334</v>
       </c>
       <c r="BN34" t="n">
-        <v>4.633333333333334</v>
+        <v>1.6</v>
       </c>
       <c r="BO34" t="n">
-        <v>1.6</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="BP34" t="n">
-        <v>1.799999999999999</v>
+        <v>-2.5</v>
       </c>
       <c r="BQ34" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="BR34" t="n">
         <v>-0.7100000000000009</v>
       </c>
     </row>
@@ -7908,21 +7804,18 @@
         <v>19.21392857142859</v>
       </c>
       <c r="BM35" t="n">
-        <v>2.516666666666667</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="BN35" t="n">
-        <v>3.416666666666667</v>
+        <v>1.709999999999999</v>
       </c>
       <c r="BO35" t="n">
-        <v>1.709999999999999</v>
+        <v>0</v>
       </c>
       <c r="BP35" t="n">
-        <v>0</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BQ35" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="BR35" t="n">
         <v>1.699999999999999</v>
       </c>
     </row>
@@ -8120,21 +8013,18 @@
         <v>17.36827751196176</v>
       </c>
       <c r="BM36" t="n">
-        <v>2.75</v>
+        <v>7.05</v>
       </c>
       <c r="BN36" t="n">
-        <v>7.05</v>
+        <v>1.6</v>
       </c>
       <c r="BO36" t="n">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="BP36" t="n">
-        <v>1.91</v>
+        <v>-2.4</v>
       </c>
       <c r="BQ36" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="BR36" t="n">
         <v>0.2899999999999991</v>
       </c>
     </row>
@@ -8332,21 +8222,18 @@
         <v>20.11550251256284</v>
       </c>
       <c r="BM37" t="n">
-        <v>1.216666666666667</v>
+        <v>5.066666666666666</v>
       </c>
       <c r="BN37" t="n">
-        <v>5.066666666666666</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BO37" t="n">
-        <v>1.699999999999999</v>
+        <v>1.700000000000001</v>
       </c>
       <c r="BP37" t="n">
-        <v>1.700000000000001</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ37" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR37" t="n">
         <v>2.199999999999999</v>
       </c>
     </row>
@@ -8544,21 +8431,18 @@
         <v>19.97703087885988</v>
       </c>
       <c r="BM38" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="BN38" t="n">
-        <v>3.7</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BO38" t="n">
-        <v>1.390000000000001</v>
+        <v>1.889999999999999</v>
       </c>
       <c r="BP38" t="n">
-        <v>1.889999999999999</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ38" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR38" t="n">
         <v>3.789999999999999</v>
       </c>
     </row>
@@ -8756,21 +8640,18 @@
         <v>18.67909738717342</v>
       </c>
       <c r="BM39" t="n">
-        <v>1.5</v>
+        <v>5.933333333333334</v>
       </c>
       <c r="BN39" t="n">
-        <v>5.933333333333334</v>
+        <v>1.4</v>
       </c>
       <c r="BO39" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="BP39" t="n">
-        <v>2</v>
+        <v>-2.609999999999999</v>
       </c>
       <c r="BQ39" t="n">
-        <v>-2.609999999999999</v>
-      </c>
-      <c r="BR39" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8968,21 +8849,18 @@
         <v>17.77196642685854</v>
       </c>
       <c r="BM40" t="n">
-        <v>1.9</v>
+        <v>7.516666666666667</v>
       </c>
       <c r="BN40" t="n">
-        <v>7.516666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="BO40" t="n">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="BP40" t="n">
-        <v>1.81</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ40" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR40" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -9180,21 +9058,18 @@
         <v>20.33447619047622</v>
       </c>
       <c r="BM41" t="n">
-        <v>0.85</v>
+        <v>9.25</v>
       </c>
       <c r="BN41" t="n">
-        <v>9.25</v>
+        <v>1.5</v>
       </c>
       <c r="BO41" t="n">
         <v>1.5</v>
       </c>
       <c r="BP41" t="n">
-        <v>1.5</v>
+        <v>-2.4</v>
       </c>
       <c r="BQ41" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="BR41" t="n">
         <v>-0.3999999999999986</v>
       </c>
     </row>
@@ -9392,21 +9267,18 @@
         <v>18.5841904761905</v>
       </c>
       <c r="BM42" t="n">
-        <v>0.9666666666666667</v>
+        <v>9.783333333333333</v>
       </c>
       <c r="BN42" t="n">
-        <v>9.783333333333333</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BO42" t="n">
-        <v>1.390000000000001</v>
+        <v>2.09</v>
       </c>
       <c r="BP42" t="n">
-        <v>2.09</v>
+        <v>-2.4</v>
       </c>
       <c r="BQ42" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="BR42" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -9604,21 +9476,18 @@
         <v>18.20781472684087</v>
       </c>
       <c r="BM43" t="n">
-        <v>1.45</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BN43" t="n">
-        <v>9.199999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="BO43" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="BP43" t="n">
-        <v>1.91</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ43" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9816,21 +9685,18 @@
         <v>17.2802669902913</v>
       </c>
       <c r="BM44" t="n">
-        <v>2.033333333333333</v>
+        <v>4.1</v>
       </c>
       <c r="BN44" t="n">
-        <v>4.1</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BO44" t="n">
-        <v>0.3000000000000007</v>
+        <v>1.81</v>
       </c>
       <c r="BP44" t="n">
-        <v>1.81</v>
+        <v>-2.81</v>
       </c>
       <c r="BQ44" t="n">
-        <v>-2.81</v>
-      </c>
-      <c r="BR44" t="n">
         <v>2.890000000000001</v>
       </c>
     </row>
@@ -10028,21 +9894,18 @@
         <v>21.20012019230772</v>
       </c>
       <c r="BM45" t="n">
-        <v>2.2</v>
+        <v>18.18333333333333</v>
       </c>
       <c r="BN45" t="n">
-        <v>18.18333333333333</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BO45" t="n">
-        <v>1.699999999999999</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="BP45" t="n">
-        <v>3.100000000000001</v>
+        <v>-2.4</v>
       </c>
       <c r="BQ45" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="BR45" t="n">
         <v>0.8900000000000006</v>
       </c>
     </row>
@@ -10240,21 +10103,18 @@
         <v>19.4564028776979</v>
       </c>
       <c r="BM46" t="n">
-        <v>0.4833333333333333</v>
+        <v>16.43333333333333</v>
       </c>
       <c r="BN46" t="n">
-        <v>16.43333333333333</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BO46" t="n">
-        <v>1.699999999999999</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="BP46" t="n">
-        <v>2.300000000000001</v>
+        <v>-3.31</v>
       </c>
       <c r="BQ46" t="n">
-        <v>-3.31</v>
-      </c>
-      <c r="BR46" t="n">
         <v>0.6000000000000014</v>
       </c>
     </row>
@@ -10452,21 +10312,18 @@
         <v>18.06774580335737</v>
       </c>
       <c r="BM47" t="n">
-        <v>1.633333333333333</v>
+        <v>17.5</v>
       </c>
       <c r="BN47" t="n">
-        <v>17.5</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BO47" t="n">
-        <v>1.699999999999999</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="BP47" t="n">
-        <v>1.799999999999999</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ47" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR47" t="n">
         <v>-0.8000000000000007</v>
       </c>
     </row>
@@ -10664,21 +10521,18 @@
         <v>18.97659793814435</v>
       </c>
       <c r="BM48" t="n">
-        <v>1.2</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="BN48" t="n">
-        <v>14.58333333333333</v>
+        <v>0.6899999999999995</v>
       </c>
       <c r="BO48" t="n">
-        <v>0.6899999999999995</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BP48" t="n">
-        <v>1.699999999999999</v>
+        <v>-2.5</v>
       </c>
       <c r="BQ48" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="BR48" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10876,21 +10730,18 @@
         <v>18.3170573566085</v>
       </c>
       <c r="BM49" t="n">
-        <v>3.133333333333333</v>
+        <v>14.91666666666667</v>
       </c>
       <c r="BN49" t="n">
-        <v>14.91666666666667</v>
+        <v>1.6</v>
       </c>
       <c r="BO49" t="n">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="BP49" t="n">
-        <v>1.91</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ49" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR49" t="n">
         <v>1.890000000000001</v>
       </c>
     </row>
@@ -11088,21 +10939,18 @@
         <v>14.94725060827253</v>
       </c>
       <c r="BM50" t="n">
-        <v>0</v>
+        <v>22.88333333333333</v>
       </c>
       <c r="BN50" t="n">
-        <v>22.88333333333333</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BO50" t="n">
-        <v>1.699999999999999</v>
+        <v>1.610000000000001</v>
       </c>
       <c r="BP50" t="n">
-        <v>1.610000000000001</v>
+        <v>-2.5</v>
       </c>
       <c r="BQ50" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="BR50" t="n">
         <v>-8.5</v>
       </c>
     </row>
@@ -11300,21 +11148,18 @@
         <v>17.05900523560212</v>
       </c>
       <c r="BM51" t="n">
-        <v>2.966666666666667</v>
+        <v>16.08333333333333</v>
       </c>
       <c r="BN51" t="n">
-        <v>16.08333333333333</v>
+        <v>1.59</v>
       </c>
       <c r="BO51" t="n">
-        <v>1.59</v>
+        <v>1.91</v>
       </c>
       <c r="BP51" t="n">
-        <v>1.91</v>
+        <v>-2.5</v>
       </c>
       <c r="BQ51" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="BR51" t="n">
         <v>-1.109999999999999</v>
       </c>
     </row>
@@ -11512,21 +11357,18 @@
         <v>20.80256157635472</v>
       </c>
       <c r="BM52" t="n">
-        <v>0.8</v>
+        <v>14.86666666666667</v>
       </c>
       <c r="BN52" t="n">
-        <v>14.86666666666667</v>
+        <v>1.790000000000001</v>
       </c>
       <c r="BO52" t="n">
-        <v>1.790000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="BP52" t="n">
-        <v>1.9</v>
+        <v>-3</v>
       </c>
       <c r="BQ52" t="n">
-        <v>-3</v>
-      </c>
-      <c r="BR52" t="n">
         <v>2.600000000000001</v>
       </c>
     </row>
@@ -11724,21 +11566,18 @@
         <v>22.45572463768119</v>
       </c>
       <c r="BM53" t="n">
-        <v>0.4166666666666667</v>
+        <v>12.98333333333333</v>
       </c>
       <c r="BN53" t="n">
-        <v>12.98333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="BO53" t="n">
-        <v>1.5</v>
+        <v>3.309999999999999</v>
       </c>
       <c r="BP53" t="n">
-        <v>3.309999999999999</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ53" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR53" t="n">
         <v>4.199999999999999</v>
       </c>
     </row>
@@ -11936,21 +11775,18 @@
         <v>23.96217703349289</v>
       </c>
       <c r="BM54" t="n">
-        <v>1.3</v>
+        <v>0.95</v>
       </c>
       <c r="BN54" t="n">
-        <v>0.95</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BO54" t="n">
         <v>1.699999999999999</v>
       </c>
       <c r="BP54" t="n">
-        <v>1.699999999999999</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BQ54" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="BR54" t="n">
         <v>5.199999999999999</v>
       </c>
     </row>
@@ -12148,21 +11984,18 @@
         <v>16.24364508393291</v>
       </c>
       <c r="BM55" t="n">
-        <v>0.7666666666666667</v>
+        <v>8.5</v>
       </c>
       <c r="BN55" t="n">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="BO55" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="BP55" t="n">
-        <v>1.59</v>
+        <v>-2.5</v>
       </c>
       <c r="BQ55" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="BR55" t="n">
         <v>1.390000000000001</v>
       </c>
     </row>
@@ -12360,21 +12193,18 @@
         <v>21.45643979057596</v>
       </c>
       <c r="BM56" t="n">
-        <v>0.45</v>
+        <v>14.2</v>
       </c>
       <c r="BN56" t="n">
-        <v>14.2</v>
+        <v>1.81</v>
       </c>
       <c r="BO56" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="BP56" t="n">
-        <v>2</v>
+        <v>-2.4</v>
       </c>
       <c r="BQ56" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="BR56" t="n">
         <v>2.100000000000001</v>
       </c>
     </row>
@@ -12572,21 +12402,18 @@
         <v>17.93435323383087</v>
       </c>
       <c r="BM57" t="n">
-        <v>2.116666666666667</v>
+        <v>10.25</v>
       </c>
       <c r="BN57" t="n">
-        <v>10.25</v>
+        <v>1.700000000000001</v>
       </c>
       <c r="BO57" t="n">
-        <v>1.700000000000001</v>
+        <v>1.31</v>
       </c>
       <c r="BP57" t="n">
-        <v>1.31</v>
+        <v>-2.4</v>
       </c>
       <c r="BQ57" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="BR57" t="n">
         <v>0.1000000000000014</v>
       </c>
     </row>
@@ -12784,21 +12611,18 @@
         <v>18.6321265822785</v>
       </c>
       <c r="BM58" t="n">
-        <v>4.133333333333334</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="BN58" t="n">
-        <v>11.16666666666667</v>
+        <v>1.700000000000001</v>
       </c>
       <c r="BO58" t="n">
-        <v>1.700000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="BP58" t="n">
-        <v>2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="BQ58" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="BR58" t="n">
         <v>-3.609999999999999</v>
       </c>
     </row>
@@ -12996,21 +12820,18 @@
         <v>17.73574358974361</v>
       </c>
       <c r="BM59" t="n">
-        <v>3.133333333333333</v>
+        <v>13</v>
       </c>
       <c r="BN59" t="n">
-        <v>13</v>
+        <v>1.59</v>
       </c>
       <c r="BO59" t="n">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="BP59" t="n">
-        <v>2</v>
+        <v>-2.4</v>
       </c>
       <c r="BQ59" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="BR59" t="n">
         <v>-3</v>
       </c>
     </row>
@@ -13208,21 +13029,18 @@
         <v>18.65822335025382</v>
       </c>
       <c r="BM60" t="n">
-        <v>3.133333333333333</v>
+        <v>13.2</v>
       </c>
       <c r="BN60" t="n">
-        <v>13.2</v>
+        <v>1.59</v>
       </c>
       <c r="BO60" t="n">
-        <v>1.59</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="BP60" t="n">
-        <v>1.799999999999999</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ60" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR60" t="n">
         <v>-1.210000000000001</v>
       </c>
     </row>
@@ -13420,21 +13238,18 @@
         <v>20.25945312500002</v>
       </c>
       <c r="BM61" t="n">
-        <v>0.7666666666666667</v>
+        <v>7.3</v>
       </c>
       <c r="BN61" t="n">
-        <v>7.3</v>
+        <v>1.81</v>
       </c>
       <c r="BO61" t="n">
-        <v>1.81</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BP61" t="n">
-        <v>2.199999999999999</v>
+        <v>-2.4</v>
       </c>
       <c r="BQ61" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="BR61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13632,21 +13447,18 @@
         <v>22.03002717391307</v>
       </c>
       <c r="BM62" t="n">
-        <v>1.65</v>
+        <v>8.383333333333333</v>
       </c>
       <c r="BN62" t="n">
-        <v>8.383333333333333</v>
+        <v>1.91</v>
       </c>
       <c r="BO62" t="n">
-        <v>1.91</v>
+        <v>2.9</v>
       </c>
       <c r="BP62" t="n">
-        <v>2.9</v>
+        <v>-2.4</v>
       </c>
       <c r="BQ62" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="BR62" t="n">
         <v>1.890000000000001</v>
       </c>
     </row>
@@ -13844,21 +13656,18 @@
         <v>22.67222513089003</v>
       </c>
       <c r="BM63" t="n">
-        <v>0.4833333333333333</v>
+        <v>3.633333333333333</v>
       </c>
       <c r="BN63" t="n">
-        <v>3.633333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="BO63" t="n">
-        <v>1.5</v>
+        <v>2.500000000000002</v>
       </c>
       <c r="BP63" t="n">
-        <v>2.500000000000002</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BQ63" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="BR63" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14056,21 +13865,18 @@
         <v>24.90497461928939</v>
       </c>
       <c r="BM64" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="BN64" t="n">
-        <v>0.6333333333333333</v>
+        <v>1.9</v>
       </c>
       <c r="BO64" t="n">
-        <v>1.9</v>
+        <v>4.81</v>
       </c>
       <c r="BP64" t="n">
-        <v>4.81</v>
+        <v>-2.4</v>
       </c>
       <c r="BQ64" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="BR64" t="n">
         <v>4.600000000000001</v>
       </c>
     </row>
@@ -14268,21 +14074,18 @@
         <v>18.02196969696968</v>
       </c>
       <c r="BM65" t="n">
-        <v>3.45</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="BN65" t="n">
-        <v>0.1833333333333333</v>
+        <v>0.2099999999999991</v>
       </c>
       <c r="BO65" t="n">
-        <v>0.2099999999999991</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BP65" t="n">
-        <v>0.3000000000000007</v>
+        <v>-1.81</v>
       </c>
       <c r="BQ65" t="n">
-        <v>-1.81</v>
-      </c>
-      <c r="BR65" t="n">
         <v>-5.800000000000001</v>
       </c>
     </row>
@@ -14480,21 +14283,18 @@
         <v>21.69014285714285</v>
       </c>
       <c r="BM66" t="n">
-        <v>0.06666666666666667</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="BN66" t="n">
-        <v>2.083333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="BO66" t="n">
-        <v>1.5</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="BP66" t="n">
-        <v>1.800000000000001</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BQ66" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="BR66" t="n">
         <v>-0.8000000000000007</v>
       </c>
     </row>
@@ -14692,21 +14492,18 @@
         <v>24.41833333333334</v>
       </c>
       <c r="BM67" t="n">
-        <v>0.3833333333333334</v>
+        <v>6.8</v>
       </c>
       <c r="BN67" t="n">
-        <v>6.8</v>
+        <v>2.399999999999999</v>
       </c>
       <c r="BO67" t="n">
-        <v>2.399999999999999</v>
+        <v>0.7099999999999991</v>
       </c>
       <c r="BP67" t="n">
-        <v>0.7099999999999991</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BQ67" t="n">
-        <v>-2.109999999999999</v>
-      </c>
-      <c r="BR67" t="n">
         <v>-0.7100000000000009</v>
       </c>
     </row>
@@ -14904,21 +14701,18 @@
         <v>16.24600000000001</v>
       </c>
       <c r="BM68" t="n">
-        <v>1.916666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="BN68" t="n">
-        <v>4.5</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="BO68" t="n">
-        <v>2.300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="BP68" t="n">
-        <v>0.5</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BQ68" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="BR68" t="n">
         <v>-6.899999999999999</v>
       </c>
     </row>
@@ -15116,21 +14910,18 @@
         <v>16.6961111111111</v>
       </c>
       <c r="BM69" t="n">
-        <v>2.7</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="BN69" t="n">
-        <v>0.6333333333333333</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="BO69" t="n">
-        <v>1.800000000000001</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BP69" t="n">
-        <v>1.390000000000001</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BQ69" t="n">
-        <v>-2.109999999999999</v>
-      </c>
-      <c r="BR69" t="n">
         <v>-6.109999999999999</v>
       </c>
     </row>
@@ -15328,21 +15119,18 @@
         <v>17.95250704225355</v>
       </c>
       <c r="BM70" t="n">
-        <v>1.7</v>
+        <v>2.766666666666667</v>
       </c>
       <c r="BN70" t="n">
-        <v>2.766666666666667</v>
+        <v>2.000000000000002</v>
       </c>
       <c r="BO70" t="n">
-        <v>2.000000000000002</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="BP70" t="n">
-        <v>1.299999999999999</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ70" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR70" t="n">
         <v>-2.5</v>
       </c>
     </row>
@@ -15540,21 +15328,18 @@
         <v>16.59362110311752</v>
       </c>
       <c r="BM71" t="n">
-        <v>1.35</v>
+        <v>5.433333333333334</v>
       </c>
       <c r="BN71" t="n">
-        <v>5.433333333333334</v>
+        <v>2.6</v>
       </c>
       <c r="BO71" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="BP71" t="n">
-        <v>2</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ71" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR71" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -15752,21 +15537,18 @@
         <v>18.57986225895317</v>
       </c>
       <c r="BM72" t="n">
-        <v>2.116666666666667</v>
+        <v>2.35</v>
       </c>
       <c r="BN72" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="BO72" t="n">
-        <v>2.5</v>
+        <v>1.19</v>
       </c>
       <c r="BP72" t="n">
-        <v>1.19</v>
+        <v>-2.5</v>
       </c>
       <c r="BQ72" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="BR72" t="n">
         <v>-1.800000000000001</v>
       </c>
     </row>
@@ -15964,21 +15746,18 @@
         <v>20.19749379652609</v>
       </c>
       <c r="BM73" t="n">
-        <v>1.883333333333333</v>
+        <v>3.1</v>
       </c>
       <c r="BN73" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="BO73" t="n">
-        <v>0</v>
+        <v>2.899999999999999</v>
       </c>
       <c r="BP73" t="n">
-        <v>2.899999999999999</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BQ73" t="n">
-        <v>-2.109999999999999</v>
-      </c>
-      <c r="BR73" t="n">
         <v>-1.899999999999999</v>
       </c>
     </row>
@@ -16176,21 +15955,18 @@
         <v>20.23560526315792</v>
       </c>
       <c r="BM74" t="n">
-        <v>2.233333333333333</v>
+        <v>4.55</v>
       </c>
       <c r="BN74" t="n">
-        <v>4.55</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BO74" t="n">
-        <v>1.699999999999999</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="BP74" t="n">
-        <v>2.109999999999999</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BQ74" t="n">
-        <v>-2.109999999999999</v>
-      </c>
-      <c r="BR74" t="n">
         <v>-1.5</v>
       </c>
     </row>
@@ -16382,27 +16158,24 @@
         <v>22.15617590822191</v>
       </c>
       <c r="BK75" t="n">
-        <v>0</v>
+        <v>15.47141224637869</v>
       </c>
       <c r="BL75" t="n">
         <v>22.99011730205281</v>
       </c>
       <c r="BM75" t="n">
-        <v>1.283333333333333</v>
+        <v>2.466666666666667</v>
       </c>
       <c r="BN75" t="n">
-        <v>2.466666666666667</v>
+        <v>1.3</v>
       </c>
       <c r="BO75" t="n">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="BP75" t="n">
-        <v>2.81</v>
+        <v>-0.8100000000000005</v>
       </c>
       <c r="BQ75" t="n">
-        <v>-0.8100000000000005</v>
-      </c>
-      <c r="BR75" t="n">
         <v>1.100000000000001</v>
       </c>
     </row>
@@ -16600,21 +16373,18 @@
         <v>23.05365155131271</v>
       </c>
       <c r="BM76" t="n">
-        <v>0.8</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="BN76" t="n">
-        <v>2.083333333333333</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="BO76" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="BP76" t="n">
-        <v>3.19</v>
+        <v>-1.609999999999999</v>
       </c>
       <c r="BQ76" t="n">
-        <v>-1.609999999999999</v>
-      </c>
-      <c r="BR76" t="n">
         <v>0.7899999999999991</v>
       </c>
     </row>
@@ -16812,21 +16582,18 @@
         <v>22.17264285714295</v>
       </c>
       <c r="BM77" t="n">
-        <v>2.233333333333333</v>
+        <v>6.3</v>
       </c>
       <c r="BN77" t="n">
-        <v>6.3</v>
+        <v>0.5</v>
       </c>
       <c r="BO77" t="n">
-        <v>0.5</v>
+        <v>2.399999999999999</v>
       </c>
       <c r="BP77" t="n">
-        <v>2.399999999999999</v>
+        <v>-1.9</v>
       </c>
       <c r="BQ77" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="BR77" t="n">
         <v>0.7899999999999991</v>
       </c>
     </row>
@@ -17024,21 +16791,18 @@
         <v>24.80323600973245</v>
       </c>
       <c r="BM78" t="n">
-        <v>1.466666666666667</v>
+        <v>4.05</v>
       </c>
       <c r="BN78" t="n">
-        <v>4.05</v>
+        <v>0.7099999999999991</v>
       </c>
       <c r="BO78" t="n">
-        <v>0.7099999999999991</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="BP78" t="n">
-        <v>4.899999999999999</v>
+        <v>-1.81</v>
       </c>
       <c r="BQ78" t="n">
-        <v>-1.81</v>
-      </c>
-      <c r="BR78" t="n">
         <v>1.890000000000001</v>
       </c>
     </row>
@@ -17236,21 +17000,18 @@
         <v>25.44364457831328</v>
       </c>
       <c r="BM79" t="n">
-        <v>0.5</v>
+        <v>2.283333333333333</v>
       </c>
       <c r="BN79" t="n">
-        <v>2.283333333333333</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="BO79" t="n">
-        <v>2.109999999999999</v>
+        <v>5.000000000000002</v>
       </c>
       <c r="BP79" t="n">
-        <v>5.000000000000002</v>
+        <v>-2.699999999999999</v>
       </c>
       <c r="BQ79" t="n">
-        <v>-2.699999999999999</v>
-      </c>
-      <c r="BR79" t="n">
         <v>1.699999999999999</v>
       </c>
     </row>
@@ -17448,21 +17209,18 @@
         <v>22.10938666666671</v>
       </c>
       <c r="BM80" t="n">
-        <v>2.066666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="BN80" t="n">
-        <v>7.083333333333333</v>
+        <v>2.09</v>
       </c>
       <c r="BO80" t="n">
-        <v>2.09</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="BP80" t="n">
-        <v>3.600000000000001</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BQ80" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="BR80" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -17660,21 +17418,18 @@
         <v>26.60918635170614</v>
       </c>
       <c r="BM81" t="n">
-        <v>0.7333333333333333</v>
+        <v>3.55</v>
       </c>
       <c r="BN81" t="n">
-        <v>3.55</v>
+        <v>0.3899999999999988</v>
       </c>
       <c r="BO81" t="n">
-        <v>0.3899999999999988</v>
+        <v>5.310000000000002</v>
       </c>
       <c r="BP81" t="n">
-        <v>5.310000000000002</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BQ81" t="n">
-        <v>-2.109999999999999</v>
-      </c>
-      <c r="BR81" t="n">
         <v>5</v>
       </c>
     </row>
@@ -17872,21 +17627,18 @@
         <v>26.50462264150942</v>
       </c>
       <c r="BM82" t="n">
-        <v>0.9333333333333333</v>
+        <v>3.8</v>
       </c>
       <c r="BN82" t="n">
-        <v>3.8</v>
+        <v>0.7000000000000011</v>
       </c>
       <c r="BO82" t="n">
-        <v>0.7000000000000011</v>
+        <v>3.609999999999999</v>
       </c>
       <c r="BP82" t="n">
-        <v>3.609999999999999</v>
+        <v>-1.81</v>
       </c>
       <c r="BQ82" t="n">
-        <v>-1.81</v>
-      </c>
-      <c r="BR82" t="n">
         <v>5.600000000000001</v>
       </c>
     </row>
@@ -18084,21 +17836,18 @@
         <v>18.3051129943503</v>
       </c>
       <c r="BM83" t="n">
-        <v>3.083333333333333</v>
+        <v>0.85</v>
       </c>
       <c r="BN83" t="n">
-        <v>0.85</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BO83" t="n">
-        <v>0.3999999999999986</v>
+        <v>3.200000000000001</v>
       </c>
       <c r="BP83" t="n">
-        <v>3.200000000000001</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="BQ83" t="n">
-        <v>-0.9000000000000004</v>
-      </c>
-      <c r="BR83" t="n">
         <v>-5.300000000000001</v>
       </c>
     </row>
@@ -18296,21 +18045,18 @@
         <v>16.88752969121143</v>
       </c>
       <c r="BM84" t="n">
-        <v>0.4333333333333333</v>
+        <v>0</v>
       </c>
       <c r="BN84" t="n">
-        <v>0</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BO84" t="n">
-        <v>0.1999999999999993</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="BP84" t="n">
-        <v>2.109999999999999</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BQ84" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="BR84" t="n">
         <v>-7.5</v>
       </c>
     </row>
@@ -18508,21 +18254,18 @@
         <v>16.99751807228917</v>
       </c>
       <c r="BM85" t="n">
-        <v>2.933333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="BN85" t="n">
-        <v>1.666666666666667</v>
+        <v>1.6</v>
       </c>
       <c r="BO85" t="n">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="BP85" t="n">
-        <v>1.41</v>
+        <v>-3.4</v>
       </c>
       <c r="BQ85" t="n">
-        <v>-3.4</v>
-      </c>
-      <c r="BR85" t="n">
         <v>-3.210000000000001</v>
       </c>
     </row>
@@ -18720,21 +18463,18 @@
         <v>19.40785714285718</v>
       </c>
       <c r="BM86" t="n">
-        <v>2.616666666666667</v>
+        <v>2</v>
       </c>
       <c r="BN86" t="n">
-        <v>2</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="BO86" t="n">
-        <v>2.109999999999999</v>
+        <v>3.000000000000002</v>
       </c>
       <c r="BP86" t="n">
-        <v>3.000000000000002</v>
+        <v>-3.31</v>
       </c>
       <c r="BQ86" t="n">
-        <v>-3.31</v>
-      </c>
-      <c r="BR86" t="n">
         <v>-3.109999999999999</v>
       </c>
     </row>
@@ -18932,21 +18672,18 @@
         <v>19.63854415274468</v>
       </c>
       <c r="BM87" t="n">
-        <v>2.083333333333333</v>
+        <v>3.983333333333333</v>
       </c>
       <c r="BN87" t="n">
-        <v>3.983333333333333</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="BO87" t="n">
-        <v>0.6000000000000014</v>
+        <v>0.5</v>
       </c>
       <c r="BP87" t="n">
-        <v>0.5</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ87" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR87" t="n">
         <v>-1.800000000000001</v>
       </c>
     </row>
@@ -19144,21 +18881,18 @@
         <v>23.34957142857149</v>
       </c>
       <c r="BM88" t="n">
-        <v>0.6333333333333333</v>
+        <v>2.433333333333333</v>
       </c>
       <c r="BN88" t="n">
-        <v>2.433333333333333</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BO88" t="n">
-        <v>2.199999999999999</v>
+        <v>4.809999999999999</v>
       </c>
       <c r="BP88" t="n">
-        <v>4.809999999999999</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BQ88" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="BR88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19356,21 +19090,18 @@
         <v>24.92190930787598</v>
       </c>
       <c r="BM89" t="n">
-        <v>6.116666666666666</v>
+        <v>1.7</v>
       </c>
       <c r="BN89" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="BO89" t="n">
-        <v>2</v>
+        <v>1.599999999999998</v>
       </c>
       <c r="BP89" t="n">
-        <v>1.599999999999998</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BQ89" t="n">
-        <v>-2.109999999999999</v>
-      </c>
-      <c r="BR89" t="n">
         <v>2.890000000000001</v>
       </c>
     </row>
@@ -19568,21 +19299,18 @@
         <v>24.0467933491687</v>
       </c>
       <c r="BM90" t="n">
-        <v>2.033333333333333</v>
+        <v>2.783333333333333</v>
       </c>
       <c r="BN90" t="n">
-        <v>2.783333333333333</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="BO90" t="n">
-        <v>1.399999999999999</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="BP90" t="n">
-        <v>4.199999999999999</v>
+        <v>-2</v>
       </c>
       <c r="BQ90" t="n">
-        <v>-2</v>
-      </c>
-      <c r="BR90" t="n">
         <v>2.199999999999999</v>
       </c>
     </row>
@@ -19780,21 +19508,18 @@
         <v>23.72504761904771</v>
       </c>
       <c r="BM91" t="n">
-        <v>0.8666666666666667</v>
+        <v>1.55</v>
       </c>
       <c r="BN91" t="n">
-        <v>1.55</v>
+        <v>2.210000000000001</v>
       </c>
       <c r="BO91" t="n">
-        <v>2.210000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="BP91" t="n">
-        <v>5.5</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BQ91" t="n">
-        <v>-2.109999999999999</v>
-      </c>
-      <c r="BR91" t="n">
         <v>0.7899999999999991</v>
       </c>
     </row>
@@ -19992,21 +19717,18 @@
         <v>19.51078384798102</v>
       </c>
       <c r="BM92" t="n">
-        <v>5.583333333333333</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="BN92" t="n">
-        <v>3.266666666666667</v>
+        <v>1.855</v>
       </c>
       <c r="BO92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP92" t="n">
-        <v>1</v>
+        <v>-1.31</v>
       </c>
       <c r="BQ92" t="n">
-        <v>-1.31</v>
-      </c>
-      <c r="BR92" t="n">
         <v>-3.609999999999999</v>
       </c>
     </row>
@@ -20204,21 +19926,18 @@
         <v>16.55294258373208</v>
       </c>
       <c r="BM93" t="n">
-        <v>1.616666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN93" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BO93" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="BP93" t="n">
-        <v>0.5</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BQ93" t="n">
-        <v>-2.109999999999999</v>
-      </c>
-      <c r="BR93" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -20416,21 +20135,18 @@
         <v>19.68604316546765</v>
       </c>
       <c r="BM94" t="n">
-        <v>1.633333333333333</v>
+        <v>3.4</v>
       </c>
       <c r="BN94" t="n">
-        <v>3.4</v>
+        <v>0.2099999999999991</v>
       </c>
       <c r="BO94" t="n">
-        <v>0.2099999999999991</v>
+        <v>2</v>
       </c>
       <c r="BP94" t="n">
-        <v>2</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BQ94" t="n">
-        <v>-2.109999999999999</v>
-      </c>
-      <c r="BR94" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -20628,21 +20344,18 @@
         <v>22.90731382978728</v>
       </c>
       <c r="BM95" t="n">
-        <v>1.533333333333333</v>
+        <v>2.766666666666667</v>
       </c>
       <c r="BN95" t="n">
-        <v>2.766666666666667</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="BO95" t="n">
-        <v>2.300000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="BP95" t="n">
-        <v>1.5</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BQ95" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="BR95" t="n">
         <v>-0.6099999999999994</v>
       </c>
     </row>
@@ -20840,21 +20553,18 @@
         <v>23.5128095238096</v>
       </c>
       <c r="BM96" t="n">
-        <v>0.7666666666666667</v>
+        <v>2.6</v>
       </c>
       <c r="BN96" t="n">
-        <v>2.6</v>
+        <v>0.7099999999999991</v>
       </c>
       <c r="BO96" t="n">
-        <v>0.7099999999999991</v>
+        <v>4.31</v>
       </c>
       <c r="BP96" t="n">
-        <v>4.31</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ96" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR96" t="n">
         <v>1.100000000000001</v>
       </c>
     </row>
@@ -21052,21 +20762,18 @@
         <v>23.13824207492799</v>
       </c>
       <c r="BM97" t="n">
-        <v>0.9333333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="BN97" t="n">
-        <v>2.166666666666667</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="BO97" t="n">
-        <v>2.100000000000001</v>
+        <v>4.31</v>
       </c>
       <c r="BP97" t="n">
-        <v>4.31</v>
+        <v>-2</v>
       </c>
       <c r="BQ97" t="n">
-        <v>-2</v>
-      </c>
-      <c r="BR97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21264,21 +20971,18 @@
         <v>24.4811594202899</v>
       </c>
       <c r="BM98" t="n">
-        <v>0.6166666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="BN98" t="n">
-        <v>1.25</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="BO98" t="n">
-        <v>2.109999999999999</v>
+        <v>4.09</v>
       </c>
       <c r="BP98" t="n">
-        <v>4.09</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BQ98" t="n">
-        <v>-2.109999999999999</v>
-      </c>
-      <c r="BR98" t="n">
         <v>1.699999999999999</v>
       </c>
     </row>
@@ -21476,21 +21180,18 @@
         <v>28.58892857142868</v>
       </c>
       <c r="BM99" t="n">
-        <v>0.85</v>
+        <v>3.45</v>
       </c>
       <c r="BN99" t="n">
-        <v>3.45</v>
+        <v>2</v>
       </c>
       <c r="BO99" t="n">
-        <v>2</v>
+        <v>6.900000000000002</v>
       </c>
       <c r="BP99" t="n">
-        <v>6.900000000000002</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BQ99" t="n">
-        <v>-2.109999999999999</v>
-      </c>
-      <c r="BR99" t="n">
         <v>5.789999999999999</v>
       </c>
     </row>
@@ -21688,21 +21389,18 @@
         <v>27.2535391923992</v>
       </c>
       <c r="BM100" t="n">
-        <v>1.416666666666667</v>
+        <v>3.616666666666667</v>
       </c>
       <c r="BN100" t="n">
-        <v>3.616666666666667</v>
+        <v>1.09</v>
       </c>
       <c r="BO100" t="n">
-        <v>1.09</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="BP100" t="n">
-        <v>4.390000000000001</v>
+        <v>-1.699999999999999</v>
       </c>
       <c r="BQ100" t="n">
-        <v>-1.699999999999999</v>
-      </c>
-      <c r="BR100" t="n">
         <v>5.100000000000001</v>
       </c>
     </row>
@@ -21900,21 +21598,18 @@
         <v>22.8357635467981</v>
       </c>
       <c r="BM101" t="n">
-        <v>5.833333333333333</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="BN101" t="n">
-        <v>5.083333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="BO101" t="n">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
       <c r="BP101" t="n">
-        <v>1.59</v>
+        <v>-1.9</v>
       </c>
       <c r="BQ101" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="BR101" t="n">
         <v>0.6999999999999993</v>
       </c>
     </row>
@@ -22112,21 +21807,18 @@
         <v>16.85178571428573</v>
       </c>
       <c r="BM102" t="n">
-        <v>2.183333333333333</v>
+        <v>0</v>
       </c>
       <c r="BN102" t="n">
-        <v>0</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="BO102" t="n">
-        <v>0.4000000000000004</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BP102" t="n">
-        <v>1.289999999999999</v>
+        <v>-1.4</v>
       </c>
       <c r="BQ102" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="BR102" t="n">
         <v>-6.609999999999999</v>
       </c>
     </row>
@@ -22324,21 +22016,18 @@
         <v>20.25783333333337</v>
       </c>
       <c r="BM103" t="n">
-        <v>6.7</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="BN103" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BO103" t="n">
-        <v>0.2999999999999989</v>
+        <v>2</v>
       </c>
       <c r="BP103" t="n">
-        <v>2</v>
+        <v>-1.609999999999999</v>
       </c>
       <c r="BQ103" t="n">
-        <v>-1.609999999999999</v>
-      </c>
-      <c r="BR103" t="n">
         <v>-4.210000000000001</v>
       </c>
     </row>
@@ -22536,21 +22225,18 @@
         <v>26.04677261613704</v>
       </c>
       <c r="BM104" t="n">
-        <v>0.85</v>
+        <v>2.466666666666667</v>
       </c>
       <c r="BN104" t="n">
-        <v>2.466666666666667</v>
+        <v>2.899999999999999</v>
       </c>
       <c r="BO104" t="n">
-        <v>2.899999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="BP104" t="n">
-        <v>6.5</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BQ104" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="BR104" t="n">
         <v>3.789999999999999</v>
       </c>
     </row>
@@ -22748,21 +22434,18 @@
         <v>25.30721153846163</v>
       </c>
       <c r="BM105" t="n">
-        <v>1.416666666666667</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="BN105" t="n">
-        <v>3.366666666666667</v>
+        <v>2.19</v>
       </c>
       <c r="BO105" t="n">
-        <v>2.19</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="BP105" t="n">
-        <v>4.800000000000001</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ105" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR105" t="n">
         <v>2.390000000000001</v>
       </c>
     </row>
@@ -22960,21 +22643,18 @@
         <v>25.33236842105271</v>
       </c>
       <c r="BM106" t="n">
-        <v>1.95</v>
+        <v>6.25</v>
       </c>
       <c r="BN106" t="n">
-        <v>6.25</v>
+        <v>2.01</v>
       </c>
       <c r="BO106" t="n">
-        <v>2.01</v>
+        <v>5</v>
       </c>
       <c r="BP106" t="n">
-        <v>5</v>
+        <v>-1.9</v>
       </c>
       <c r="BQ106" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="BR106" t="n">
         <v>2.199999999999999</v>
       </c>
     </row>
@@ -23172,21 +22852,18 @@
         <v>25.0046744791668</v>
       </c>
       <c r="BM107" t="n">
-        <v>3.433333333333333</v>
+        <v>10.9</v>
       </c>
       <c r="BN107" t="n">
-        <v>10.9</v>
+        <v>5.710000000000001</v>
       </c>
       <c r="BO107" t="n">
-        <v>5.710000000000001</v>
+        <v>6.699999999999999</v>
       </c>
       <c r="BP107" t="n">
-        <v>6.699999999999999</v>
+        <v>-2.5</v>
       </c>
       <c r="BQ107" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="BR107" t="n">
         <v>2.199999999999999</v>
       </c>
     </row>
@@ -23384,21 +23061,18 @@
         <v>26.50768674698805</v>
       </c>
       <c r="BM108" t="n">
-        <v>1.2</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="BN108" t="n">
-        <v>3.083333333333333</v>
+        <v>3.290000000000001</v>
       </c>
       <c r="BO108" t="n">
-        <v>3.290000000000001</v>
+        <v>5.289999999999999</v>
       </c>
       <c r="BP108" t="n">
-        <v>5.289999999999999</v>
+        <v>-2.9</v>
       </c>
       <c r="BQ108" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="BR108" t="n">
         <v>3.699999999999999</v>
       </c>
     </row>
@@ -23596,21 +23270,18 @@
         <v>28.34603325415688</v>
       </c>
       <c r="BM109" t="n">
-        <v>3.9</v>
+        <v>9.516666666666667</v>
       </c>
       <c r="BN109" t="n">
-        <v>9.516666666666667</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="BO109" t="n">
-        <v>2.109999999999999</v>
+        <v>5</v>
       </c>
       <c r="BP109" t="n">
-        <v>5</v>
+        <v>-1.609999999999999</v>
       </c>
       <c r="BQ109" t="n">
-        <v>-1.609999999999999</v>
-      </c>
-      <c r="BR109" t="n">
         <v>5.100000000000001</v>
       </c>
     </row>
@@ -23808,21 +23479,18 @@
         <v>27.18179856115118</v>
       </c>
       <c r="BM110" t="n">
-        <v>3.616666666666667</v>
+        <v>5.466666666666667</v>
       </c>
       <c r="BN110" t="n">
-        <v>5.466666666666667</v>
+        <v>2.399999999999999</v>
       </c>
       <c r="BO110" t="n">
-        <v>2.399999999999999</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BP110" t="n">
-        <v>2.289999999999999</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BQ110" t="n">
-        <v>-0.6099999999999994</v>
-      </c>
-      <c r="BR110" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -24020,21 +23688,18 @@
         <v>22.30378571428576</v>
       </c>
       <c r="BM111" t="n">
-        <v>9.883333333333333</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="BN111" t="n">
-        <v>2.583333333333333</v>
+        <v>0.6099999999999994</v>
       </c>
       <c r="BO111" t="n">
-        <v>0.6099999999999994</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="BP111" t="n">
-        <v>1.300000000000001</v>
+        <v>-0.8100000000000005</v>
       </c>
       <c r="BQ111" t="n">
-        <v>-0.8100000000000005</v>
-      </c>
-      <c r="BR111" t="n">
         <v>4.390000000000001</v>
       </c>
     </row>
@@ -24232,21 +23897,18 @@
         <v>21.32147971360384</v>
       </c>
       <c r="BM112" t="n">
-        <v>3.15</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="BN112" t="n">
-        <v>5.416666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="BO112" t="n">
-        <v>3.5</v>
+        <v>3.300000000000001</v>
       </c>
       <c r="BP112" t="n">
-        <v>3.300000000000001</v>
+        <v>-3.81</v>
       </c>
       <c r="BQ112" t="n">
-        <v>-3.81</v>
-      </c>
-      <c r="BR112" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -24444,21 +24106,18 @@
         <v>24.10535885167472</v>
       </c>
       <c r="BM113" t="n">
-        <v>1.033333333333333</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="BN113" t="n">
-        <v>1.066666666666667</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="BO113" t="n">
-        <v>3.800000000000001</v>
+        <v>4.109999999999999</v>
       </c>
       <c r="BP113" t="n">
-        <v>4.109999999999999</v>
+        <v>-5.5</v>
       </c>
       <c r="BQ113" t="n">
-        <v>-5.5</v>
-      </c>
-      <c r="BR113" t="n">
         <v>1.199999999999999</v>
       </c>
     </row>
@@ -24656,21 +24315,18 @@
         <v>25.89549878345509</v>
       </c>
       <c r="BM114" t="n">
-        <v>5.333333333333333</v>
+        <v>5.716666666666667</v>
       </c>
       <c r="BN114" t="n">
-        <v>5.716666666666667</v>
+        <v>5</v>
       </c>
       <c r="BO114" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP114" t="n">
-        <v>4</v>
+        <v>-6.31</v>
       </c>
       <c r="BQ114" t="n">
-        <v>-6.31</v>
-      </c>
-      <c r="BR114" t="n">
         <v>3.390000000000001</v>
       </c>
     </row>
@@ -24868,21 +24524,18 @@
         <v>19.78183770883058</v>
       </c>
       <c r="BM115" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="BN115" t="n">
-        <v>0</v>
+        <v>0.1900000000000013</v>
       </c>
       <c r="BO115" t="n">
-        <v>0.1900000000000013</v>
+        <v>1</v>
       </c>
       <c r="BP115" t="n">
-        <v>1</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BQ115" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="BR115" t="n">
         <v>-5.210000000000001</v>
       </c>
     </row>
@@ -25080,21 +24733,18 @@
         <v>23.85954545454554</v>
       </c>
       <c r="BM116" t="n">
-        <v>3.733333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="BN116" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.2100000000000009</v>
       </c>
       <c r="BO116" t="n">
-        <v>0.2100000000000009</v>
+        <v>5.810000000000002</v>
       </c>
       <c r="BP116" t="n">
-        <v>5.810000000000002</v>
+        <v>-1.81</v>
       </c>
       <c r="BQ116" t="n">
-        <v>-1.81</v>
-      </c>
-      <c r="BR116" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -25292,21 +24942,18 @@
         <v>25.39355329949246</v>
       </c>
       <c r="BM117" t="n">
-        <v>1.816666666666667</v>
+        <v>8.6</v>
       </c>
       <c r="BN117" t="n">
-        <v>8.6</v>
+        <v>2.19</v>
       </c>
       <c r="BO117" t="n">
-        <v>2.19</v>
+        <v>5.199999999999999</v>
       </c>
       <c r="BP117" t="n">
-        <v>5.199999999999999</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BQ117" t="n">
-        <v>-2.109999999999999</v>
-      </c>
-      <c r="BR117" t="n">
         <v>3</v>
       </c>
     </row>
@@ -25504,21 +25151,18 @@
         <v>26.53458536585376</v>
       </c>
       <c r="BM118" t="n">
-        <v>1.416666666666667</v>
+        <v>9.233333333333333</v>
       </c>
       <c r="BN118" t="n">
-        <v>9.233333333333333</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="BO118" t="n">
-        <v>3.800000000000001</v>
+        <v>5.810000000000002</v>
       </c>
       <c r="BP118" t="n">
-        <v>5.810000000000002</v>
+        <v>-5.5</v>
       </c>
       <c r="BQ118" t="n">
-        <v>-5.5</v>
-      </c>
-      <c r="BR118" t="n">
         <v>4.199999999999999</v>
       </c>
     </row>
@@ -25716,21 +25360,18 @@
         <v>25.30711217183781</v>
       </c>
       <c r="BM119" t="n">
-        <v>2</v>
+        <v>7.966666666666667</v>
       </c>
       <c r="BN119" t="n">
-        <v>7.966666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="BO119" t="n">
-        <v>3.5</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="BP119" t="n">
-        <v>6.600000000000001</v>
+        <v>-5</v>
       </c>
       <c r="BQ119" t="n">
-        <v>-5</v>
-      </c>
-      <c r="BR119" t="n">
         <v>1.390000000000001</v>
       </c>
     </row>
@@ -25928,21 +25569,18 @@
         <v>24.77080246913583</v>
       </c>
       <c r="BM120" t="n">
-        <v>1.616666666666667</v>
+        <v>2.3</v>
       </c>
       <c r="BN120" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="BO120" t="n">
-        <v>1.5</v>
+        <v>2.699999999999999</v>
       </c>
       <c r="BP120" t="n">
-        <v>2.699999999999999</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BQ120" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="BR120" t="n">
         <v>1.390000000000001</v>
       </c>
     </row>
@@ -26140,21 +25778,18 @@
         <v>19.65590909090914</v>
       </c>
       <c r="BM121" t="n">
-        <v>5.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN121" t="n">
-        <v>0</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BO121" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BP121" t="n">
-        <v>0.3999999999999986</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BQ121" t="n">
-        <v>-0.6099999999999994</v>
-      </c>
-      <c r="BR121" t="n">
         <v>-1.800000000000001</v>
       </c>
     </row>
@@ -26352,21 +25987,18 @@
         <v>25.51043478260865</v>
       </c>
       <c r="BM122" t="n">
-        <v>1.533333333333333</v>
+        <v>1.383333333333333</v>
       </c>
       <c r="BN122" t="n">
-        <v>1.383333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="BO122" t="n">
-        <v>1.4</v>
+        <v>4.789999999999999</v>
       </c>
       <c r="BP122" t="n">
-        <v>4.789999999999999</v>
+        <v>-1.699999999999999</v>
       </c>
       <c r="BQ122" t="n">
-        <v>-1.699999999999999</v>
-      </c>
-      <c r="BR122" t="n">
         <v>1.789999999999999</v>
       </c>
     </row>
@@ -26564,21 +26196,18 @@
         <v>27.88882113821141</v>
       </c>
       <c r="BM123" t="n">
-        <v>0.7833333333333333</v>
+        <v>3.2</v>
       </c>
       <c r="BN123" t="n">
-        <v>3.2</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="BO123" t="n">
-        <v>1.100000000000001</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BP123" t="n">
-        <v>1.890000000000001</v>
+        <v>-1</v>
       </c>
       <c r="BQ123" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BR123" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -26776,21 +26405,18 @@
         <v>25.745</v>
       </c>
       <c r="BM124" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="BN124" t="n">
-        <v>0.08333333333333333</v>
+        <v>2.609999999999999</v>
       </c>
       <c r="BO124" t="n">
-        <v>2.609999999999999</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="BP124" t="n">
-        <v>0.08999999999999986</v>
+        <v>-1.699999999999999</v>
       </c>
       <c r="BQ124" t="n">
-        <v>-1.699999999999999</v>
-      </c>
-      <c r="BR124" t="n">
         <v>5</v>
       </c>
     </row>
@@ -26991,18 +26617,15 @@
         <v>0</v>
       </c>
       <c r="BN125" t="n">
-        <v>0</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="BO125" t="n">
-        <v>1.399999999999999</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="BP125" t="n">
-        <v>0.8000000000000007</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="BQ125" t="n">
-        <v>6.600000000000001</v>
-      </c>
-      <c r="BR125" t="n">
         <v>2.100000000000001</v>
       </c>
     </row>
@@ -27203,18 +26826,15 @@
         <v>0</v>
       </c>
       <c r="BN126" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BO126" t="n">
-        <v>0.5</v>
+        <v>1.189999999999998</v>
       </c>
       <c r="BP126" t="n">
-        <v>1.189999999999998</v>
+        <v>6.390000000000001</v>
       </c>
       <c r="BQ126" t="n">
-        <v>6.390000000000001</v>
-      </c>
-      <c r="BR126" t="n">
         <v>5.890000000000001</v>
       </c>
     </row>
@@ -27412,21 +27032,18 @@
         <v>22.101028708134</v>
       </c>
       <c r="BM127" t="n">
-        <v>5.15</v>
+        <v>0</v>
       </c>
       <c r="BN127" t="n">
-        <v>0</v>
+        <v>0.3100000000000023</v>
       </c>
       <c r="BO127" t="n">
-        <v>0.3100000000000023</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BP127" t="n">
-        <v>2.289999999999999</v>
+        <v>2</v>
       </c>
       <c r="BQ127" t="n">
-        <v>2</v>
-      </c>
-      <c r="BR127" t="n">
         <v>-1.399999999999999</v>
       </c>
     </row>
@@ -27624,21 +27241,18 @@
         <v>25.64727047146411</v>
       </c>
       <c r="BM128" t="n">
-        <v>3.783333333333333</v>
+        <v>5.95</v>
       </c>
       <c r="BN128" t="n">
-        <v>5.95</v>
+        <v>3.210000000000001</v>
       </c>
       <c r="BO128" t="n">
-        <v>3.210000000000001</v>
+        <v>5.109999999999999</v>
       </c>
       <c r="BP128" t="n">
-        <v>5.109999999999999</v>
+        <v>-2.4</v>
       </c>
       <c r="BQ128" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="BR128" t="n">
         <v>2.100000000000001</v>
       </c>
     </row>
@@ -27836,21 +27450,18 @@
         <v>23.16539408867</v>
       </c>
       <c r="BM129" t="n">
-        <v>1.5</v>
+        <v>5.9</v>
       </c>
       <c r="BN129" t="n">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="BO129" t="n">
-        <v>4.9</v>
+        <v>4.810000000000002</v>
       </c>
       <c r="BP129" t="n">
-        <v>4.810000000000002</v>
+        <v>-5.4</v>
       </c>
       <c r="BQ129" t="n">
-        <v>-5.4</v>
-      </c>
-      <c r="BR129" t="n">
         <v>3</v>
       </c>
     </row>
@@ -28048,21 +27659,18 @@
         <v>27.36198090692137</v>
       </c>
       <c r="BM130" t="n">
-        <v>1.983333333333333</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BN130" t="n">
-        <v>9.199999999999999</v>
+        <v>4.890000000000001</v>
       </c>
       <c r="BO130" t="n">
-        <v>4.890000000000001</v>
+        <v>3.690000000000001</v>
       </c>
       <c r="BP130" t="n">
-        <v>3.690000000000001</v>
+        <v>-5</v>
       </c>
       <c r="BQ130" t="n">
-        <v>-5</v>
-      </c>
-      <c r="BR130" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -28260,21 +27868,18 @@
         <v>23.96697270471473</v>
       </c>
       <c r="BM131" t="n">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
       <c r="BN131" t="n">
-        <v>3.2</v>
+        <v>3.390000000000001</v>
       </c>
       <c r="BO131" t="n">
-        <v>3.390000000000001</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BP131" t="n">
-        <v>2.289999999999999</v>
+        <v>-2</v>
       </c>
       <c r="BQ131" t="n">
-        <v>-2</v>
-      </c>
-      <c r="BR131" t="n">
         <v>3.890000000000001</v>
       </c>
     </row>
@@ -28472,21 +28077,18 @@
         <v>27.86983333333343</v>
       </c>
       <c r="BM132" t="n">
-        <v>5.966666666666667</v>
+        <v>4.633333333333334</v>
       </c>
       <c r="BN132" t="n">
-        <v>4.633333333333334</v>
+        <v>1.190000000000001</v>
       </c>
       <c r="BO132" t="n">
-        <v>1.190000000000001</v>
+        <v>6.199999999999999</v>
       </c>
       <c r="BP132" t="n">
-        <v>6.199999999999999</v>
+        <v>-3.31</v>
       </c>
       <c r="BQ132" t="n">
-        <v>-3.31</v>
-      </c>
-      <c r="BR132" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -28684,21 +28286,18 @@
         <v>27.31248780487817</v>
       </c>
       <c r="BM133" t="n">
-        <v>0.7166666666666667</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="BN133" t="n">
-        <v>2.133333333333333</v>
+        <v>3.799999999999999</v>
       </c>
       <c r="BO133" t="n">
-        <v>3.799999999999999</v>
+        <v>7.189999999999998</v>
       </c>
       <c r="BP133" t="n">
-        <v>7.189999999999998</v>
+        <v>-5.699999999999999</v>
       </c>
       <c r="BQ133" t="n">
-        <v>-5.699999999999999</v>
-      </c>
-      <c r="BR133" t="n">
         <v>3.699999999999999</v>
       </c>
     </row>
@@ -28896,21 +28495,18 @@
         <v>27.46776190476201</v>
       </c>
       <c r="BM134" t="n">
-        <v>1.75</v>
+        <v>6.65</v>
       </c>
       <c r="BN134" t="n">
-        <v>6.65</v>
+        <v>5.200000000000001</v>
       </c>
       <c r="BO134" t="n">
-        <v>5.200000000000001</v>
+        <v>5.109999999999999</v>
       </c>
       <c r="BP134" t="n">
-        <v>5.109999999999999</v>
+        <v>-5.81</v>
       </c>
       <c r="BQ134" t="n">
-        <v>-5.81</v>
-      </c>
-      <c r="BR134" t="n">
         <v>4.600000000000001</v>
       </c>
     </row>
@@ -29108,21 +28704,18 @@
         <v>30.14590361445793</v>
       </c>
       <c r="BM135" t="n">
-        <v>3.366666666666667</v>
+        <v>5.3</v>
       </c>
       <c r="BN135" t="n">
-        <v>5.3</v>
+        <v>4.910000000000002</v>
       </c>
       <c r="BO135" t="n">
-        <v>4.910000000000002</v>
+        <v>6.91</v>
       </c>
       <c r="BP135" t="n">
-        <v>6.91</v>
+        <v>-3.81</v>
       </c>
       <c r="BQ135" t="n">
-        <v>-3.81</v>
-      </c>
-      <c r="BR135" t="n">
         <v>6.289999999999999</v>
       </c>
     </row>

--- a/dataset/2nd_data/hwang/hwang_env_detail_data.xlsx
+++ b/dataset/2nd_data/hwang/hwang_env_detail_data.xlsx
@@ -384,332 +384,332 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>dew point (Td)</t>
+          <t>이슬점(Td)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>증산(HD)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>atmospheric pressure</t>
+          <t>대기압</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>pws</t>
+          <t>PWS(?)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>W (moisture content)</t>
+          <t>수분량</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>h (enthalpy)</t>
+          <t>엔탈피</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>v (specific volume)</t>
+          <t>비부피</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>rho (density)</t>
+          <t>밀도</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>pw (Partial pressure) water vapor</t>
+          <t>PW(?)수증기</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Absolute Humidity (AH)</t>
+          <t>절대습도</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>absoluteAH</t>
+          <t>절대AH(?)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>실내온도_std</t>
+          <t>실내온도표준편차</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>실내습도_std</t>
+          <t>실내습도표준편차</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>dew point (Td)_std</t>
+          <t>이슬점(Td)표준편차</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>HD_std</t>
+          <t>증산(HD)표준편차</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>atmospheric pressure_std</t>
+          <t>대기압표준편차</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>pws_std</t>
+          <t>PWS(?)표준편차</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>W (moisture content)_std</t>
+          <t>수분량표준편차</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>h (enthalpy)_std</t>
+          <t>엔탈피표준편차</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>v (specific volume)_std</t>
+          <t>비부피표준편차</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>rho (density)_std</t>
+          <t>밀도표준편차</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>pw (Partial pressure) water vapor_std</t>
+          <t>PW(?)수증기표준편차</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Absolute Humidity (AH)_std</t>
+          <t>절대습도표준편차</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>absoluteAH_std</t>
+          <t>절대AH(?)표준편차</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>실내온도_min</t>
+          <t>최소실내온도</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>실내습도_min</t>
+          <t>최소실내습도</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>dew point (Td)_min</t>
+          <t>최소이슬점(Td)</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>HD_min</t>
+          <t>최소증산(HD)</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>atmospheric pressure_min</t>
+          <t>최소대기압</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>pws_min</t>
+          <t>최소PWS(?)</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>W (moisture content)_min</t>
+          <t>최소수분량</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>h (enthalpy)_min</t>
+          <t>최소엔탈피</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>v (specific volume)_min</t>
+          <t>최소비부피</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>rho (density)_min</t>
+          <t>최소밀도</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>pw (Partial pressure) water vapor_min</t>
+          <t>최소PW(?)수증기</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Absolute Humidity (AH)_min</t>
+          <t>최소절대습도</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>absoluteAH_min</t>
+          <t>최소절대AH(?)</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>실내온도_max</t>
+          <t>최대실내온도</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>실내습도_max</t>
+          <t>최대실내습도</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>dew point (Td)_max</t>
+          <t>최대이슬점(Td)</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>HD_max</t>
+          <t>최대증산(HD)</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>atmospheric pressure_max</t>
+          <t>최대대기압</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>pws_max</t>
+          <t>최대PWS(?)</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>W (moisture content)_max</t>
+          <t>최대수분량</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>h (enthalpy)_max</t>
+          <t>최대엔탈피</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>v (specific volume)_max</t>
+          <t>최대비부피</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>rho (density)_max</t>
+          <t>최대밀도</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>pw (Partial pressure) water vapor_max</t>
+          <t>최대PW(?)수증기</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>Absolute Humidity (AH)_max</t>
+          <t>최대절대습도</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>absoluteAH_max</t>
+          <t>최대절대AH(?)</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>am_suitable_HD</t>
+          <t>오전적정증산(HD)누적시간</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>sun_suitable_HD</t>
+          <t>일출일몰적정증산(HD)누적시간</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>day_suitable_HD</t>
+          <t>하루적정증산(HD)누적시간</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>pm_unsuitable_HD</t>
+          <t>오후심각증산(HD)누적시간</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>am_unsuitable_HD</t>
+          <t>오전심각증산(HD)누적시간</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>low_temperature</t>
+          <t>12도이하온도누적시간</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>high_temperature</t>
+          <t>30도이상온도누적시간</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>suitable_temperature</t>
+          <t>적정온도누적시간</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>daytime_temperature</t>
+          <t>주간평균온도</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>nighttime_temperature</t>
+          <t>야간평균온도</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>afternoon_temperature</t>
+          <t>오후부터일몰까지평균온도</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>suitable_humidity_time</t>
+          <t>적정습도누적시간</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>sunrise_diff</t>
+          <t>일출전후한시간평균온도</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>sunset_diff</t>
+          <t>일몰전후한시간평균온도</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>suitable_temperature_diff_lowerbound</t>
+          <t>적정온도변화폭(하위)</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>suitable_temperature_diff_upperbound</t>
+          <t>적정온도변화폭(상위)</t>
         </is>
       </c>
     </row>

--- a/dataset/2nd_data/hwang/hwang_env_detail_data.xlsx
+++ b/dataset/2nd_data/hwang/hwang_env_detail_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ135"/>
+  <dimension ref="A1:BS134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,37 +679,47 @@
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>야간평균온도</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
           <t>오후부터일몰까지평균온도</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>적정습도누적시간</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>일출전후한시간평균온도</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>일몰전후한시간평균온도</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>적정온도변화폭(하위)</t>
         </is>
       </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>적정온도변화폭(상위)</t>
+        </is>
+      </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>적정온도변화폭(상위)</t>
+          <t>야간평균온도</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>일몰일출적합증산(HD)누적시간</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>주야간온도차이</t>
         </is>
       </c>
     </row>
@@ -901,25 +911,31 @@
         <v>19.56547557840629</v>
       </c>
       <c r="BK2" t="n">
-        <v>17.31875569044012</v>
+        <v>21.06550239234456</v>
       </c>
       <c r="BL2" t="n">
-        <v>21.06550239234456</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.083333333333333</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.8900000000000006</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.1999999999999993</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.289999999999999</v>
+        <v>16.74389984825502</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>8.233333333333333</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>2.821575730151277</v>
       </c>
     </row>
     <row r="3">
@@ -1110,25 +1126,31 @@
         <v>21.04511658031098</v>
       </c>
       <c r="BK3" t="n">
-        <v>16.84931714719282</v>
+        <v>22.55653206650835</v>
       </c>
       <c r="BL3" t="n">
-        <v>22.55653206650835</v>
+        <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.3000000000000007</v>
+        <v>1.810000000000002</v>
       </c>
       <c r="BO3" t="n">
-        <v>1.810000000000002</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.1999999999999993</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.100000000000001</v>
+        <v>17.02368740515946</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>4.021429175151521</v>
       </c>
     </row>
     <row r="4">
@@ -1319,25 +1341,31 @@
         <v>21.42252240717038</v>
       </c>
       <c r="BK4" t="n">
-        <v>16.79606980273151</v>
+        <v>23.26230403800482</v>
       </c>
       <c r="BL4" t="n">
-        <v>23.26230403800482</v>
+        <v>1.016666666666667</v>
       </c>
       <c r="BM4" t="n">
-        <v>1.016666666666667</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.289999999999999</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BO4" t="n">
-        <v>1.699999999999999</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.8900000000000006</v>
+        <v>17.1045827010623</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>4.317939706108081</v>
       </c>
     </row>
     <row r="5">
@@ -1528,25 +1556,31 @@
         <v>20.20715749039704</v>
       </c>
       <c r="BK5" t="n">
-        <v>16.8791654021245</v>
+        <v>20.47904988123519</v>
       </c>
       <c r="BL5" t="n">
-        <v>20.47904988123519</v>
+        <v>2.566666666666667</v>
       </c>
       <c r="BM5" t="n">
-        <v>2.566666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="BN5" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="BO5" t="n">
-        <v>1.6</v>
+        <v>-0.5</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.5</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="BQ5" t="n">
-        <v>1.100000000000001</v>
+        <v>16.27896813353573</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>3.928189356861317</v>
       </c>
     </row>
     <row r="6">
@@ -1737,25 +1771,31 @@
         <v>21.37804097311153</v>
       </c>
       <c r="BK6" t="n">
-        <v>16.26367223065256</v>
+        <v>22.79743467933502</v>
       </c>
       <c r="BL6" t="n">
-        <v>22.79743467933502</v>
+        <v>10.31666666666667</v>
       </c>
       <c r="BM6" t="n">
-        <v>10.31666666666667</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BN6" t="n">
-        <v>1.699999999999999</v>
+        <v>1.789999999999999</v>
       </c>
       <c r="BO6" t="n">
-        <v>1.789999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="BP6" t="n">
-        <v>-0.5</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BQ6" t="n">
-        <v>2.199999999999999</v>
+        <v>16.36254931714726</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>5.015491655964276</v>
       </c>
     </row>
     <row r="7">
@@ -1946,25 +1986,31 @@
         <v>17.07853470437029</v>
       </c>
       <c r="BK7" t="n">
-        <v>16.3155690440061</v>
+        <v>17.31313397129188</v>
       </c>
       <c r="BL7" t="n">
-        <v>17.31313397129188</v>
+        <v>19.65</v>
       </c>
       <c r="BM7" t="n">
-        <v>19.65</v>
+        <v>1.500000000000002</v>
       </c>
       <c r="BN7" t="n">
-        <v>1.500000000000002</v>
+        <v>1.59</v>
       </c>
       <c r="BO7" t="n">
-        <v>1.59</v>
+        <v>-0.8100000000000005</v>
       </c>
       <c r="BP7" t="n">
-        <v>-0.8100000000000005</v>
+        <v>-6.210000000000001</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-6.210000000000001</v>
+        <v>16.21591805766319</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0.8626166467071066</v>
       </c>
     </row>
     <row r="8">
@@ -2155,25 +2201,31 @@
         <v>19.44283697047508</v>
       </c>
       <c r="BK8" t="n">
-        <v>16.35726858877094</v>
+        <v>20.48028571428575</v>
       </c>
       <c r="BL8" t="n">
-        <v>20.48028571428575</v>
+        <v>16.06666666666667</v>
       </c>
       <c r="BM8" t="n">
-        <v>16.06666666666667</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BN8" t="n">
-        <v>1.390000000000001</v>
+        <v>1.51</v>
       </c>
       <c r="BO8" t="n">
-        <v>1.51</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BP8" t="n">
-        <v>-0.6099999999999994</v>
+        <v>-0.2100000000000009</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0.2100000000000009</v>
+        <v>16.46552352048565</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>2.977313449989428</v>
       </c>
     </row>
     <row r="9">
@@ -2364,25 +2416,31 @@
         <v>19.73651728553148</v>
       </c>
       <c r="BK9" t="n">
-        <v>16.54405159332335</v>
+        <v>21.1127553444181</v>
       </c>
       <c r="BL9" t="n">
-        <v>21.1127553444181</v>
+        <v>13.48333333333333</v>
       </c>
       <c r="BM9" t="n">
-        <v>13.48333333333333</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="BN9" t="n">
-        <v>1.399999999999999</v>
+        <v>1.81</v>
       </c>
       <c r="BO9" t="n">
-        <v>1.81</v>
+        <v>-0.3100000000000005</v>
       </c>
       <c r="BP9" t="n">
-        <v>-0.3100000000000005</v>
+        <v>-0.7100000000000009</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0.7100000000000009</v>
+        <v>16.51936267071334</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>3.217154614818142</v>
       </c>
     </row>
     <row r="10">
@@ -2573,25 +2631,31 @@
         <v>20.43277848911669</v>
       </c>
       <c r="BK10" t="n">
-        <v>16.60924127465862</v>
+        <v>21.61204275534449</v>
       </c>
       <c r="BL10" t="n">
-        <v>21.61204275534449</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="BM10" t="n">
-        <v>1.416666666666667</v>
+        <v>0.3099999999999987</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.3099999999999987</v>
+        <v>1.689999999999998</v>
       </c>
       <c r="BO10" t="n">
-        <v>1.689999999999998</v>
+        <v>-0.1099999999999994</v>
       </c>
       <c r="BP10" t="n">
-        <v>-0.1099999999999994</v>
+        <v>0.5</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.5</v>
+        <v>16.45880121396061</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>9.633333333333333</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>3.973977275156077</v>
       </c>
     </row>
     <row r="11">
@@ -2782,25 +2846,31 @@
         <v>21.24177976952641</v>
       </c>
       <c r="BK11" t="n">
-        <v>16.38180576631272</v>
+        <v>23.25123515439439</v>
       </c>
       <c r="BL11" t="n">
-        <v>23.25123515439439</v>
+        <v>0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.1000000000000014</v>
+        <v>1.710000000000001</v>
       </c>
       <c r="BO11" t="n">
-        <v>1.710000000000001</v>
+        <v>-0.1099999999999994</v>
       </c>
       <c r="BP11" t="n">
-        <v>-0.1099999999999994</v>
+        <v>1</v>
       </c>
       <c r="BQ11" t="n">
-        <v>1</v>
+        <v>16.77650986342955</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>8.483333333333333</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>4.465269906096864</v>
       </c>
     </row>
     <row r="12">
@@ -2991,25 +3061,31 @@
         <v>20.10993597951354</v>
       </c>
       <c r="BK12" t="n">
-        <v>16.67339908952964</v>
+        <v>22.04935866983378</v>
       </c>
       <c r="BL12" t="n">
-        <v>22.04935866983378</v>
+        <v>1.883333333333333</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.883333333333333</v>
+        <v>1.190000000000001</v>
       </c>
       <c r="BN12" t="n">
-        <v>1.190000000000001</v>
+        <v>1.700000000000001</v>
       </c>
       <c r="BO12" t="n">
-        <v>1.700000000000001</v>
+        <v>-0.3100000000000005</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.3100000000000005</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.1999999999999993</v>
+        <v>16.49874051593332</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>3.611195463580227</v>
       </c>
     </row>
     <row r="13">
@@ -3200,25 +3276,31 @@
         <v>19.28668373879654</v>
       </c>
       <c r="BK13" t="n">
-        <v>16.51198786039464</v>
+        <v>20.26788598574828</v>
       </c>
       <c r="BL13" t="n">
-        <v>20.26788598574828</v>
+        <v>7.816666666666666</v>
       </c>
       <c r="BM13" t="n">
-        <v>7.816666666666666</v>
+        <v>1.309999999999999</v>
       </c>
       <c r="BN13" t="n">
-        <v>1.309999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="BO13" t="n">
-        <v>1.6</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.4000000000000004</v>
+        <v>1.789999999999999</v>
       </c>
       <c r="BQ13" t="n">
-        <v>1.789999999999999</v>
+        <v>16.69880121396066</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>10.36666666666667</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>2.587882524835884</v>
       </c>
     </row>
     <row r="14">
@@ -3409,25 +3491,31 @@
         <v>20.10907810499371</v>
       </c>
       <c r="BK14" t="n">
-        <v>16.94241274658588</v>
+        <v>21.23883610451317</v>
       </c>
       <c r="BL14" t="n">
-        <v>21.23883610451317</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.1999999999999993</v>
+        <v>0.6899999999999977</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.6899999999999977</v>
+        <v>0</v>
       </c>
       <c r="BP14" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="BQ14" t="n">
-        <v>-1.5</v>
+        <v>16.70669195751147</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>3.40238614748224</v>
       </c>
     </row>
     <row r="15">
@@ -3618,25 +3706,31 @@
         <v>20.57580025608205</v>
       </c>
       <c r="BK15" t="n">
-        <v>16.58860394537183</v>
+        <v>22.10674584323045</v>
       </c>
       <c r="BL15" t="n">
-        <v>22.10674584323045</v>
+        <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.1999999999999993</v>
+        <v>1.109999999999999</v>
       </c>
       <c r="BO15" t="n">
-        <v>1.109999999999999</v>
+        <v>0</v>
       </c>
       <c r="BP15" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0.5</v>
+        <v>16.77288315629755</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>3.802917099784498</v>
       </c>
     </row>
     <row r="16">
@@ -3827,25 +3921,31 @@
         <v>20.08732394366211</v>
       </c>
       <c r="BK16" t="n">
-        <v>16.92142640364195</v>
+        <v>20.90852731591453</v>
       </c>
       <c r="BL16" t="n">
-        <v>20.90852731591453</v>
+        <v>0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.4100000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="BO16" t="n">
-        <v>1.5</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="BP16" t="n">
-        <v>-0.1999999999999993</v>
+        <v>-0.2100000000000009</v>
       </c>
       <c r="BQ16" t="n">
-        <v>-0.2100000000000009</v>
+        <v>16.82332321699554</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>3.264000726666566</v>
       </c>
     </row>
     <row r="17">
@@ -4036,25 +4136,31 @@
         <v>20.79483994878377</v>
       </c>
       <c r="BK17" t="n">
-        <v>15.95752655538699</v>
+        <v>21.90845605700717</v>
       </c>
       <c r="BL17" t="n">
-        <v>21.90845605700717</v>
+        <v>0</v>
       </c>
       <c r="BM17" t="n">
-        <v>0</v>
+        <v>0.1900000000000013</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.1900000000000013</v>
+        <v>2</v>
       </c>
       <c r="BO17" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="BP17" t="n">
-        <v>-3</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BQ17" t="n">
-        <v>1.390000000000001</v>
+        <v>16.14433990895308</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>2.533333333333333</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>4.650500039830693</v>
       </c>
     </row>
     <row r="18">
@@ -4245,25 +4351,31 @@
         <v>21.43676056338039</v>
       </c>
       <c r="BK18" t="n">
-        <v>16.47872534142646</v>
+        <v>23.00845605700718</v>
       </c>
       <c r="BL18" t="n">
-        <v>23.00845605700718</v>
+        <v>0</v>
       </c>
       <c r="BM18" t="n">
-        <v>0</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.8999999999999986</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BO18" t="n">
-        <v>1.289999999999999</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="BP18" t="n">
-        <v>-0.6999999999999993</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BQ18" t="n">
-        <v>1.390000000000001</v>
+        <v>15.96821917808223</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>9.783333333333333</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>5.468541385298156</v>
       </c>
     </row>
     <row r="19">
@@ -4454,25 +4566,31 @@
         <v>20.28386683738808</v>
       </c>
       <c r="BK19" t="n">
-        <v>16.14608828006098</v>
+        <v>21.02251781472687</v>
       </c>
       <c r="BL19" t="n">
-        <v>21.02251781472687</v>
+        <v>0</v>
       </c>
       <c r="BM19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN19" t="n">
-        <v>1</v>
+        <v>1.109999999999999</v>
       </c>
       <c r="BO19" t="n">
-        <v>1.109999999999999</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BP19" t="n">
-        <v>-0.6099999999999994</v>
+        <v>0.5</v>
       </c>
       <c r="BQ19" t="n">
-        <v>0.5</v>
+        <v>16.58746585735978</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>2.633333333333333</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>3.696400980028304</v>
       </c>
     </row>
     <row r="20">
@@ -4663,25 +4781,31 @@
         <v>20.6099615877082</v>
       </c>
       <c r="BK20" t="n">
-        <v>16.77590288315639</v>
+        <v>21.69534441805231</v>
       </c>
       <c r="BL20" t="n">
-        <v>21.69534441805231</v>
+        <v>0</v>
       </c>
       <c r="BM20" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="BN20" t="n">
-        <v>1.09</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="BO20" t="n">
-        <v>1.300000000000001</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="BP20" t="n">
-        <v>-0.1999999999999993</v>
+        <v>-0.2100000000000009</v>
       </c>
       <c r="BQ20" t="n">
-        <v>-0.2100000000000009</v>
+        <v>16.73569044006084</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>3.874271147647356</v>
       </c>
     </row>
     <row r="21">
@@ -4872,25 +4996,31 @@
         <v>20.94227912932154</v>
       </c>
       <c r="BK21" t="n">
-        <v>16.47808801213964</v>
+        <v>21.9535391923991</v>
       </c>
       <c r="BL21" t="n">
-        <v>21.9535391923991</v>
+        <v>0</v>
       </c>
       <c r="BM21" t="n">
-        <v>0</v>
+        <v>0.3100000000000023</v>
       </c>
       <c r="BN21" t="n">
-        <v>0.3100000000000023</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="BO21" t="n">
-        <v>1.100000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BP21" t="n">
-        <v>-0.5</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="BQ21" t="n">
-        <v>1.199999999999999</v>
+        <v>16.21321699544772</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>4.316666666666666</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>4.729062133873818</v>
       </c>
     </row>
     <row r="22">
@@ -5081,25 +5211,31 @@
         <v>19.65907810499372</v>
       </c>
       <c r="BK22" t="n">
-        <v>16.13116843702585</v>
+        <v>20.12477434679339</v>
       </c>
       <c r="BL22" t="n">
-        <v>20.12477434679339</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="BM22" t="n">
-        <v>0.06666666666666667</v>
+        <v>1.01</v>
       </c>
       <c r="BN22" t="n">
-        <v>1.01</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="BO22" t="n">
-        <v>1.199999999999999</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="BP22" t="n">
-        <v>-0.6999999999999993</v>
+        <v>-0.3999999999999986</v>
       </c>
       <c r="BQ22" t="n">
-        <v>-0.3999999999999986</v>
+        <v>16.26136570561468</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>7.466666666666667</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>3.397712399379035</v>
       </c>
     </row>
     <row r="23">
@@ -5290,25 +5426,31 @@
         <v>21.20017925736246</v>
       </c>
       <c r="BK23" t="n">
-        <v>16.49116843702585</v>
+        <v>22.13068883610458</v>
       </c>
       <c r="BL23" t="n">
-        <v>22.13068883610458</v>
+        <v>0</v>
       </c>
       <c r="BM23" t="n">
-        <v>0</v>
+        <v>0.2899999999999991</v>
       </c>
       <c r="BN23" t="n">
-        <v>0.2899999999999991</v>
+        <v>1.6</v>
       </c>
       <c r="BO23" t="n">
-        <v>1.6</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="BP23" t="n">
-        <v>-0.4000000000000004</v>
+        <v>0.7899999999999991</v>
       </c>
       <c r="BQ23" t="n">
-        <v>0.7899999999999991</v>
+        <v>16.65068285280745</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>4.549496404555008</v>
       </c>
     </row>
     <row r="24">
@@ -5499,25 +5641,31 @@
         <v>21.77247119078116</v>
       </c>
       <c r="BK24" t="n">
-        <v>16.53939301972691</v>
+        <v>23.37327790973881</v>
       </c>
       <c r="BL24" t="n">
-        <v>23.37327790973881</v>
+        <v>0</v>
       </c>
       <c r="BM24" t="n">
-        <v>0</v>
+        <v>0.3099999999999987</v>
       </c>
       <c r="BN24" t="n">
-        <v>0.3099999999999987</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="BO24" t="n">
-        <v>1.600000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BP24" t="n">
-        <v>-0.5</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BQ24" t="n">
-        <v>1.699999999999999</v>
+        <v>16.19253414264042</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>5.983333333333333</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>5.579937048140746</v>
       </c>
     </row>
     <row r="25">
@@ -5708,25 +5856,31 @@
         <v>21.28854033290667</v>
       </c>
       <c r="BK25" t="n">
-        <v>16.10652503793632</v>
+        <v>22.7898099762471</v>
       </c>
       <c r="BL25" t="n">
-        <v>22.7898099762471</v>
+        <v>0</v>
       </c>
       <c r="BM25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BN25" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="BO25" t="n">
-        <v>1.4</v>
+        <v>-0.5</v>
       </c>
       <c r="BP25" t="n">
-        <v>-0.5</v>
+        <v>0.7899999999999991</v>
       </c>
       <c r="BQ25" t="n">
-        <v>0.7899999999999991</v>
+        <v>16.12866464339919</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>5.159875689507487</v>
       </c>
     </row>
     <row r="26">
@@ -5917,25 +6071,31 @@
         <v>21.72901408450712</v>
       </c>
       <c r="BK26" t="n">
-        <v>16.11790591805768</v>
+        <v>24.08204275534451</v>
       </c>
       <c r="BL26" t="n">
-        <v>24.08204275534451</v>
+        <v>0</v>
       </c>
       <c r="BM26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BN26" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="BO26" t="n">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="BP26" t="n">
-        <v>-0.5</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BQ26" t="n">
-        <v>1.390000000000001</v>
+        <v>16.23600910470411</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>5.493004979803008</v>
       </c>
     </row>
     <row r="27">
@@ -6126,25 +6286,31 @@
         <v>21.27880921895021</v>
       </c>
       <c r="BK27" t="n">
-        <v>16.25708841463423</v>
+        <v>22.93757719714973</v>
       </c>
       <c r="BL27" t="n">
-        <v>22.93757719714973</v>
+        <v>0</v>
       </c>
       <c r="BM27" t="n">
-        <v>0</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BN27" t="n">
-        <v>0.3000000000000007</v>
+        <v>1.19</v>
       </c>
       <c r="BO27" t="n">
-        <v>1.19</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="BP27" t="n">
-        <v>-0.4000000000000004</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BQ27" t="n">
-        <v>2.199999999999999</v>
+        <v>16.16253048780498</v>
+      </c>
+      <c r="BR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>5.116278731145229</v>
       </c>
     </row>
     <row r="28">
@@ -6335,25 +6501,31 @@
         <v>21.57651728553148</v>
       </c>
       <c r="BK28" t="n">
-        <v>16.12264036418823</v>
+        <v>23.15230403800481</v>
       </c>
       <c r="BL28" t="n">
-        <v>23.15230403800481</v>
+        <v>0</v>
       </c>
       <c r="BM28" t="n">
-        <v>0</v>
+        <v>0.7899999999999991</v>
       </c>
       <c r="BN28" t="n">
-        <v>0.7899999999999991</v>
+        <v>1.4</v>
       </c>
       <c r="BO28" t="n">
-        <v>1.4</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="BP28" t="n">
-        <v>-0.4000000000000004</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BQ28" t="n">
-        <v>1.289999999999999</v>
+        <v>16.1035660091048</v>
+      </c>
+      <c r="BR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS28" t="n">
+        <v>5.472951276426684</v>
       </c>
     </row>
     <row r="29">
@@ -6544,25 +6716,31 @@
         <v>21.16844672657263</v>
       </c>
       <c r="BK29" t="n">
-        <v>16.14104704097123</v>
+        <v>22.59657957244664</v>
       </c>
       <c r="BL29" t="n">
-        <v>22.59657957244664</v>
+        <v>0</v>
       </c>
       <c r="BM29" t="n">
-        <v>0</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BN29" t="n">
-        <v>0.6999999999999993</v>
+        <v>1.9</v>
       </c>
       <c r="BO29" t="n">
-        <v>1.9</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="BP29" t="n">
-        <v>-0.4000000000000004</v>
+        <v>1</v>
       </c>
       <c r="BQ29" t="n">
-        <v>1</v>
+        <v>16.09274658573605</v>
+      </c>
+      <c r="BR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS29" t="n">
+        <v>5.075700140836577</v>
       </c>
     </row>
     <row r="30">
@@ -6753,25 +6931,31 @@
         <v>20.47992846924186</v>
       </c>
       <c r="BK30" t="n">
-        <v>16.02148337595909</v>
+        <v>22.06926253687318</v>
       </c>
       <c r="BL30" t="n">
-        <v>22.06926253687318</v>
+        <v>0</v>
       </c>
       <c r="BM30" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BN30" t="n">
-        <v>0.5</v>
+        <v>1.863333333333334</v>
       </c>
       <c r="BO30" t="n">
-        <v>1.863333333333334</v>
+        <v>-1.9</v>
       </c>
       <c r="BP30" t="n">
-        <v>-1.9</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="BQ30" t="n">
-        <v>0.1000000000000014</v>
+        <v>14.76580645161291</v>
+      </c>
+      <c r="BR30" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS30" t="n">
+        <v>5.714122017628949</v>
       </c>
     </row>
     <row r="31">
@@ -6962,25 +7146,31 @@
         <v>17.99461682242996</v>
       </c>
       <c r="BK31" t="n">
-        <v>15.3440601403605</v>
+        <v>17.99774193548387</v>
       </c>
       <c r="BL31" t="n">
-        <v>17.99774193548387</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="BM31" t="n">
-        <v>2.266666666666667</v>
+        <v>1.05</v>
       </c>
       <c r="BN31" t="n">
-        <v>1.05</v>
+        <v>1.826666666666667</v>
       </c>
       <c r="BO31" t="n">
-        <v>1.826666666666667</v>
+        <v>-2.609999999999999</v>
       </c>
       <c r="BP31" t="n">
-        <v>-2.609999999999999</v>
+        <v>-1.609999999999999</v>
       </c>
       <c r="BQ31" t="n">
-        <v>-1.609999999999999</v>
+        <v>14.825</v>
+      </c>
+      <c r="BR31" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="BS31" t="n">
+        <v>3.16961682242996</v>
       </c>
     </row>
     <row r="32">
@@ -7171,25 +7361,31 @@
         <v>17.24971186440678</v>
       </c>
       <c r="BK32" t="n">
-        <v>14.66663690476191</v>
+        <v>16.76086330935254</v>
       </c>
       <c r="BL32" t="n">
-        <v>16.76086330935254</v>
+        <v>3.716666666666667</v>
       </c>
       <c r="BM32" t="n">
-        <v>3.716666666666667</v>
+        <v>1.6</v>
       </c>
       <c r="BN32" t="n">
-        <v>1.6</v>
+        <v>1.790000000000001</v>
       </c>
       <c r="BO32" t="n">
-        <v>1.790000000000001</v>
+        <v>-2.4</v>
       </c>
       <c r="BP32" t="n">
-        <v>-2.4</v>
+        <v>-3</v>
       </c>
       <c r="BQ32" t="n">
-        <v>-3</v>
+        <v>14.75275290215592</v>
+      </c>
+      <c r="BR32" t="n">
+        <v>9.933333333333334</v>
+      </c>
+      <c r="BS32" t="n">
+        <v>2.496958962250863</v>
       </c>
     </row>
     <row r="33">
@@ -7380,25 +7576,31 @@
         <v>18.09875654450268</v>
       </c>
       <c r="BK33" t="n">
-        <v>14.74018115942034</v>
+        <v>18.32626237623765</v>
       </c>
       <c r="BL33" t="n">
-        <v>18.32626237623765</v>
+        <v>3.033333333333333</v>
       </c>
       <c r="BM33" t="n">
-        <v>3.033333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="BN33" t="n">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="BO33" t="n">
-        <v>1.81</v>
+        <v>-2.4</v>
       </c>
       <c r="BP33" t="n">
-        <v>-2.4</v>
+        <v>0</v>
       </c>
       <c r="BQ33" t="n">
-        <v>0</v>
+        <v>14.70650741350909</v>
+      </c>
+      <c r="BR33" t="n">
+        <v>10.11666666666667</v>
+      </c>
+      <c r="BS33" t="n">
+        <v>3.392249130993591</v>
       </c>
     </row>
     <row r="34">
@@ -7589,25 +7791,31 @@
         <v>17.57118110236225</v>
       </c>
       <c r="BK34" t="n">
-        <v>14.74619426751597</v>
+        <v>17.47797029702974</v>
       </c>
       <c r="BL34" t="n">
-        <v>17.47797029702974</v>
+        <v>4.633333333333334</v>
       </c>
       <c r="BM34" t="n">
-        <v>4.633333333333334</v>
+        <v>1.6</v>
       </c>
       <c r="BN34" t="n">
-        <v>1.6</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="BO34" t="n">
-        <v>1.799999999999999</v>
+        <v>-2.5</v>
       </c>
       <c r="BP34" t="n">
-        <v>-2.5</v>
+        <v>-0.7100000000000009</v>
       </c>
       <c r="BQ34" t="n">
-        <v>-0.7100000000000009</v>
+        <v>14.72546178343951</v>
+      </c>
+      <c r="BR34" t="n">
+        <v>10.46666666666667</v>
+      </c>
+      <c r="BS34" t="n">
+        <v>2.845719318922736</v>
       </c>
     </row>
     <row r="35">
@@ -7798,25 +8006,31 @@
         <v>18.5186187845305</v>
       </c>
       <c r="BK35" t="n">
-        <v>14.73711688311693</v>
+        <v>19.21392857142859</v>
       </c>
       <c r="BL35" t="n">
-        <v>19.21392857142859</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="BM35" t="n">
-        <v>3.416666666666667</v>
+        <v>1.709999999999999</v>
       </c>
       <c r="BN35" t="n">
-        <v>1.709999999999999</v>
+        <v>0</v>
       </c>
       <c r="BO35" t="n">
-        <v>0</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BP35" t="n">
-        <v>-2.199999999999999</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BQ35" t="n">
-        <v>1.699999999999999</v>
+        <v>14.7258064516129</v>
+      </c>
+      <c r="BR35" t="n">
+        <v>1.033333333333333</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>3.792812332917597</v>
       </c>
     </row>
     <row r="36">
@@ -8007,25 +8221,31 @@
         <v>18.647328</v>
       </c>
       <c r="BK36" t="n">
-        <v>14.59318452380954</v>
+        <v>17.36827751196176</v>
       </c>
       <c r="BL36" t="n">
-        <v>17.36827751196176</v>
+        <v>7.05</v>
       </c>
       <c r="BM36" t="n">
-        <v>7.05</v>
+        <v>1.6</v>
       </c>
       <c r="BN36" t="n">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="BO36" t="n">
-        <v>1.91</v>
+        <v>-2.4</v>
       </c>
       <c r="BP36" t="n">
-        <v>-2.4</v>
+        <v>0.2899999999999991</v>
       </c>
       <c r="BQ36" t="n">
-        <v>0.2899999999999991</v>
+        <v>14.62265553869501</v>
+      </c>
+      <c r="BR36" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS36" t="n">
+        <v>4.024672461304993</v>
       </c>
     </row>
     <row r="37">
@@ -8216,25 +8436,31 @@
         <v>19.50658311345659</v>
       </c>
       <c r="BK37" t="n">
-        <v>14.66309451219514</v>
+        <v>20.11550251256284</v>
       </c>
       <c r="BL37" t="n">
-        <v>20.11550251256284</v>
+        <v>5.066666666666666</v>
       </c>
       <c r="BM37" t="n">
-        <v>5.066666666666666</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BN37" t="n">
-        <v>1.699999999999999</v>
+        <v>1.700000000000001</v>
       </c>
       <c r="BO37" t="n">
-        <v>1.700000000000001</v>
+        <v>-2.31</v>
       </c>
       <c r="BP37" t="n">
-        <v>-2.31</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BQ37" t="n">
-        <v>2.199999999999999</v>
+        <v>14.69249235474009</v>
+      </c>
+      <c r="BR37" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="BS37" t="n">
+        <v>4.814090758716505</v>
       </c>
     </row>
     <row r="38">
@@ -8425,25 +8651,31 @@
         <v>19.34987146529574</v>
       </c>
       <c r="BK38" t="n">
-        <v>14.69106811145516</v>
+        <v>19.97703087885988</v>
       </c>
       <c r="BL38" t="n">
-        <v>19.97703087885988</v>
+        <v>3.7</v>
       </c>
       <c r="BM38" t="n">
-        <v>3.7</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BN38" t="n">
-        <v>1.390000000000001</v>
+        <v>1.889999999999999</v>
       </c>
       <c r="BO38" t="n">
-        <v>1.889999999999999</v>
+        <v>-2.31</v>
       </c>
       <c r="BP38" t="n">
-        <v>-2.31</v>
+        <v>3.789999999999999</v>
       </c>
       <c r="BQ38" t="n">
-        <v>3.789999999999999</v>
+        <v>14.68604938271607</v>
+      </c>
+      <c r="BR38" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="BS38" t="n">
+        <v>4.663822082579671</v>
       </c>
     </row>
     <row r="39">
@@ -8634,25 +8866,31 @@
         <v>18.83594110115246</v>
       </c>
       <c r="BK39" t="n">
-        <v>14.63525037936269</v>
+        <v>18.67909738717342</v>
       </c>
       <c r="BL39" t="n">
-        <v>18.67909738717342</v>
+        <v>5.933333333333334</v>
       </c>
       <c r="BM39" t="n">
-        <v>5.933333333333334</v>
+        <v>1.4</v>
       </c>
       <c r="BN39" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="BO39" t="n">
+        <v>-2.609999999999999</v>
+      </c>
+      <c r="BP39" t="n">
         <v>2</v>
       </c>
-      <c r="BP39" t="n">
-        <v>-2.609999999999999</v>
-      </c>
       <c r="BQ39" t="n">
-        <v>2</v>
+        <v>14.6308345978756</v>
+      </c>
+      <c r="BR39" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS39" t="n">
+        <v>4.205106503276868</v>
       </c>
     </row>
     <row r="40">
@@ -8843,25 +9081,31 @@
         <v>16.92784793814437</v>
       </c>
       <c r="BK40" t="n">
-        <v>14.65681335356603</v>
+        <v>17.77196642685854</v>
       </c>
       <c r="BL40" t="n">
-        <v>17.77196642685854</v>
+        <v>7.516666666666667</v>
       </c>
       <c r="BM40" t="n">
-        <v>7.516666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="BN40" t="n">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="BO40" t="n">
-        <v>1.81</v>
+        <v>-2.31</v>
       </c>
       <c r="BP40" t="n">
-        <v>-2.31</v>
+        <v>-4</v>
       </c>
       <c r="BQ40" t="n">
-        <v>-4</v>
+        <v>14.62112291350534</v>
+      </c>
+      <c r="BR40" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS40" t="n">
+        <v>2.306725024639031</v>
       </c>
     </row>
     <row r="41">
@@ -9052,25 +9296,31 @@
         <v>19.78560256410267</v>
       </c>
       <c r="BK41" t="n">
-        <v>14.60555386949925</v>
+        <v>20.33447619047622</v>
       </c>
       <c r="BL41" t="n">
-        <v>20.33447619047622</v>
+        <v>9.25</v>
       </c>
       <c r="BM41" t="n">
-        <v>9.25</v>
+        <v>1.5</v>
       </c>
       <c r="BN41" t="n">
         <v>1.5</v>
       </c>
       <c r="BO41" t="n">
-        <v>1.5</v>
+        <v>-2.4</v>
       </c>
       <c r="BP41" t="n">
-        <v>-2.4</v>
+        <v>-0.3999999999999986</v>
       </c>
       <c r="BQ41" t="n">
-        <v>-0.3999999999999986</v>
+        <v>14.6261491628615</v>
+      </c>
+      <c r="BR41" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="BS41" t="n">
+        <v>5.159453401241164</v>
       </c>
     </row>
     <row r="42">
@@ -9261,25 +9511,31 @@
         <v>18.52952319587636</v>
       </c>
       <c r="BK42" t="n">
-        <v>14.60348554033488</v>
+        <v>18.5841904761905</v>
       </c>
       <c r="BL42" t="n">
-        <v>18.5841904761905</v>
+        <v>9.783333333333333</v>
       </c>
       <c r="BM42" t="n">
-        <v>9.783333333333333</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BN42" t="n">
-        <v>1.390000000000001</v>
+        <v>2.09</v>
       </c>
       <c r="BO42" t="n">
-        <v>2.09</v>
+        <v>-2.4</v>
       </c>
       <c r="BP42" t="n">
-        <v>-2.4</v>
+        <v>-1</v>
       </c>
       <c r="BQ42" t="n">
-        <v>-1</v>
+        <v>14.58110773899852</v>
+      </c>
+      <c r="BR42" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="BS42" t="n">
+        <v>3.948415456877841</v>
       </c>
     </row>
     <row r="43">
@@ -9470,25 +9726,31 @@
         <v>18.03536491677346</v>
       </c>
       <c r="BK43" t="n">
-        <v>14.70245827010625</v>
+        <v>18.20781472684087</v>
       </c>
       <c r="BL43" t="n">
-        <v>18.20781472684087</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BM43" t="n">
-        <v>9.199999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="BN43" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="BO43" t="n">
-        <v>1.91</v>
+        <v>-2.31</v>
       </c>
       <c r="BP43" t="n">
-        <v>-2.31</v>
+        <v>0</v>
       </c>
       <c r="BQ43" t="n">
-        <v>0</v>
+        <v>14.77346036585373</v>
+      </c>
+      <c r="BR43" t="n">
+        <v>10.93333333333333</v>
+      </c>
+      <c r="BS43" t="n">
+        <v>3.261904550919722</v>
       </c>
     </row>
     <row r="44">
@@ -9679,25 +9941,31 @@
         <v>18.41004054054057</v>
       </c>
       <c r="BK44" t="n">
-        <v>14.7310823170732</v>
+        <v>17.2802669902913</v>
       </c>
       <c r="BL44" t="n">
-        <v>17.2802669902913</v>
+        <v>4.1</v>
       </c>
       <c r="BM44" t="n">
-        <v>4.1</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BN44" t="n">
-        <v>0.3000000000000007</v>
+        <v>1.81</v>
       </c>
       <c r="BO44" t="n">
-        <v>1.81</v>
+        <v>-2.81</v>
       </c>
       <c r="BP44" t="n">
-        <v>-2.81</v>
+        <v>2.890000000000001</v>
       </c>
       <c r="BQ44" t="n">
-        <v>2.890000000000001</v>
+        <v>14.6704704097117</v>
+      </c>
+      <c r="BR44" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS44" t="n">
+        <v>3.739570130828868</v>
       </c>
     </row>
     <row r="45">
@@ -9888,25 +10156,31 @@
         <v>19.56557419354849</v>
       </c>
       <c r="BK45" t="n">
-        <v>14.62402735562312</v>
+        <v>21.20012019230772</v>
       </c>
       <c r="BL45" t="n">
-        <v>21.20012019230772</v>
+        <v>18.18333333333333</v>
       </c>
       <c r="BM45" t="n">
-        <v>18.18333333333333</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BN45" t="n">
-        <v>1.699999999999999</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="BO45" t="n">
-        <v>3.100000000000001</v>
+        <v>-2.4</v>
       </c>
       <c r="BP45" t="n">
-        <v>-2.4</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="BQ45" t="n">
-        <v>0.8900000000000006</v>
+        <v>14.62088280060886</v>
+      </c>
+      <c r="BR45" t="n">
+        <v>8.166666666666666</v>
+      </c>
+      <c r="BS45" t="n">
+        <v>4.944691392939625</v>
       </c>
     </row>
     <row r="46">
@@ -10097,25 +10371,31 @@
         <v>18.75820876288666</v>
       </c>
       <c r="BK46" t="n">
-        <v>14.62339421613397</v>
+        <v>19.4564028776979</v>
       </c>
       <c r="BL46" t="n">
-        <v>19.4564028776979</v>
+        <v>16.43333333333333</v>
       </c>
       <c r="BM46" t="n">
-        <v>16.43333333333333</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BN46" t="n">
-        <v>1.699999999999999</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="BO46" t="n">
-        <v>2.300000000000001</v>
+        <v>-3.31</v>
       </c>
       <c r="BP46" t="n">
-        <v>-3.31</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="BQ46" t="n">
-        <v>0.6000000000000014</v>
+        <v>14.58992401215805</v>
+      </c>
+      <c r="BR46" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="BS46" t="n">
+        <v>4.168284750728615</v>
       </c>
     </row>
     <row r="47">
@@ -10306,25 +10586,31 @@
         <v>17.36130154639181</v>
       </c>
       <c r="BK47" t="n">
-        <v>14.64557077625576</v>
+        <v>18.06774580335737</v>
       </c>
       <c r="BL47" t="n">
-        <v>18.06774580335737</v>
+        <v>17.5</v>
       </c>
       <c r="BM47" t="n">
-        <v>17.5</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BN47" t="n">
-        <v>1.699999999999999</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="BO47" t="n">
-        <v>1.799999999999999</v>
+        <v>-2.31</v>
       </c>
       <c r="BP47" t="n">
-        <v>-2.31</v>
+        <v>-0.8000000000000007</v>
       </c>
       <c r="BQ47" t="n">
-        <v>-0.8000000000000007</v>
+        <v>14.64984709480127</v>
+      </c>
+      <c r="BR47" t="n">
+        <v>10.86666666666667</v>
+      </c>
+      <c r="BS47" t="n">
+        <v>2.711454451590537</v>
       </c>
     </row>
     <row r="48">
@@ -10515,25 +10801,31 @@
         <v>19.18211459754443</v>
       </c>
       <c r="BK48" t="n">
-        <v>14.63551829268295</v>
+        <v>18.97659793814435</v>
       </c>
       <c r="BL48" t="n">
-        <v>18.97659793814435</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="BM48" t="n">
-        <v>14.58333333333333</v>
+        <v>0.6899999999999995</v>
       </c>
       <c r="BN48" t="n">
-        <v>0.6899999999999995</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BO48" t="n">
-        <v>1.699999999999999</v>
+        <v>-2.5</v>
       </c>
       <c r="BP48" t="n">
-        <v>-2.5</v>
+        <v>2</v>
       </c>
       <c r="BQ48" t="n">
-        <v>2</v>
+        <v>14.7207294832827</v>
+      </c>
+      <c r="BR48" t="n">
+        <v>10.96666666666667</v>
+      </c>
+      <c r="BS48" t="n">
+        <v>4.461385114261725</v>
       </c>
     </row>
     <row r="49">
@@ -10724,25 +11016,31 @@
         <v>18.84787433155089</v>
       </c>
       <c r="BK49" t="n">
-        <v>14.65730886850154</v>
+        <v>18.3170573566085</v>
       </c>
       <c r="BL49" t="n">
-        <v>18.3170573566085</v>
+        <v>14.91666666666667</v>
       </c>
       <c r="BM49" t="n">
-        <v>14.91666666666667</v>
+        <v>1.6</v>
       </c>
       <c r="BN49" t="n">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="BO49" t="n">
-        <v>1.91</v>
+        <v>-2.31</v>
       </c>
       <c r="BP49" t="n">
-        <v>-2.31</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BQ49" t="n">
-        <v>1.890000000000001</v>
+        <v>14.59126153846158</v>
+      </c>
+      <c r="BR49" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BS49" t="n">
+        <v>4.256612793089317</v>
       </c>
     </row>
     <row r="50">
@@ -10933,25 +11231,31 @@
         <v>14.97379128137384</v>
       </c>
       <c r="BK50" t="n">
-        <v>14.59336906584996</v>
+        <v>14.94725060827253</v>
       </c>
       <c r="BL50" t="n">
-        <v>14.94725060827253</v>
+        <v>22.88333333333333</v>
       </c>
       <c r="BM50" t="n">
-        <v>22.88333333333333</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BN50" t="n">
-        <v>1.699999999999999</v>
+        <v>1.610000000000001</v>
       </c>
       <c r="BO50" t="n">
-        <v>1.610000000000001</v>
+        <v>-2.5</v>
       </c>
       <c r="BP50" t="n">
-        <v>-2.5</v>
+        <v>-8.5</v>
       </c>
       <c r="BQ50" t="n">
-        <v>-8.5</v>
+        <v>14.55294656488551</v>
+      </c>
+      <c r="BR50" t="n">
+        <v>3.283333333333333</v>
+      </c>
+      <c r="BS50" t="n">
+        <v>0.4208447164883289</v>
       </c>
     </row>
     <row r="51">
@@ -11142,25 +11446,31 @@
         <v>17.57582295988939</v>
       </c>
       <c r="BK51" t="n">
-        <v>14.6165290519878</v>
+        <v>17.05900523560212</v>
       </c>
       <c r="BL51" t="n">
-        <v>17.05900523560212</v>
+        <v>16.08333333333333</v>
       </c>
       <c r="BM51" t="n">
-        <v>16.08333333333333</v>
+        <v>1.59</v>
       </c>
       <c r="BN51" t="n">
-        <v>1.59</v>
+        <v>1.91</v>
       </c>
       <c r="BO51" t="n">
-        <v>1.91</v>
+        <v>-2.5</v>
       </c>
       <c r="BP51" t="n">
-        <v>-2.5</v>
+        <v>-1.109999999999999</v>
       </c>
       <c r="BQ51" t="n">
-        <v>-1.109999999999999</v>
+        <v>14.68343032159266</v>
+      </c>
+      <c r="BR51" t="n">
+        <v>10.88333333333333</v>
+      </c>
+      <c r="BS51" t="n">
+        <v>2.892392638296736</v>
       </c>
     </row>
     <row r="52">
@@ -11351,25 +11661,31 @@
         <v>20.45142076502742</v>
       </c>
       <c r="BK52" t="n">
-        <v>14.64012232415904</v>
+        <v>20.80256157635472</v>
       </c>
       <c r="BL52" t="n">
-        <v>20.80256157635472</v>
+        <v>14.86666666666667</v>
       </c>
       <c r="BM52" t="n">
-        <v>14.86666666666667</v>
+        <v>1.790000000000001</v>
       </c>
       <c r="BN52" t="n">
-        <v>1.790000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="BO52" t="n">
-        <v>1.9</v>
+        <v>-3</v>
       </c>
       <c r="BP52" t="n">
-        <v>-3</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="BQ52" t="n">
-        <v>2.600000000000001</v>
+        <v>14.63332826747723</v>
+      </c>
+      <c r="BR52" t="n">
+        <v>10.56666666666667</v>
+      </c>
+      <c r="BS52" t="n">
+        <v>5.818092497550191</v>
       </c>
     </row>
     <row r="53">
@@ -11560,25 +11876,31 @@
         <v>21.70687915006654</v>
       </c>
       <c r="BK53" t="n">
-        <v>14.59466973886329</v>
+        <v>22.45572463768119</v>
       </c>
       <c r="BL53" t="n">
-        <v>22.45572463768119</v>
+        <v>12.98333333333333</v>
       </c>
       <c r="BM53" t="n">
-        <v>12.98333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="BN53" t="n">
-        <v>1.5</v>
+        <v>3.309999999999999</v>
       </c>
       <c r="BO53" t="n">
-        <v>3.309999999999999</v>
+        <v>-2.31</v>
       </c>
       <c r="BP53" t="n">
-        <v>-2.31</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="BQ53" t="n">
-        <v>4.199999999999999</v>
+        <v>14.32468412942994</v>
+      </c>
+      <c r="BR53" t="n">
+        <v>0.1166666666666667</v>
+      </c>
+      <c r="BS53" t="n">
+        <v>7.382195020636601</v>
       </c>
     </row>
     <row r="54">
@@ -11769,25 +12091,31 @@
         <v>22.42785714285728</v>
       </c>
       <c r="BK54" t="n">
-        <v>15.38191693290737</v>
+        <v>23.96217703349289</v>
       </c>
       <c r="BL54" t="n">
-        <v>23.96217703349289</v>
+        <v>0.95</v>
       </c>
       <c r="BM54" t="n">
-        <v>0.95</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BN54" t="n">
         <v>1.699999999999999</v>
       </c>
       <c r="BO54" t="n">
-        <v>1.699999999999999</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BP54" t="n">
-        <v>-2.199999999999999</v>
+        <v>5.199999999999999</v>
       </c>
       <c r="BQ54" t="n">
-        <v>5.199999999999999</v>
+        <v>16.12694888178916</v>
+      </c>
+      <c r="BR54" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="BS54" t="n">
+        <v>6.300908261068123</v>
       </c>
     </row>
     <row r="55">
@@ -11978,25 +12306,31 @@
         <v>16.03484536082476</v>
       </c>
       <c r="BK55" t="n">
-        <v>15.03104134762638</v>
+        <v>16.24364508393291</v>
       </c>
       <c r="BL55" t="n">
-        <v>16.24364508393291</v>
+        <v>8.5</v>
       </c>
       <c r="BM55" t="n">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="BN55" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="BO55" t="n">
-        <v>1.59</v>
+        <v>-2.5</v>
       </c>
       <c r="BP55" t="n">
-        <v>-2.5</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BQ55" t="n">
-        <v>1.390000000000001</v>
+        <v>14.60425727411947</v>
+      </c>
+      <c r="BR55" t="n">
+        <v>1.433333333333333</v>
+      </c>
+      <c r="BS55" t="n">
+        <v>1.430588086705287</v>
       </c>
     </row>
     <row r="56">
@@ -12187,25 +12521,31 @@
         <v>21.2363748290015</v>
       </c>
       <c r="BK56" t="n">
-        <v>14.64862804878052</v>
+        <v>21.45643979057596</v>
       </c>
       <c r="BL56" t="n">
-        <v>21.45643979057596</v>
+        <v>14.2</v>
       </c>
       <c r="BM56" t="n">
-        <v>14.2</v>
+        <v>1.81</v>
       </c>
       <c r="BN56" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="BO56" t="n">
-        <v>2</v>
+        <v>-2.4</v>
       </c>
       <c r="BP56" t="n">
-        <v>-2.4</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="BQ56" t="n">
-        <v>2.100000000000001</v>
+        <v>14.54390839694661</v>
+      </c>
+      <c r="BR56" t="n">
+        <v>0.3833333333333334</v>
+      </c>
+      <c r="BS56" t="n">
+        <v>6.692466432054889</v>
       </c>
     </row>
     <row r="57">
@@ -12396,25 +12736,31 @@
         <v>17.93352074966538</v>
       </c>
       <c r="BK57" t="n">
-        <v>14.50059907834104</v>
+        <v>17.93435323383087</v>
       </c>
       <c r="BL57" t="n">
-        <v>17.93435323383087</v>
+        <v>10.25</v>
       </c>
       <c r="BM57" t="n">
-        <v>10.25</v>
+        <v>1.700000000000001</v>
       </c>
       <c r="BN57" t="n">
-        <v>1.700000000000001</v>
+        <v>1.31</v>
       </c>
       <c r="BO57" t="n">
-        <v>1.31</v>
+        <v>-2.4</v>
       </c>
       <c r="BP57" t="n">
-        <v>-2.4</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="BQ57" t="n">
-        <v>0.1000000000000014</v>
+        <v>14.48560490045944</v>
+      </c>
+      <c r="BR57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS57" t="n">
+        <v>3.447915849205932</v>
       </c>
     </row>
     <row r="58">
@@ -12605,25 +12951,31 @@
         <v>17.50340569877892</v>
       </c>
       <c r="BK58" t="n">
-        <v>14.46962476547847</v>
+        <v>18.6321265822785</v>
       </c>
       <c r="BL58" t="n">
-        <v>18.6321265822785</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="BM58" t="n">
-        <v>11.16666666666667</v>
+        <v>1.700000000000001</v>
       </c>
       <c r="BN58" t="n">
-        <v>1.700000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="BO58" t="n">
-        <v>2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="BP58" t="n">
-        <v>-2.5</v>
+        <v>-3.609999999999999</v>
       </c>
       <c r="BQ58" t="n">
-        <v>-3.609999999999999</v>
+        <v>14.48646502835543</v>
+      </c>
+      <c r="BR58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS58" t="n">
+        <v>3.016940670423491</v>
       </c>
     </row>
     <row r="59">
@@ -12814,25 +13166,31 @@
         <v>17.26032608695661</v>
       </c>
       <c r="BK59" t="n">
-        <v>14.71367127496165</v>
+        <v>17.73574358974361</v>
       </c>
       <c r="BL59" t="n">
-        <v>17.73574358974361</v>
+        <v>13</v>
       </c>
       <c r="BM59" t="n">
-        <v>13</v>
+        <v>1.59</v>
       </c>
       <c r="BN59" t="n">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="BO59" t="n">
-        <v>2</v>
+        <v>-2.4</v>
       </c>
       <c r="BP59" t="n">
-        <v>-2.4</v>
+        <v>-3</v>
       </c>
       <c r="BQ59" t="n">
-        <v>-3</v>
+        <v>14.92819032761312</v>
+      </c>
+      <c r="BR59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS59" t="n">
+        <v>2.332135759343492</v>
       </c>
     </row>
     <row r="60">
@@ -13023,25 +13381,31 @@
         <v>17.78418732782378</v>
       </c>
       <c r="BK60" t="n">
-        <v>14.85290824261278</v>
+        <v>18.65822335025382</v>
       </c>
       <c r="BL60" t="n">
-        <v>18.65822335025382</v>
+        <v>13.2</v>
       </c>
       <c r="BM60" t="n">
-        <v>13.2</v>
+        <v>1.59</v>
       </c>
       <c r="BN60" t="n">
-        <v>1.59</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="BO60" t="n">
-        <v>1.799999999999999</v>
+        <v>-2.31</v>
       </c>
       <c r="BP60" t="n">
-        <v>-2.31</v>
+        <v>-1.210000000000001</v>
       </c>
       <c r="BQ60" t="n">
-        <v>-1.210000000000001</v>
+        <v>14.67138719512198</v>
+      </c>
+      <c r="BR60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS60" t="n">
+        <v>3.1128001327018</v>
       </c>
     </row>
     <row r="61">
@@ -13232,25 +13596,31 @@
         <v>19.75597811217521</v>
       </c>
       <c r="BK61" t="n">
-        <v>14.64162327718226</v>
+        <v>20.25945312500002</v>
       </c>
       <c r="BL61" t="n">
-        <v>20.25945312500002</v>
+        <v>7.3</v>
       </c>
       <c r="BM61" t="n">
-        <v>7.3</v>
+        <v>1.81</v>
       </c>
       <c r="BN61" t="n">
-        <v>1.81</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BO61" t="n">
-        <v>2.199999999999999</v>
+        <v>-2.4</v>
       </c>
       <c r="BP61" t="n">
-        <v>-2.4</v>
+        <v>0</v>
       </c>
       <c r="BQ61" t="n">
-        <v>0</v>
+        <v>14.76701078582436</v>
+      </c>
+      <c r="BR61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS61" t="n">
+        <v>4.988967326350847</v>
       </c>
     </row>
     <row r="62">
@@ -13441,25 +13811,31 @@
         <v>20.53313411078731</v>
       </c>
       <c r="BK62" t="n">
-        <v>14.75631578947373</v>
+        <v>22.03002717391307</v>
       </c>
       <c r="BL62" t="n">
-        <v>22.03002717391307</v>
+        <v>8.383333333333333</v>
       </c>
       <c r="BM62" t="n">
-        <v>8.383333333333333</v>
+        <v>1.91</v>
       </c>
       <c r="BN62" t="n">
-        <v>1.91</v>
+        <v>2.9</v>
       </c>
       <c r="BO62" t="n">
-        <v>2.9</v>
+        <v>-2.4</v>
       </c>
       <c r="BP62" t="n">
-        <v>-2.4</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BQ62" t="n">
-        <v>1.890000000000001</v>
+        <v>14.6198576512456</v>
+      </c>
+      <c r="BR62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS62" t="n">
+        <v>5.913276459541704</v>
       </c>
     </row>
     <row r="63">
@@ -13650,25 +14026,31 @@
         <v>21.89859574468095</v>
       </c>
       <c r="BK63" t="n">
-        <v>14.77348571428575</v>
+        <v>22.67222513089003</v>
       </c>
       <c r="BL63" t="n">
-        <v>22.67222513089003</v>
+        <v>3.633333333333333</v>
       </c>
       <c r="BM63" t="n">
-        <v>3.633333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="BN63" t="n">
-        <v>1.5</v>
+        <v>2.500000000000002</v>
       </c>
       <c r="BO63" t="n">
-        <v>2.500000000000002</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BP63" t="n">
-        <v>-2.199999999999999</v>
+        <v>4</v>
       </c>
       <c r="BQ63" t="n">
-        <v>4</v>
+        <v>14.73961783439495</v>
+      </c>
+      <c r="BR63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS63" t="n">
+        <v>7.158977910286003</v>
       </c>
     </row>
     <row r="64">
@@ -13859,25 +14241,31 @@
         <v>23.95520110957014</v>
       </c>
       <c r="BK64" t="n">
-        <v>14.60912912912914</v>
+        <v>24.90497461928939</v>
       </c>
       <c r="BL64" t="n">
-        <v>24.90497461928939</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="BM64" t="n">
-        <v>0.6333333333333333</v>
+        <v>1.9</v>
       </c>
       <c r="BN64" t="n">
-        <v>1.9</v>
+        <v>4.81</v>
       </c>
       <c r="BO64" t="n">
-        <v>4.81</v>
+        <v>-2.4</v>
       </c>
       <c r="BP64" t="n">
-        <v>-2.4</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="BQ64" t="n">
-        <v>4.600000000000001</v>
+        <v>14.98814634146342</v>
+      </c>
+      <c r="BR64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS64" t="n">
+        <v>8.967054768106724</v>
       </c>
     </row>
     <row r="65">
@@ -14068,25 +14456,31 @@
         <v>16.95379061371849</v>
       </c>
       <c r="BK65" t="n">
-        <v>14.86541484716158</v>
+        <v>18.02196969696968</v>
       </c>
       <c r="BL65" t="n">
-        <v>18.02196969696968</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="BM65" t="n">
-        <v>0.1833333333333333</v>
+        <v>0.2099999999999991</v>
       </c>
       <c r="BN65" t="n">
-        <v>0.2099999999999991</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BO65" t="n">
-        <v>0.3000000000000007</v>
+        <v>-1.81</v>
       </c>
       <c r="BP65" t="n">
-        <v>-1.81</v>
+        <v>-5.800000000000001</v>
       </c>
       <c r="BQ65" t="n">
-        <v>-5.800000000000001</v>
+        <v>14.5996842105263</v>
+      </c>
+      <c r="BR65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS65" t="n">
+        <v>2.354106403192183</v>
       </c>
     </row>
     <row r="66">
@@ -14277,25 +14671,31 @@
         <v>21.12198412698416</v>
       </c>
       <c r="BK66" t="n">
-        <v>14.76452153110051</v>
+        <v>21.69014285714285</v>
       </c>
       <c r="BL66" t="n">
-        <v>21.69014285714285</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="BM66" t="n">
-        <v>2.083333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="BN66" t="n">
-        <v>1.5</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="BO66" t="n">
-        <v>1.800000000000001</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BP66" t="n">
-        <v>-2.199999999999999</v>
+        <v>-0.8000000000000007</v>
       </c>
       <c r="BQ66" t="n">
-        <v>-0.8000000000000007</v>
+        <v>15.01616564417181</v>
+      </c>
+      <c r="BR66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS66" t="n">
+        <v>6.105818482812355</v>
       </c>
     </row>
     <row r="67">
@@ -14486,25 +14886,31 @@
         <v>18.7251063829787</v>
       </c>
       <c r="BK67" t="n">
-        <v>15.07087628865982</v>
+        <v>24.41833333333334</v>
       </c>
       <c r="BL67" t="n">
-        <v>24.41833333333334</v>
+        <v>6.8</v>
       </c>
       <c r="BM67" t="n">
-        <v>6.8</v>
+        <v>2.399999999999999</v>
       </c>
       <c r="BN67" t="n">
-        <v>2.399999999999999</v>
+        <v>0.7099999999999991</v>
       </c>
       <c r="BO67" t="n">
-        <v>0.7099999999999991</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BP67" t="n">
-        <v>-2.109999999999999</v>
+        <v>-0.7100000000000009</v>
       </c>
       <c r="BQ67" t="n">
-        <v>-0.7100000000000009</v>
+        <v>14.90833333333335</v>
+      </c>
+      <c r="BR67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS67" t="n">
+        <v>3.816773049645358</v>
       </c>
     </row>
     <row r="68">
@@ -14695,25 +15101,31 @@
         <v>16.17100213219621</v>
       </c>
       <c r="BK68" t="n">
-        <v>14.4700268817204</v>
+        <v>16.24600000000001</v>
       </c>
       <c r="BL68" t="n">
-        <v>16.24600000000001</v>
+        <v>4.5</v>
       </c>
       <c r="BM68" t="n">
-        <v>4.5</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="BN68" t="n">
-        <v>2.300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="BO68" t="n">
-        <v>0.5</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BP68" t="n">
-        <v>-2.199999999999999</v>
+        <v>-6.899999999999999</v>
       </c>
       <c r="BQ68" t="n">
-        <v>-6.899999999999999</v>
+        <v>14.34765527950321</v>
+      </c>
+      <c r="BR68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS68" t="n">
+        <v>1.823346852692993</v>
       </c>
     </row>
     <row r="69">
@@ -14904,25 +15316,31 @@
         <v>16.67030042918457</v>
       </c>
       <c r="BK69" t="n">
-        <v>14.54841930116475</v>
+        <v>16.6961111111111</v>
       </c>
       <c r="BL69" t="n">
-        <v>16.6961111111111</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="BM69" t="n">
-        <v>0.6333333333333333</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="BN69" t="n">
-        <v>1.800000000000001</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BO69" t="n">
-        <v>1.390000000000001</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BP69" t="n">
-        <v>-2.109999999999999</v>
+        <v>-6.109999999999999</v>
       </c>
       <c r="BQ69" t="n">
-        <v>-6.109999999999999</v>
+        <v>14.81734024179623</v>
+      </c>
+      <c r="BR69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS69" t="n">
+        <v>1.852960187388337</v>
       </c>
     </row>
     <row r="70">
@@ -15113,25 +15531,31 @@
         <v>17.90159090909096</v>
       </c>
       <c r="BK70" t="n">
-        <v>14.83035598705505</v>
+        <v>17.95250704225355</v>
       </c>
       <c r="BL70" t="n">
-        <v>17.95250704225355</v>
+        <v>2.766666666666667</v>
       </c>
       <c r="BM70" t="n">
-        <v>2.766666666666667</v>
+        <v>2.000000000000002</v>
       </c>
       <c r="BN70" t="n">
-        <v>2.000000000000002</v>
+        <v>1.299999999999999</v>
       </c>
       <c r="BO70" t="n">
-        <v>1.299999999999999</v>
+        <v>-2.31</v>
       </c>
       <c r="BP70" t="n">
-        <v>-2.31</v>
+        <v>-2.5</v>
       </c>
       <c r="BQ70" t="n">
-        <v>-2.5</v>
+        <v>14.97909090909096</v>
+      </c>
+      <c r="BR70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS70" t="n">
+        <v>2.922499999999992</v>
       </c>
     </row>
     <row r="71">
@@ -15322,25 +15746,31 @@
         <v>16.2668482490273</v>
       </c>
       <c r="BK71" t="n">
-        <v>15.05655487804882</v>
+        <v>16.59362110311752</v>
       </c>
       <c r="BL71" t="n">
-        <v>16.59362110311752</v>
+        <v>5.433333333333334</v>
       </c>
       <c r="BM71" t="n">
-        <v>5.433333333333334</v>
+        <v>2.6</v>
       </c>
       <c r="BN71" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="BO71" t="n">
-        <v>2</v>
+        <v>-2.31</v>
       </c>
       <c r="BP71" t="n">
-        <v>-2.31</v>
+        <v>-5</v>
       </c>
       <c r="BQ71" t="n">
-        <v>-5</v>
+        <v>15.03122028526152</v>
+      </c>
+      <c r="BR71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS71" t="n">
+        <v>1.235627963765776</v>
       </c>
     </row>
     <row r="72">
@@ -15531,25 +15961,31 @@
         <v>18.97190476190481</v>
       </c>
       <c r="BK72" t="n">
-        <v>15.04802359882008</v>
+        <v>18.57986225895317</v>
       </c>
       <c r="BL72" t="n">
-        <v>18.57986225895317</v>
+        <v>2.35</v>
       </c>
       <c r="BM72" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="BN72" t="n">
-        <v>2.5</v>
+        <v>1.19</v>
       </c>
       <c r="BO72" t="n">
-        <v>1.19</v>
+        <v>-2.5</v>
       </c>
       <c r="BP72" t="n">
-        <v>-2.5</v>
+        <v>-1.800000000000001</v>
       </c>
       <c r="BQ72" t="n">
-        <v>-1.800000000000001</v>
+        <v>14.095</v>
+      </c>
+      <c r="BR72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS72" t="n">
+        <v>4.876904761904811</v>
       </c>
     </row>
     <row r="73">
@@ -15740,25 +16176,31 @@
         <v>20.36213358070509</v>
       </c>
       <c r="BK73" t="n">
-        <v>15.5095238095238</v>
+        <v>20.19749379652609</v>
       </c>
       <c r="BL73" t="n">
-        <v>20.19749379652609</v>
+        <v>3.1</v>
       </c>
       <c r="BM73" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="BN73" t="n">
-        <v>2.1</v>
+        <v>2.899999999999999</v>
       </c>
       <c r="BO73" t="n">
-        <v>2.899999999999999</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BP73" t="n">
-        <v>-2.109999999999999</v>
+        <v>-1.899999999999999</v>
       </c>
       <c r="BQ73" t="n">
-        <v>-1.899999999999999</v>
+        <v>15.56925058548012</v>
+      </c>
+      <c r="BR73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS73" t="n">
+        <v>4.792882995224971</v>
       </c>
     </row>
     <row r="74">
@@ -15949,25 +16391,31 @@
         <v>20.37006535947726</v>
       </c>
       <c r="BK74" t="n">
-        <v>15.60799227799227</v>
+        <v>20.23560526315792</v>
       </c>
       <c r="BL74" t="n">
-        <v>20.23560526315792</v>
+        <v>4.55</v>
       </c>
       <c r="BM74" t="n">
-        <v>4.55</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BN74" t="n">
-        <v>1.699999999999999</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="BO74" t="n">
-        <v>2.109999999999999</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BP74" t="n">
-        <v>-2.109999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="BQ74" t="n">
-        <v>-1.5</v>
+        <v>15.32288477010569</v>
+      </c>
+      <c r="BR74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS74" t="n">
+        <v>5.047180589371562</v>
       </c>
     </row>
     <row r="75">
@@ -16158,25 +16606,31 @@
         <v>22.15617590822191</v>
       </c>
       <c r="BK75" t="n">
-        <v>15.47141224637869</v>
+        <v>22.99011730205281</v>
       </c>
       <c r="BL75" t="n">
-        <v>22.99011730205281</v>
+        <v>2.466666666666667</v>
       </c>
       <c r="BM75" t="n">
-        <v>2.466666666666667</v>
+        <v>1.3</v>
       </c>
       <c r="BN75" t="n">
-        <v>1.3</v>
+        <v>2.81</v>
       </c>
       <c r="BO75" t="n">
-        <v>2.81</v>
+        <v>-0.8100000000000005</v>
       </c>
       <c r="BP75" t="n">
-        <v>-0.8100000000000005</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="BQ75" t="n">
-        <v>1.100000000000001</v>
+        <v>15.07651895473127</v>
+      </c>
+      <c r="BR75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS75" t="n">
+        <v>7.079656953490639</v>
       </c>
     </row>
     <row r="76">
@@ -16367,25 +16821,31 @@
         <v>23.55660194174768</v>
       </c>
       <c r="BK76" t="n">
-        <v>15.33483221476512</v>
+        <v>23.05365155131271</v>
       </c>
       <c r="BL76" t="n">
-        <v>23.05365155131271</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="BM76" t="n">
-        <v>2.083333333333333</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="BN76" t="n">
-        <v>0.8999999999999998</v>
+        <v>3.19</v>
       </c>
       <c r="BO76" t="n">
-        <v>3.19</v>
+        <v>-1.609999999999999</v>
       </c>
       <c r="BP76" t="n">
-        <v>-1.609999999999999</v>
+        <v>0.7899999999999991</v>
       </c>
       <c r="BQ76" t="n">
-        <v>0.7899999999999991</v>
+        <v>14.83015313935685</v>
+      </c>
+      <c r="BR76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS76" t="n">
+        <v>8.726448802390834</v>
       </c>
     </row>
     <row r="77">
@@ -16576,25 +17036,31 @@
         <v>20.37248711340214</v>
       </c>
       <c r="BK77" t="n">
-        <v>14.7822852760736</v>
+        <v>22.17264285714295</v>
       </c>
       <c r="BL77" t="n">
-        <v>22.17264285714295</v>
+        <v>6.3</v>
       </c>
       <c r="BM77" t="n">
-        <v>6.3</v>
+        <v>0.5</v>
       </c>
       <c r="BN77" t="n">
-        <v>0.5</v>
+        <v>2.399999999999999</v>
       </c>
       <c r="BO77" t="n">
-        <v>2.399999999999999</v>
+        <v>-1.9</v>
       </c>
       <c r="BP77" t="n">
-        <v>-1.9</v>
+        <v>0.7899999999999991</v>
       </c>
       <c r="BQ77" t="n">
-        <v>0.7899999999999991</v>
+        <v>14.99357251908402</v>
+      </c>
+      <c r="BR77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS77" t="n">
+        <v>5.37891459431812</v>
       </c>
     </row>
     <row r="78">
@@ -16785,25 +17251,31 @@
         <v>22.53429139072858</v>
       </c>
       <c r="BK78" t="n">
-        <v>14.92398473282447</v>
+        <v>24.80323600973245</v>
       </c>
       <c r="BL78" t="n">
-        <v>24.80323600973245</v>
+        <v>4.05</v>
       </c>
       <c r="BM78" t="n">
-        <v>4.05</v>
+        <v>0.7099999999999991</v>
       </c>
       <c r="BN78" t="n">
-        <v>0.7099999999999991</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="BO78" t="n">
-        <v>4.899999999999999</v>
+        <v>-1.81</v>
       </c>
       <c r="BP78" t="n">
-        <v>-1.81</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BQ78" t="n">
-        <v>1.890000000000001</v>
+        <v>14.8750917431193</v>
+      </c>
+      <c r="BR78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS78" t="n">
+        <v>7.659199647609279</v>
       </c>
     </row>
     <row r="79">
@@ -16994,25 +17466,31 @@
         <v>22.85822416302778</v>
       </c>
       <c r="BK79" t="n">
-        <v>14.62575317604362</v>
+        <v>25.44364457831328</v>
       </c>
       <c r="BL79" t="n">
-        <v>25.44364457831328</v>
+        <v>2.283333333333333</v>
       </c>
       <c r="BM79" t="n">
-        <v>2.283333333333333</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="BN79" t="n">
-        <v>2.109999999999999</v>
+        <v>5.000000000000002</v>
       </c>
       <c r="BO79" t="n">
-        <v>5.000000000000002</v>
+        <v>-2.699999999999999</v>
       </c>
       <c r="BP79" t="n">
-        <v>-2.699999999999999</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BQ79" t="n">
-        <v>1.699999999999999</v>
+        <v>14.60911392405069</v>
+      </c>
+      <c r="BR79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS79" t="n">
+        <v>8.249110238977091</v>
       </c>
     </row>
     <row r="80">
@@ -17203,25 +17681,31 @@
         <v>20.93111298482302</v>
       </c>
       <c r="BK80" t="n">
-        <v>15.25740674955594</v>
+        <v>22.10938666666671</v>
       </c>
       <c r="BL80" t="n">
-        <v>22.10938666666671</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="BM80" t="n">
-        <v>7.083333333333333</v>
+        <v>2.09</v>
       </c>
       <c r="BN80" t="n">
-        <v>2.09</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="BO80" t="n">
-        <v>3.600000000000001</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BP80" t="n">
-        <v>-2.199999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ80" t="n">
-        <v>-0.5</v>
+        <v>15.18161921708187</v>
+      </c>
+      <c r="BR80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS80" t="n">
+        <v>5.749493767741145</v>
       </c>
     </row>
     <row r="81">
@@ -17412,25 +17896,31 @@
         <v>25.37442424242441</v>
       </c>
       <c r="BK81" t="n">
-        <v>15.10160944206016</v>
+        <v>26.60918635170614</v>
       </c>
       <c r="BL81" t="n">
-        <v>26.60918635170614</v>
+        <v>3.55</v>
       </c>
       <c r="BM81" t="n">
-        <v>3.55</v>
+        <v>0.3899999999999988</v>
       </c>
       <c r="BN81" t="n">
-        <v>0.3899999999999988</v>
+        <v>5.310000000000002</v>
       </c>
       <c r="BO81" t="n">
-        <v>5.310000000000002</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BP81" t="n">
-        <v>-2.109999999999999</v>
+        <v>5</v>
       </c>
       <c r="BQ81" t="n">
-        <v>5</v>
+        <v>15.37581250000001</v>
+      </c>
+      <c r="BR81" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BS81" t="n">
+        <v>9.998611742424405</v>
       </c>
     </row>
     <row r="82">
@@ -17621,25 +18111,31 @@
         <v>25.71983673469398</v>
       </c>
       <c r="BK82" t="n">
-        <v>15.54071759259261</v>
+        <v>26.50462264150942</v>
       </c>
       <c r="BL82" t="n">
-        <v>26.50462264150942</v>
+        <v>3.8</v>
       </c>
       <c r="BM82" t="n">
-        <v>3.8</v>
+        <v>0.7000000000000011</v>
       </c>
       <c r="BN82" t="n">
-        <v>0.7000000000000011</v>
+        <v>3.609999999999999</v>
       </c>
       <c r="BO82" t="n">
-        <v>3.609999999999999</v>
+        <v>-1.81</v>
       </c>
       <c r="BP82" t="n">
-        <v>-1.81</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="BQ82" t="n">
-        <v>5.600000000000001</v>
+        <v>16.02784194528884</v>
+      </c>
+      <c r="BR82" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="BS82" t="n">
+        <v>9.69199478940514</v>
       </c>
     </row>
     <row r="83">
@@ -17830,25 +18326,31 @@
         <v>17.79218309859165</v>
       </c>
       <c r="BK83" t="n">
-        <v>15.81617960426176</v>
+        <v>18.3051129943503</v>
       </c>
       <c r="BL83" t="n">
-        <v>18.3051129943503</v>
+        <v>0.85</v>
       </c>
       <c r="BM83" t="n">
-        <v>0.85</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BN83" t="n">
-        <v>0.3999999999999986</v>
+        <v>3.200000000000001</v>
       </c>
       <c r="BO83" t="n">
-        <v>3.200000000000001</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="BP83" t="n">
-        <v>-0.9000000000000004</v>
+        <v>-5.300000000000001</v>
       </c>
       <c r="BQ83" t="n">
-        <v>-5.300000000000001</v>
+        <v>15.10945038167943</v>
+      </c>
+      <c r="BR83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS83" t="n">
+        <v>2.682732716912218</v>
       </c>
     </row>
     <row r="84">
@@ -18039,25 +18541,31 @@
         <v>16.29836970474975</v>
       </c>
       <c r="BK84" t="n">
-        <v>14.70465648854968</v>
+        <v>16.88752969121143</v>
       </c>
       <c r="BL84" t="n">
-        <v>16.88752969121143</v>
+        <v>0</v>
       </c>
       <c r="BM84" t="n">
-        <v>0</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BN84" t="n">
-        <v>0.1999999999999993</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="BO84" t="n">
-        <v>2.109999999999999</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BP84" t="n">
-        <v>-2.199999999999999</v>
+        <v>-7.5</v>
       </c>
       <c r="BQ84" t="n">
-        <v>-7.5</v>
+        <v>14.68940458015272</v>
+      </c>
+      <c r="BR84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS84" t="n">
+        <v>1.608965124597026</v>
       </c>
     </row>
     <row r="85">
@@ -18248,25 +18756,31 @@
         <v>17.86748062015509</v>
       </c>
       <c r="BK85" t="n">
-        <v>14.63334862385323</v>
+        <v>16.99751807228917</v>
       </c>
       <c r="BL85" t="n">
-        <v>16.99751807228917</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="BM85" t="n">
-        <v>1.666666666666667</v>
+        <v>1.6</v>
       </c>
       <c r="BN85" t="n">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="BO85" t="n">
-        <v>1.41</v>
+        <v>-3.4</v>
       </c>
       <c r="BP85" t="n">
-        <v>-3.4</v>
+        <v>-3.210000000000001</v>
       </c>
       <c r="BQ85" t="n">
-        <v>-3.210000000000001</v>
+        <v>14.65550989345513</v>
+      </c>
+      <c r="BR85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS85" t="n">
+        <v>3.211970726699958</v>
       </c>
     </row>
     <row r="86">
@@ -18457,25 +18971,31 @@
         <v>18.16842105263168</v>
       </c>
       <c r="BK86" t="n">
-        <v>14.73111975116642</v>
+        <v>19.40785714285718</v>
       </c>
       <c r="BL86" t="n">
-        <v>19.40785714285718</v>
+        <v>2</v>
       </c>
       <c r="BM86" t="n">
-        <v>2</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="BN86" t="n">
-        <v>2.109999999999999</v>
+        <v>3.000000000000002</v>
       </c>
       <c r="BO86" t="n">
-        <v>3.000000000000002</v>
+        <v>-3.31</v>
       </c>
       <c r="BP86" t="n">
-        <v>-3.31</v>
+        <v>-3.109999999999999</v>
       </c>
       <c r="BQ86" t="n">
-        <v>-3.109999999999999</v>
+        <v>15.0632917316693</v>
+      </c>
+      <c r="BR86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS86" t="n">
+        <v>3.105129320962375</v>
       </c>
     </row>
     <row r="87">
@@ -18666,25 +19186,31 @@
         <v>19.75615186615196</v>
       </c>
       <c r="BK87" t="n">
-        <v>15.74974085365853</v>
+        <v>19.63854415274468</v>
       </c>
       <c r="BL87" t="n">
-        <v>19.63854415274468</v>
+        <v>3.983333333333333</v>
       </c>
       <c r="BM87" t="n">
-        <v>3.983333333333333</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="BN87" t="n">
-        <v>0.6000000000000014</v>
+        <v>0.5</v>
       </c>
       <c r="BO87" t="n">
-        <v>0.5</v>
+        <v>-2.31</v>
       </c>
       <c r="BP87" t="n">
-        <v>-2.31</v>
+        <v>-1.800000000000001</v>
       </c>
       <c r="BQ87" t="n">
-        <v>-1.800000000000001</v>
+        <v>15.49665653495441</v>
+      </c>
+      <c r="BR87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS87" t="n">
+        <v>4.259495331197551</v>
       </c>
     </row>
     <row r="88">
@@ -18875,25 +19401,31 @@
         <v>22.31813624678678</v>
       </c>
       <c r="BK88" t="n">
-        <v>14.87273141122918</v>
+        <v>23.34957142857149</v>
       </c>
       <c r="BL88" t="n">
-        <v>23.34957142857149</v>
+        <v>2.433333333333333</v>
       </c>
       <c r="BM88" t="n">
-        <v>2.433333333333333</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BN88" t="n">
-        <v>2.199999999999999</v>
+        <v>4.809999999999999</v>
       </c>
       <c r="BO88" t="n">
-        <v>4.809999999999999</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BP88" t="n">
-        <v>-2.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="BQ88" t="n">
-        <v>0</v>
+        <v>14.75094368340947</v>
+      </c>
+      <c r="BR88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS88" t="n">
+        <v>7.567192563377308</v>
       </c>
     </row>
     <row r="89">
@@ -19084,25 +19616,31 @@
         <v>23.54160668380472</v>
       </c>
       <c r="BK89" t="n">
-        <v>16.55750380517514</v>
+        <v>24.92190930787598</v>
       </c>
       <c r="BL89" t="n">
-        <v>24.92190930787598</v>
+        <v>1.7</v>
       </c>
       <c r="BM89" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="BN89" t="n">
-        <v>2</v>
+        <v>1.599999999999998</v>
       </c>
       <c r="BO89" t="n">
-        <v>1.599999999999998</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BP89" t="n">
-        <v>-2.109999999999999</v>
+        <v>2.890000000000001</v>
       </c>
       <c r="BQ89" t="n">
-        <v>2.890000000000001</v>
+        <v>17.91022796352591</v>
+      </c>
+      <c r="BR89" t="n">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="BS89" t="n">
+        <v>5.631378720278807</v>
       </c>
     </row>
     <row r="90">
@@ -19293,25 +19831,31 @@
         <v>22.84765083440317</v>
       </c>
       <c r="BK90" t="n">
-        <v>16.1020972644376</v>
+        <v>24.0467933491687</v>
       </c>
       <c r="BL90" t="n">
-        <v>24.0467933491687</v>
+        <v>2.783333333333333</v>
       </c>
       <c r="BM90" t="n">
-        <v>2.783333333333333</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="BN90" t="n">
-        <v>1.399999999999999</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="BO90" t="n">
-        <v>4.199999999999999</v>
+        <v>-2</v>
       </c>
       <c r="BP90" t="n">
-        <v>-2</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BQ90" t="n">
-        <v>2.199999999999999</v>
+        <v>14.79261068702291</v>
+      </c>
+      <c r="BR90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS90" t="n">
+        <v>8.055040147380261</v>
       </c>
     </row>
     <row r="91">
@@ -19502,25 +20046,31 @@
         <v>22.40970474967916</v>
       </c>
       <c r="BK91" t="n">
-        <v>14.84283372365344</v>
+        <v>23.72504761904771</v>
       </c>
       <c r="BL91" t="n">
-        <v>23.72504761904771</v>
+        <v>1.55</v>
       </c>
       <c r="BM91" t="n">
-        <v>1.55</v>
+        <v>2.210000000000001</v>
       </c>
       <c r="BN91" t="n">
-        <v>2.210000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="BO91" t="n">
-        <v>5.5</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BP91" t="n">
-        <v>-2.109999999999999</v>
+        <v>0.7899999999999991</v>
       </c>
       <c r="BQ91" t="n">
-        <v>0.7899999999999991</v>
+        <v>15.1227</v>
+      </c>
+      <c r="BR91" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BS91" t="n">
+        <v>7.287004749679157</v>
       </c>
     </row>
     <row r="92">
@@ -19711,25 +20261,31 @@
         <v>19.05146099290792</v>
       </c>
       <c r="BK92" t="n">
-        <v>16.04417525773193</v>
+        <v>19.51078384798102</v>
       </c>
       <c r="BL92" t="n">
-        <v>19.51078384798102</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="BM92" t="n">
-        <v>3.266666666666667</v>
+        <v>1.855</v>
       </c>
       <c r="BN92" t="n">
-        <v>1.855</v>
+        <v>1</v>
       </c>
       <c r="BO92" t="n">
-        <v>1</v>
+        <v>-1.31</v>
       </c>
       <c r="BP92" t="n">
-        <v>-1.31</v>
+        <v>-3.609999999999999</v>
       </c>
       <c r="BQ92" t="n">
-        <v>-3.609999999999999</v>
+        <v>15.47691842900304</v>
+      </c>
+      <c r="BR92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS92" t="n">
+        <v>3.574542563904881</v>
       </c>
     </row>
     <row r="93">
@@ -19920,25 +20476,31 @@
         <v>15.94214007782104</v>
       </c>
       <c r="BK93" t="n">
-        <v>14.7957</v>
+        <v>16.55294258373208</v>
       </c>
       <c r="BL93" t="n">
-        <v>16.55294258373208</v>
+        <v>0</v>
       </c>
       <c r="BM93" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BN93" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="BO93" t="n">
-        <v>0.5</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BP93" t="n">
-        <v>-2.109999999999999</v>
+        <v>-5</v>
       </c>
       <c r="BQ93" t="n">
-        <v>-5</v>
+        <v>14.92264705882353</v>
+      </c>
+      <c r="BR93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS93" t="n">
+        <v>1.01949301899751</v>
       </c>
     </row>
     <row r="94">
@@ -20129,25 +20691,31 @@
         <v>20.03106534090918</v>
       </c>
       <c r="BK94" t="n">
-        <v>14.33315789473684</v>
+        <v>19.68604316546765</v>
       </c>
       <c r="BL94" t="n">
-        <v>19.68604316546765</v>
+        <v>3.4</v>
       </c>
       <c r="BM94" t="n">
-        <v>3.4</v>
+        <v>0.2099999999999991</v>
       </c>
       <c r="BN94" t="n">
-        <v>0.2099999999999991</v>
+        <v>2</v>
       </c>
       <c r="BO94" t="n">
-        <v>2</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BP94" t="n">
-        <v>-2.109999999999999</v>
+        <v>-2</v>
       </c>
       <c r="BQ94" t="n">
-        <v>-2</v>
+        <v>14.65166666666667</v>
+      </c>
+      <c r="BR94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS94" t="n">
+        <v>5.379398674242502</v>
       </c>
     </row>
     <row r="95">
@@ -20338,25 +20906,31 @@
         <v>21.317658402204</v>
       </c>
       <c r="BK95" t="n">
-        <v>14.76584905660377</v>
+        <v>22.90731382978728</v>
       </c>
       <c r="BL95" t="n">
-        <v>22.90731382978728</v>
+        <v>2.766666666666667</v>
       </c>
       <c r="BM95" t="n">
-        <v>2.766666666666667</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="BN95" t="n">
-        <v>2.300000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="BO95" t="n">
-        <v>1.5</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BP95" t="n">
-        <v>-2.199999999999999</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BQ95" t="n">
-        <v>-0.6099999999999994</v>
+        <v>14.6318320610687</v>
+      </c>
+      <c r="BR95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS95" t="n">
+        <v>6.685826341135297</v>
       </c>
     </row>
     <row r="96">
@@ -20547,25 +21121,31 @@
         <v>22.22896551724149</v>
       </c>
       <c r="BK96" t="n">
-        <v>14.78756603773591</v>
+        <v>23.5128095238096</v>
       </c>
       <c r="BL96" t="n">
-        <v>23.5128095238096</v>
+        <v>2.6</v>
       </c>
       <c r="BM96" t="n">
-        <v>2.6</v>
+        <v>0.7099999999999991</v>
       </c>
       <c r="BN96" t="n">
-        <v>0.7099999999999991</v>
+        <v>4.31</v>
       </c>
       <c r="BO96" t="n">
-        <v>4.31</v>
+        <v>-2.31</v>
       </c>
       <c r="BP96" t="n">
-        <v>-2.31</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="BQ96" t="n">
-        <v>1.100000000000001</v>
+        <v>14.81598387096776</v>
+      </c>
+      <c r="BR96" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="BS96" t="n">
+        <v>7.412981646273726</v>
       </c>
     </row>
     <row r="97">
@@ -20756,25 +21336,31 @@
         <v>21.67434451219526</v>
       </c>
       <c r="BK97" t="n">
-        <v>14.71512987012991</v>
+        <v>23.13824207492799</v>
       </c>
       <c r="BL97" t="n">
-        <v>23.13824207492799</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="BM97" t="n">
-        <v>2.166666666666667</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="BN97" t="n">
-        <v>2.100000000000001</v>
+        <v>4.31</v>
       </c>
       <c r="BO97" t="n">
-        <v>4.31</v>
+        <v>-2</v>
       </c>
       <c r="BP97" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="BQ97" t="n">
-        <v>1</v>
+        <v>14.73121555915725</v>
+      </c>
+      <c r="BR97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS97" t="n">
+        <v>6.943128953038006</v>
       </c>
     </row>
     <row r="98">
@@ -20965,25 +21551,31 @@
         <v>22.73948031496076</v>
       </c>
       <c r="BK98" t="n">
-        <v>15.27568471337584</v>
+        <v>24.4811594202899</v>
       </c>
       <c r="BL98" t="n">
-        <v>24.4811594202899</v>
+        <v>1.25</v>
       </c>
       <c r="BM98" t="n">
-        <v>1.25</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="BN98" t="n">
-        <v>2.109999999999999</v>
+        <v>4.09</v>
       </c>
       <c r="BO98" t="n">
-        <v>4.09</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BP98" t="n">
-        <v>-2.109999999999999</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BQ98" t="n">
-        <v>1.699999999999999</v>
+        <v>15.13837539432182</v>
+      </c>
+      <c r="BR98" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BS98" t="n">
+        <v>7.601104920638939</v>
       </c>
     </row>
     <row r="99">
@@ -21174,25 +21766,31 @@
         <v>25.63118404118409</v>
       </c>
       <c r="BK99" t="n">
-        <v>15.5821526717558</v>
+        <v>28.58892857142868</v>
       </c>
       <c r="BL99" t="n">
-        <v>28.58892857142868</v>
+        <v>3.45</v>
       </c>
       <c r="BM99" t="n">
-        <v>3.45</v>
+        <v>2</v>
       </c>
       <c r="BN99" t="n">
-        <v>2</v>
+        <v>6.900000000000002</v>
       </c>
       <c r="BO99" t="n">
-        <v>6.900000000000002</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BP99" t="n">
-        <v>-2.109999999999999</v>
+        <v>5.789999999999999</v>
       </c>
       <c r="BQ99" t="n">
-        <v>5.789999999999999</v>
+        <v>15.99350230414745</v>
+      </c>
+      <c r="BR99" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS99" t="n">
+        <v>9.63768173703664</v>
       </c>
     </row>
     <row r="100">
@@ -21383,25 +21981,31 @@
         <v>25.25811779769536</v>
       </c>
       <c r="BK100" t="n">
-        <v>15.65462249614795</v>
+        <v>27.2535391923992</v>
       </c>
       <c r="BL100" t="n">
-        <v>27.2535391923992</v>
+        <v>3.616666666666667</v>
       </c>
       <c r="BM100" t="n">
-        <v>3.616666666666667</v>
+        <v>1.09</v>
       </c>
       <c r="BN100" t="n">
-        <v>1.09</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="BO100" t="n">
-        <v>4.390000000000001</v>
+        <v>-1.699999999999999</v>
       </c>
       <c r="BP100" t="n">
-        <v>-1.699999999999999</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="BQ100" t="n">
-        <v>5.100000000000001</v>
+        <v>15.52727129337545</v>
+      </c>
+      <c r="BR100" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS100" t="n">
+        <v>9.730846504319908</v>
       </c>
     </row>
     <row r="101">
@@ -21592,25 +22196,31 @@
         <v>20.6652443857333</v>
       </c>
       <c r="BK101" t="n">
-        <v>16.82784037558696</v>
+        <v>22.8357635467981</v>
       </c>
       <c r="BL101" t="n">
-        <v>22.8357635467981</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="BM101" t="n">
-        <v>5.083333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="BN101" t="n">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
       <c r="BO101" t="n">
-        <v>1.59</v>
+        <v>-1.9</v>
       </c>
       <c r="BP101" t="n">
-        <v>-1.9</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BQ101" t="n">
-        <v>0.6999999999999993</v>
+        <v>17.25250759878419</v>
+      </c>
+      <c r="BR101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS101" t="n">
+        <v>3.412736786949104</v>
       </c>
     </row>
     <row r="102">
@@ -21801,25 +22411,31 @@
         <v>16.71130769230781</v>
       </c>
       <c r="BK102" t="n">
-        <v>15.48233486943162</v>
+        <v>16.85178571428573</v>
       </c>
       <c r="BL102" t="n">
-        <v>16.85178571428573</v>
+        <v>0</v>
       </c>
       <c r="BM102" t="n">
-        <v>0</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="BN102" t="n">
-        <v>0.4000000000000004</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BO102" t="n">
-        <v>1.289999999999999</v>
+        <v>-1.4</v>
       </c>
       <c r="BP102" t="n">
-        <v>-1.4</v>
+        <v>-6.609999999999999</v>
       </c>
       <c r="BQ102" t="n">
-        <v>-6.609999999999999</v>
+        <v>14.72544049459039</v>
+      </c>
+      <c r="BR102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS102" t="n">
+        <v>1.985867197717413</v>
       </c>
     </row>
     <row r="103">
@@ -22010,25 +22626,31 @@
         <v>19.23144702842386</v>
       </c>
       <c r="BK103" t="n">
-        <v>16.0219113149848</v>
+        <v>20.25783333333337</v>
       </c>
       <c r="BL103" t="n">
-        <v>20.25783333333337</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="BM103" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BN103" t="n">
-        <v>0.2999999999999989</v>
+        <v>2</v>
       </c>
       <c r="BO103" t="n">
-        <v>2</v>
+        <v>-1.609999999999999</v>
       </c>
       <c r="BP103" t="n">
-        <v>-1.609999999999999</v>
+        <v>-4.210000000000001</v>
       </c>
       <c r="BQ103" t="n">
-        <v>-4.210000000000001</v>
+        <v>16.63948328267475</v>
+      </c>
+      <c r="BR103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS103" t="n">
+        <v>2.591963745749105</v>
       </c>
     </row>
     <row r="104">
@@ -22219,25 +22841,31 @@
         <v>23.91902470741235</v>
       </c>
       <c r="BK104" t="n">
-        <v>15.48230293663065</v>
+        <v>26.04677261613704</v>
       </c>
       <c r="BL104" t="n">
-        <v>26.04677261613704</v>
+        <v>2.466666666666667</v>
       </c>
       <c r="BM104" t="n">
-        <v>2.466666666666667</v>
+        <v>2.899999999999999</v>
       </c>
       <c r="BN104" t="n">
-        <v>2.899999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="BO104" t="n">
-        <v>6.5</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BP104" t="n">
-        <v>-2.199999999999999</v>
+        <v>3.789999999999999</v>
       </c>
       <c r="BQ104" t="n">
-        <v>3.789999999999999</v>
+        <v>14.76024518388796</v>
+      </c>
+      <c r="BR104" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="BS104" t="n">
+        <v>9.158779523524391</v>
       </c>
     </row>
     <row r="105">
@@ -22428,25 +23056,31 @@
         <v>23.79631292517017</v>
       </c>
       <c r="BK105" t="n">
-        <v>14.74778217821785</v>
+        <v>25.30721153846163</v>
       </c>
       <c r="BL105" t="n">
-        <v>25.30721153846163</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="BM105" t="n">
-        <v>3.366666666666667</v>
+        <v>2.19</v>
       </c>
       <c r="BN105" t="n">
-        <v>2.19</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="BO105" t="n">
-        <v>4.800000000000001</v>
+        <v>-2.31</v>
       </c>
       <c r="BP105" t="n">
-        <v>-2.31</v>
+        <v>2.390000000000001</v>
       </c>
       <c r="BQ105" t="n">
-        <v>2.390000000000001</v>
+        <v>14.96061728395067</v>
+      </c>
+      <c r="BR105" t="n">
+        <v>0.2166666666666667</v>
+      </c>
+      <c r="BS105" t="n">
+        <v>8.835695641219502</v>
       </c>
     </row>
     <row r="106">
@@ -22637,25 +23271,31 @@
         <v>23.58779753761983</v>
       </c>
       <c r="BK106" t="n">
-        <v>15.01198347107435</v>
+        <v>25.33236842105271</v>
       </c>
       <c r="BL106" t="n">
-        <v>25.33236842105271</v>
+        <v>6.25</v>
       </c>
       <c r="BM106" t="n">
-        <v>6.25</v>
+        <v>2.01</v>
       </c>
       <c r="BN106" t="n">
-        <v>2.01</v>
+        <v>5</v>
       </c>
       <c r="BO106" t="n">
-        <v>5</v>
+        <v>-1.9</v>
       </c>
       <c r="BP106" t="n">
-        <v>-1.9</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BQ106" t="n">
-        <v>2.199999999999999</v>
+        <v>16.4235682819383</v>
+      </c>
+      <c r="BR106" t="n">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="BS106" t="n">
+        <v>7.164229255681526</v>
       </c>
     </row>
     <row r="107">
@@ -22846,25 +23486,31 @@
         <v>22.97200150489086</v>
       </c>
       <c r="BK107" t="n">
-        <v>15.75133896260559</v>
+        <v>25.0046744791668</v>
       </c>
       <c r="BL107" t="n">
-        <v>25.0046744791668</v>
+        <v>10.9</v>
       </c>
       <c r="BM107" t="n">
-        <v>10.9</v>
+        <v>5.710000000000001</v>
       </c>
       <c r="BN107" t="n">
-        <v>5.710000000000001</v>
+        <v>6.699999999999999</v>
       </c>
       <c r="BO107" t="n">
-        <v>6.699999999999999</v>
+        <v>-2.5</v>
       </c>
       <c r="BP107" t="n">
-        <v>-2.5</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BQ107" t="n">
-        <v>2.199999999999999</v>
+        <v>15.01069607843139</v>
+      </c>
+      <c r="BR107" t="n">
+        <v>5.733333333333333</v>
+      </c>
+      <c r="BS107" t="n">
+        <v>7.961305426459472</v>
       </c>
     </row>
     <row r="108">
@@ -23055,25 +23701,31 @@
         <v>24.24869960988304</v>
       </c>
       <c r="BK108" t="n">
-        <v>14.58365296803655</v>
+        <v>26.50768674698805</v>
       </c>
       <c r="BL108" t="n">
-        <v>26.50768674698805</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="BM108" t="n">
-        <v>3.083333333333333</v>
+        <v>3.290000000000001</v>
       </c>
       <c r="BN108" t="n">
-        <v>3.290000000000001</v>
+        <v>5.289999999999999</v>
       </c>
       <c r="BO108" t="n">
-        <v>5.289999999999999</v>
+        <v>-2.9</v>
       </c>
       <c r="BP108" t="n">
-        <v>-2.9</v>
+        <v>3.699999999999999</v>
       </c>
       <c r="BQ108" t="n">
-        <v>3.699999999999999</v>
+        <v>15.24408814589671</v>
+      </c>
+      <c r="BR108" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BS108" t="n">
+        <v>9.004611463986331</v>
       </c>
     </row>
     <row r="109">
@@ -23264,25 +23916,31 @@
         <v>26.05343589743598</v>
       </c>
       <c r="BK109" t="n">
-        <v>17.31863429438553</v>
+        <v>28.34603325415688</v>
       </c>
       <c r="BL109" t="n">
-        <v>28.34603325415688</v>
+        <v>9.516666666666667</v>
       </c>
       <c r="BM109" t="n">
-        <v>9.516666666666667</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="BN109" t="n">
-        <v>2.109999999999999</v>
+        <v>5</v>
       </c>
       <c r="BO109" t="n">
-        <v>5</v>
+        <v>-1.609999999999999</v>
       </c>
       <c r="BP109" t="n">
-        <v>-1.609999999999999</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="BQ109" t="n">
-        <v>5.100000000000001</v>
+        <v>18.58722306525047</v>
+      </c>
+      <c r="BR109" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BS109" t="n">
+        <v>7.466212832185512</v>
       </c>
     </row>
     <row r="110">
@@ -23473,25 +24131,31 @@
         <v>25.51881818181825</v>
       </c>
       <c r="BK110" t="n">
-        <v>19.08189681335366</v>
+        <v>27.18179856115118</v>
       </c>
       <c r="BL110" t="n">
-        <v>27.18179856115118</v>
+        <v>5.466666666666667</v>
       </c>
       <c r="BM110" t="n">
-        <v>5.466666666666667</v>
+        <v>2.399999999999999</v>
       </c>
       <c r="BN110" t="n">
-        <v>2.399999999999999</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BO110" t="n">
-        <v>2.289999999999999</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BP110" t="n">
-        <v>-0.6099999999999994</v>
+        <v>4.5</v>
       </c>
       <c r="BQ110" t="n">
-        <v>4.5</v>
+        <v>20.07905918057673</v>
+      </c>
+      <c r="BR110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS110" t="n">
+        <v>5.439759001241516</v>
       </c>
     </row>
     <row r="111">
@@ -23682,25 +24346,31 @@
         <v>22.8748908857511</v>
       </c>
       <c r="BK111" t="n">
-        <v>18.03881638846744</v>
+        <v>22.30378571428576</v>
       </c>
       <c r="BL111" t="n">
-        <v>22.30378571428576</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="BM111" t="n">
-        <v>2.583333333333333</v>
+        <v>0.6099999999999994</v>
       </c>
       <c r="BN111" t="n">
-        <v>0.6099999999999994</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="BO111" t="n">
-        <v>1.300000000000001</v>
+        <v>-0.8100000000000005</v>
       </c>
       <c r="BP111" t="n">
-        <v>-0.8100000000000005</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="BQ111" t="n">
-        <v>4.390000000000001</v>
+        <v>14.83969558599695</v>
+      </c>
+      <c r="BR111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS111" t="n">
+        <v>8.035195299754148</v>
       </c>
     </row>
     <row r="112">
@@ -23891,25 +24561,31 @@
         <v>20.38320051413892</v>
       </c>
       <c r="BK112" t="n">
-        <v>13.61758778625961</v>
+        <v>21.32147971360384</v>
       </c>
       <c r="BL112" t="n">
-        <v>21.32147971360384</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="BM112" t="n">
-        <v>5.416666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="BN112" t="n">
-        <v>3.5</v>
+        <v>3.300000000000001</v>
       </c>
       <c r="BO112" t="n">
-        <v>3.300000000000001</v>
+        <v>-3.81</v>
       </c>
       <c r="BP112" t="n">
-        <v>-3.81</v>
+        <v>-1</v>
       </c>
       <c r="BQ112" t="n">
-        <v>-1</v>
+        <v>12.53423547400621</v>
+      </c>
+      <c r="BR112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS112" t="n">
+        <v>7.848965040132713</v>
       </c>
     </row>
     <row r="113">
@@ -24100,25 +24776,31 @@
         <v>22.3911855670104</v>
       </c>
       <c r="BK113" t="n">
-        <v>12.76099085365856</v>
+        <v>24.10535885167472</v>
       </c>
       <c r="BL113" t="n">
-        <v>24.10535885167472</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="BM113" t="n">
-        <v>1.066666666666667</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="BN113" t="n">
-        <v>3.800000000000001</v>
+        <v>4.109999999999999</v>
       </c>
       <c r="BO113" t="n">
-        <v>4.109999999999999</v>
+        <v>-5.5</v>
       </c>
       <c r="BP113" t="n">
-        <v>-5.5</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="BQ113" t="n">
-        <v>1.199999999999999</v>
+        <v>12.46992412746591</v>
+      </c>
+      <c r="BR113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS113" t="n">
+        <v>9.921261439544486</v>
       </c>
     </row>
     <row r="114">
@@ -24309,25 +24991,31 @@
         <v>23.94432855280323</v>
       </c>
       <c r="BK114" t="n">
-        <v>14.45252321981434</v>
+        <v>25.89549878345509</v>
       </c>
       <c r="BL114" t="n">
-        <v>25.89549878345509</v>
+        <v>5.716666666666667</v>
       </c>
       <c r="BM114" t="n">
-        <v>5.716666666666667</v>
+        <v>5</v>
       </c>
       <c r="BN114" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BO114" t="n">
-        <v>4</v>
+        <v>-6.31</v>
       </c>
       <c r="BP114" t="n">
-        <v>-6.31</v>
+        <v>3.390000000000001</v>
       </c>
       <c r="BQ114" t="n">
-        <v>3.390000000000001</v>
+        <v>18.03187596899236</v>
+      </c>
+      <c r="BR114" t="n">
+        <v>1.033333333333333</v>
+      </c>
+      <c r="BS114" t="n">
+        <v>5.912452583810872</v>
       </c>
     </row>
     <row r="115">
@@ -24518,25 +25206,31 @@
         <v>18.99517994858626</v>
       </c>
       <c r="BK115" t="n">
-        <v>17.44709726443768</v>
+        <v>19.78183770883058</v>
       </c>
       <c r="BL115" t="n">
-        <v>19.78183770883058</v>
+        <v>0</v>
       </c>
       <c r="BM115" t="n">
-        <v>0</v>
+        <v>0.1900000000000013</v>
       </c>
       <c r="BN115" t="n">
-        <v>0.1900000000000013</v>
+        <v>1</v>
       </c>
       <c r="BO115" t="n">
-        <v>1</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BP115" t="n">
-        <v>0.6999999999999993</v>
+        <v>-5.210000000000001</v>
       </c>
       <c r="BQ115" t="n">
-        <v>-5.210000000000001</v>
+        <v>17.43822458270122</v>
+      </c>
+      <c r="BR115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS115" t="n">
+        <v>1.556955365885038</v>
       </c>
     </row>
     <row r="116">
@@ -24727,25 +25421,31 @@
         <v>21.36745501285358</v>
       </c>
       <c r="BK116" t="n">
-        <v>16.91281155015199</v>
+        <v>23.85954545454554</v>
       </c>
       <c r="BL116" t="n">
-        <v>23.85954545454554</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="BM116" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.2100000000000009</v>
       </c>
       <c r="BN116" t="n">
-        <v>0.2100000000000009</v>
+        <v>5.810000000000002</v>
       </c>
       <c r="BO116" t="n">
-        <v>5.810000000000002</v>
+        <v>-1.81</v>
       </c>
       <c r="BP116" t="n">
-        <v>-1.81</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ116" t="n">
-        <v>-0.5</v>
+        <v>15.31123100303955</v>
+      </c>
+      <c r="BR116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS116" t="n">
+        <v>6.056224009814034</v>
       </c>
     </row>
     <row r="117">
@@ -24936,25 +25636,31 @@
         <v>22.74453815261055</v>
       </c>
       <c r="BK117" t="n">
-        <v>15.33516717325229</v>
+        <v>25.39355329949246</v>
       </c>
       <c r="BL117" t="n">
-        <v>25.39355329949246</v>
+        <v>8.6</v>
       </c>
       <c r="BM117" t="n">
-        <v>8.6</v>
+        <v>2.19</v>
       </c>
       <c r="BN117" t="n">
-        <v>2.19</v>
+        <v>5.199999999999999</v>
       </c>
       <c r="BO117" t="n">
-        <v>5.199999999999999</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BP117" t="n">
-        <v>-2.109999999999999</v>
+        <v>3</v>
       </c>
       <c r="BQ117" t="n">
-        <v>3</v>
+        <v>14.29365296803657</v>
+      </c>
+      <c r="BR117" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS117" t="n">
+        <v>8.450885184573986</v>
       </c>
     </row>
     <row r="118">
@@ -25145,25 +25851,31 @@
         <v>23.73235939643359</v>
       </c>
       <c r="BK118" t="n">
-        <v>13.82630769230774</v>
+        <v>26.53458536585376</v>
       </c>
       <c r="BL118" t="n">
-        <v>26.53458536585376</v>
+        <v>9.233333333333333</v>
       </c>
       <c r="BM118" t="n">
-        <v>9.233333333333333</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="BN118" t="n">
-        <v>3.800000000000001</v>
+        <v>5.810000000000002</v>
       </c>
       <c r="BO118" t="n">
-        <v>5.810000000000002</v>
+        <v>-5.5</v>
       </c>
       <c r="BP118" t="n">
-        <v>-5.5</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="BQ118" t="n">
-        <v>4.199999999999999</v>
+        <v>13.57371340523886</v>
+      </c>
+      <c r="BR118" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BS118" t="n">
+        <v>10.15864599119473</v>
       </c>
     </row>
     <row r="119">
@@ -25354,25 +26066,31 @@
         <v>22.43688715953319</v>
       </c>
       <c r="BK119" t="n">
-        <v>13.22466463414638</v>
+        <v>25.30711217183781</v>
       </c>
       <c r="BL119" t="n">
-        <v>25.30711217183781</v>
+        <v>7.966666666666667</v>
       </c>
       <c r="BM119" t="n">
-        <v>7.966666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="BN119" t="n">
-        <v>3.5</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="BO119" t="n">
-        <v>6.600000000000001</v>
+        <v>-5</v>
       </c>
       <c r="BP119" t="n">
-        <v>-5</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BQ119" t="n">
-        <v>1.390000000000001</v>
+        <v>14.52522796352586</v>
+      </c>
+      <c r="BR119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS119" t="n">
+        <v>7.911659196007328</v>
       </c>
     </row>
     <row r="120">
@@ -25563,25 +26281,31 @@
         <v>22.3879790419163</v>
       </c>
       <c r="BK120" t="n">
-        <v>15.5306595092025</v>
+        <v>24.77080246913583</v>
       </c>
       <c r="BL120" t="n">
-        <v>24.77080246913583</v>
+        <v>2.3</v>
       </c>
       <c r="BM120" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="BN120" t="n">
-        <v>1.5</v>
+        <v>2.699999999999999</v>
       </c>
       <c r="BO120" t="n">
-        <v>2.699999999999999</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BP120" t="n">
-        <v>-2.199999999999999</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BQ120" t="n">
-        <v>1.390000000000001</v>
+        <v>16.36433846153851</v>
+      </c>
+      <c r="BR120" t="n">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="BS120" t="n">
+        <v>6.023640580377798</v>
       </c>
     </row>
     <row r="121">
@@ -25772,25 +26496,31 @@
         <v>18.44458172458184</v>
       </c>
       <c r="BK121" t="n">
-        <v>16.63703196347033</v>
+        <v>19.65590909090914</v>
       </c>
       <c r="BL121" t="n">
-        <v>19.65590909090914</v>
+        <v>0</v>
       </c>
       <c r="BM121" t="n">
-        <v>0</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BN121" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BO121" t="n">
-        <v>0.3999999999999986</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BP121" t="n">
-        <v>-0.6099999999999994</v>
+        <v>-1.800000000000001</v>
       </c>
       <c r="BQ121" t="n">
-        <v>-1.800000000000001</v>
+        <v>16.89820940819427</v>
+      </c>
+      <c r="BR121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS121" t="n">
+        <v>1.546372316387572</v>
       </c>
     </row>
     <row r="122">
@@ -25981,25 +26711,31 @@
         <v>21.42205417607227</v>
       </c>
       <c r="BK122" t="n">
-        <v>15.9787348353553</v>
+        <v>25.51043478260865</v>
       </c>
       <c r="BL122" t="n">
-        <v>25.51043478260865</v>
+        <v>1.383333333333333</v>
       </c>
       <c r="BM122" t="n">
-        <v>1.383333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="BN122" t="n">
-        <v>1.4</v>
+        <v>4.789999999999999</v>
       </c>
       <c r="BO122" t="n">
-        <v>4.789999999999999</v>
+        <v>-1.699999999999999</v>
       </c>
       <c r="BP122" t="n">
-        <v>-1.699999999999999</v>
+        <v>1.789999999999999</v>
       </c>
       <c r="BQ122" t="n">
-        <v>1.789999999999999</v>
+        <v>15.23899305555555</v>
+      </c>
+      <c r="BR122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS122" t="n">
+        <v>6.183061120516717</v>
       </c>
     </row>
     <row r="123">
@@ -26190,25 +26926,31 @@
         <v>23.36311304347834</v>
       </c>
       <c r="BK123" t="n">
-        <v>15.68183544303806</v>
+        <v>27.88882113821141</v>
       </c>
       <c r="BL123" t="n">
-        <v>27.88882113821141</v>
+        <v>3.2</v>
       </c>
       <c r="BM123" t="n">
-        <v>3.2</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="BN123" t="n">
-        <v>1.100000000000001</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BO123" t="n">
-        <v>1.890000000000001</v>
+        <v>-1</v>
       </c>
       <c r="BP123" t="n">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="BQ123" t="n">
-        <v>3.5</v>
+        <v>15.72961123110154</v>
+      </c>
+      <c r="BR123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS123" t="n">
+        <v>7.633501812376799</v>
       </c>
     </row>
     <row r="124">
@@ -26399,25 +27141,31 @@
         <v>19.8802222222222</v>
       </c>
       <c r="BK124" t="n">
-        <v>15.62442934782614</v>
+        <v>25.745</v>
       </c>
       <c r="BL124" t="n">
-        <v>25.745</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="BM124" t="n">
-        <v>0.08333333333333333</v>
+        <v>2.609999999999999</v>
       </c>
       <c r="BN124" t="n">
-        <v>2.609999999999999</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="BO124" t="n">
-        <v>0.08999999999999986</v>
+        <v>-1.699999999999999</v>
       </c>
       <c r="BP124" t="n">
-        <v>-1.699999999999999</v>
+        <v>5</v>
       </c>
       <c r="BQ124" t="n">
-        <v>5</v>
+        <v>22.6174193548387</v>
+      </c>
+      <c r="BR124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS124" t="n">
+        <v>-2.73719713261649</v>
       </c>
     </row>
     <row r="125">
@@ -26608,25 +27356,31 @@
         <v>26.0250000000002</v>
       </c>
       <c r="BK125" t="n">
-        <v>24.11096774193551</v>
+        <v>26.12674757281569</v>
       </c>
       <c r="BL125" t="n">
-        <v>26.12674757281569</v>
+        <v>0</v>
       </c>
       <c r="BM125" t="n">
-        <v>0</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="BN125" t="n">
-        <v>1.399999999999999</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="BO125" t="n">
-        <v>0.8000000000000007</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="BP125" t="n">
-        <v>6.600000000000001</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="BQ125" t="n">
-        <v>2.100000000000001</v>
+        <v>23.94048558421877</v>
+      </c>
+      <c r="BR125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS125" t="n">
+        <v>2.084514415781435</v>
       </c>
     </row>
     <row r="126">
@@ -26817,25 +27571,31 @@
         <v>26.84334620334637</v>
       </c>
       <c r="BK126" t="n">
-        <v>23.7626858877088</v>
+        <v>27.40328571428587</v>
       </c>
       <c r="BL126" t="n">
-        <v>27.40328571428587</v>
+        <v>0</v>
       </c>
       <c r="BM126" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BN126" t="n">
-        <v>0.5</v>
+        <v>1.189999999999998</v>
       </c>
       <c r="BO126" t="n">
-        <v>1.189999999999998</v>
+        <v>6.390000000000001</v>
       </c>
       <c r="BP126" t="n">
-        <v>6.390000000000001</v>
+        <v>5.890000000000001</v>
       </c>
       <c r="BQ126" t="n">
-        <v>5.890000000000001</v>
+        <v>22.45294832826758</v>
+      </c>
+      <c r="BR126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS126" t="n">
+        <v>4.390397875078786</v>
       </c>
     </row>
     <row r="127">
@@ -27026,25 +27786,31 @@
         <v>21.78287001287017</v>
       </c>
       <c r="BK127" t="n">
-        <v>19.95337386018261</v>
+        <v>22.101028708134</v>
       </c>
       <c r="BL127" t="n">
-        <v>22.101028708134</v>
+        <v>0</v>
       </c>
       <c r="BM127" t="n">
-        <v>0</v>
+        <v>0.3100000000000023</v>
       </c>
       <c r="BN127" t="n">
-        <v>0.3100000000000023</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BO127" t="n">
-        <v>2.289999999999999</v>
+        <v>2</v>
       </c>
       <c r="BP127" t="n">
-        <v>2</v>
+        <v>-1.399999999999999</v>
       </c>
       <c r="BQ127" t="n">
-        <v>-1.399999999999999</v>
+        <v>17.17452887537995</v>
+      </c>
+      <c r="BR127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS127" t="n">
+        <v>4.608341137490218</v>
       </c>
     </row>
     <row r="128">
@@ -27235,25 +28001,31 @@
         <v>22.38368491321777</v>
       </c>
       <c r="BK128" t="n">
-        <v>16.20899691358025</v>
+        <v>25.64727047146411</v>
       </c>
       <c r="BL128" t="n">
-        <v>25.64727047146411</v>
+        <v>5.95</v>
       </c>
       <c r="BM128" t="n">
-        <v>5.95</v>
+        <v>3.210000000000001</v>
       </c>
       <c r="BN128" t="n">
-        <v>3.210000000000001</v>
+        <v>5.109999999999999</v>
       </c>
       <c r="BO128" t="n">
-        <v>5.109999999999999</v>
+        <v>-2.4</v>
       </c>
       <c r="BP128" t="n">
-        <v>-2.4</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="BQ128" t="n">
-        <v>2.100000000000001</v>
+        <v>14.09819078947371</v>
+      </c>
+      <c r="BR128" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="BS128" t="n">
+        <v>8.285494123744055</v>
       </c>
     </row>
     <row r="129">
@@ -27444,25 +28216,31 @@
         <v>22.47804000000016</v>
       </c>
       <c r="BK129" t="n">
-        <v>13.86080267558533</v>
+        <v>23.16539408867</v>
       </c>
       <c r="BL129" t="n">
-        <v>23.16539408867</v>
+        <v>5.9</v>
       </c>
       <c r="BM129" t="n">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="BN129" t="n">
-        <v>4.9</v>
+        <v>4.810000000000002</v>
       </c>
       <c r="BO129" t="n">
-        <v>4.810000000000002</v>
+        <v>-5.4</v>
       </c>
       <c r="BP129" t="n">
-        <v>-5.4</v>
+        <v>3</v>
       </c>
       <c r="BQ129" t="n">
-        <v>3</v>
+        <v>13.76216088328084</v>
+      </c>
+      <c r="BR129" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BS129" t="n">
+        <v>8.715879116719323</v>
       </c>
     </row>
     <row r="130">
@@ -27653,25 +28431,31 @@
         <v>24.93520261437922</v>
       </c>
       <c r="BK130" t="n">
-        <v>14.77584876543213</v>
+        <v>27.36198090692137</v>
       </c>
       <c r="BL130" t="n">
-        <v>27.36198090692137</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BM130" t="n">
-        <v>9.199999999999999</v>
+        <v>4.890000000000001</v>
       </c>
       <c r="BN130" t="n">
-        <v>4.890000000000001</v>
+        <v>3.690000000000001</v>
       </c>
       <c r="BO130" t="n">
-        <v>3.690000000000001</v>
+        <v>-5</v>
       </c>
       <c r="BP130" t="n">
-        <v>-5</v>
+        <v>4.5</v>
       </c>
       <c r="BQ130" t="n">
-        <v>4.5</v>
+        <v>16.09761102603373</v>
+      </c>
+      <c r="BR130" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BS130" t="n">
+        <v>8.837591588345493</v>
       </c>
     </row>
     <row r="131">
@@ -27862,25 +28646,31 @@
         <v>23.51243801652901</v>
       </c>
       <c r="BK131" t="n">
-        <v>16.48758358662626</v>
+        <v>23.96697270471473</v>
       </c>
       <c r="BL131" t="n">
-        <v>23.96697270471473</v>
+        <v>3.2</v>
       </c>
       <c r="BM131" t="n">
-        <v>3.2</v>
+        <v>3.390000000000001</v>
       </c>
       <c r="BN131" t="n">
-        <v>3.390000000000001</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BO131" t="n">
-        <v>2.289999999999999</v>
+        <v>-2</v>
       </c>
       <c r="BP131" t="n">
-        <v>-2</v>
+        <v>3.890000000000001</v>
       </c>
       <c r="BQ131" t="n">
-        <v>3.890000000000001</v>
+        <v>18.41471124620072</v>
+      </c>
+      <c r="BR131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS131" t="n">
+        <v>5.097726770328286</v>
       </c>
     </row>
     <row r="132">
@@ -28071,25 +28861,31 @@
         <v>26.29946052631586</v>
       </c>
       <c r="BK132" t="n">
-        <v>16.72840182648397</v>
+        <v>27.86983333333343</v>
       </c>
       <c r="BL132" t="n">
-        <v>27.86983333333343</v>
+        <v>4.633333333333334</v>
       </c>
       <c r="BM132" t="n">
-        <v>4.633333333333334</v>
+        <v>1.190000000000001</v>
       </c>
       <c r="BN132" t="n">
-        <v>1.190000000000001</v>
+        <v>6.199999999999999</v>
       </c>
       <c r="BO132" t="n">
-        <v>6.199999999999999</v>
+        <v>-3.31</v>
       </c>
       <c r="BP132" t="n">
-        <v>-3.31</v>
+        <v>4.5</v>
       </c>
       <c r="BQ132" t="n">
-        <v>4.5</v>
+        <v>13.18964992389651</v>
+      </c>
+      <c r="BR132" t="n">
+        <v>1.016666666666667</v>
+      </c>
+      <c r="BS132" t="n">
+        <v>13.10981060241935</v>
       </c>
     </row>
     <row r="133">
@@ -28280,25 +29076,31 @@
         <v>24.5594935064936</v>
       </c>
       <c r="BK133" t="n">
-        <v>13.4166666666667</v>
+        <v>27.31248780487817</v>
       </c>
       <c r="BL133" t="n">
-        <v>27.31248780487817</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="BM133" t="n">
-        <v>2.133333333333333</v>
+        <v>3.799999999999999</v>
       </c>
       <c r="BN133" t="n">
-        <v>3.799999999999999</v>
+        <v>7.189999999999998</v>
       </c>
       <c r="BO133" t="n">
-        <v>7.189999999999998</v>
+        <v>-5.699999999999999</v>
       </c>
       <c r="BP133" t="n">
-        <v>-5.699999999999999</v>
+        <v>3.699999999999999</v>
       </c>
       <c r="BQ133" t="n">
-        <v>3.699999999999999</v>
+        <v>13.30071884984031</v>
+      </c>
+      <c r="BR133" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BS133" t="n">
+        <v>11.25877465665329</v>
       </c>
     </row>
     <row r="134">
@@ -28489,234 +29291,31 @@
         <v>24.85529562982009</v>
       </c>
       <c r="BK134" t="n">
-        <v>14.46883359253505</v>
+        <v>27.46776190476201</v>
       </c>
       <c r="BL134" t="n">
-        <v>27.46776190476201</v>
+        <v>6.65</v>
       </c>
       <c r="BM134" t="n">
-        <v>6.65</v>
+        <v>5.200000000000001</v>
       </c>
       <c r="BN134" t="n">
-        <v>5.200000000000001</v>
+        <v>5.109999999999999</v>
       </c>
       <c r="BO134" t="n">
-        <v>5.109999999999999</v>
+        <v>-5.81</v>
       </c>
       <c r="BP134" t="n">
-        <v>-5.81</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="BQ134" t="n">
-        <v>4.600000000000001</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>20180526</v>
-      </c>
-      <c r="B135" t="n">
-        <v>22.21060224089634</v>
-      </c>
-      <c r="C135" t="n">
-        <v>82.98834033613338</v>
-      </c>
-      <c r="D135" t="n">
-        <v>18.70794948984774</v>
-      </c>
-      <c r="E135" t="n">
-        <v>4.897834335749666</v>
-      </c>
-      <c r="F135" t="n">
-        <v>2.500797921461565</v>
-      </c>
-      <c r="G135" t="n">
-        <v>2889.74823828419</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0.01385937427126591</v>
-      </c>
-      <c r="I135" t="n">
-        <v>57.60049662751764</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.8556333348990393</v>
-      </c>
-      <c r="K135" t="n">
-        <v>1.16965921979884</v>
-      </c>
-      <c r="L135" t="n">
-        <v>2206.179717958282</v>
-      </c>
-      <c r="M135" t="n">
-        <v>16.11388281658528</v>
-      </c>
-      <c r="N135" t="n">
-        <v>21.01171715233506</v>
-      </c>
-      <c r="O135" t="n">
-        <v>6.96064978773285</v>
-      </c>
-      <c r="P135" t="n">
-        <v>17.07743355329082</v>
-      </c>
-      <c r="Q135" t="n">
-        <v>3.726041567664806</v>
-      </c>
-      <c r="R135" t="n">
-        <v>5.312836703999074</v>
-      </c>
-      <c r="S135" t="n">
-        <v>0.9067443565293921</v>
-      </c>
-      <c r="T135" t="n">
-        <v>1163.061742324364</v>
-      </c>
-      <c r="U135" t="n">
-        <v>0.003127395719049421</v>
-      </c>
-      <c r="V135" t="n">
-        <v>14.89551216540494</v>
-      </c>
-      <c r="W135" t="n">
-        <v>0.02414761145121801</v>
-      </c>
-      <c r="X135" t="n">
-        <v>0.03313517744246104</v>
-      </c>
-      <c r="Y135" t="n">
-        <v>488.0263202333836</v>
-      </c>
-      <c r="Z135" t="n">
-        <v>3.244801265332664</v>
-      </c>
-      <c r="AA135" t="n">
-        <v>8.022856033759071</v>
-      </c>
-      <c r="AB135" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="AC135" t="n">
-        <v>46</v>
-      </c>
-      <c r="AD135" t="n">
-        <v>12.20601920349694</v>
-      </c>
-      <c r="AE135" t="n">
-        <v>0.01078505963873511</v>
-      </c>
-      <c r="AF135" t="n">
-        <v>1.191845703463588</v>
-      </c>
-      <c r="AG135" t="n">
-        <v>1420.261731555373</v>
-      </c>
-      <c r="AH135" t="n">
-        <v>0.008833199378139098</v>
-      </c>
-      <c r="AI135" t="n">
-        <v>34.54891160363243</v>
-      </c>
-      <c r="AJ135" t="n">
-        <v>0.8199808451255396</v>
-      </c>
-      <c r="AK135" t="n">
-        <v>1.121196896696626</v>
-      </c>
-      <c r="AL135" t="n">
-        <v>1418.841469823818</v>
-      </c>
-      <c r="AM135" t="n">
-        <v>10.77427457909705</v>
-      </c>
-      <c r="AN135" t="n">
-        <v>10.78505963873578</v>
-      </c>
-      <c r="AO135" t="n">
-        <v>32.29</v>
-      </c>
-      <c r="AP135" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="AQ135" t="n">
-        <v>25.95984734594919</v>
-      </c>
-      <c r="AR135" t="n">
-        <v>16.83691011959998</v>
-      </c>
-      <c r="AS135" t="n">
-        <v>4.344354503057438</v>
-      </c>
-      <c r="AT135" t="n">
-        <v>4837.134022567434</v>
-      </c>
-      <c r="AU135" t="n">
-        <v>0.02130639590730716</v>
-      </c>
-      <c r="AV135" t="n">
-        <v>85.87945807831706</v>
-      </c>
-      <c r="AW135" t="n">
-        <v>0.8919040027191407</v>
-      </c>
-      <c r="AX135" t="n">
-        <v>1.219540683108152</v>
-      </c>
-      <c r="AY135" t="n">
-        <v>3356.002208414454</v>
-      </c>
-      <c r="AZ135" t="n">
-        <v>23.99605627910488</v>
-      </c>
-      <c r="BA135" t="n">
-        <v>34.31460721830438</v>
-      </c>
-      <c r="BB135" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="BC135" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="BD135" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="BE135" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="BF135" t="n">
-        <v>7.383333333333334</v>
-      </c>
-      <c r="BG135" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH135" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BI135" t="n">
-        <v>3.366666666666667</v>
-      </c>
-      <c r="BJ135" t="n">
-        <v>27.09502583979331</v>
-      </c>
-      <c r="BK135" t="n">
-        <v>16.42995412844047</v>
-      </c>
-      <c r="BL135" t="n">
-        <v>30.14590361445793</v>
-      </c>
-      <c r="BM135" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BN135" t="n">
-        <v>4.910000000000002</v>
-      </c>
-      <c r="BO135" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="BP135" t="n">
-        <v>-3.81</v>
-      </c>
-      <c r="BQ135" t="n">
-        <v>6.289999999999999</v>
+        <v>15.50953703703703</v>
+      </c>
+      <c r="BR134" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BS134" t="n">
+        <v>9.34575859278306</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/2nd_data/hwang/hwang_env_detail_data.xlsx
+++ b/dataset/2nd_data/hwang/hwang_env_detail_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS134"/>
+  <dimension ref="A1:BT134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,11 @@
           <t>주야간온도차이</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>주야간온도차8도이상인날수</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -937,6 +942,9 @@
       <c r="BS2" t="n">
         <v>2.821575730151277</v>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1152,6 +1160,9 @@
       <c r="BS3" t="n">
         <v>4.021429175151521</v>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1367,6 +1378,9 @@
       <c r="BS4" t="n">
         <v>4.317939706108081</v>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1582,6 +1596,9 @@
       <c r="BS5" t="n">
         <v>3.928189356861317</v>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1797,6 +1814,9 @@
       <c r="BS6" t="n">
         <v>5.015491655964276</v>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2012,6 +2032,9 @@
       <c r="BS7" t="n">
         <v>0.8626166467071066</v>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2227,6 +2250,9 @@
       <c r="BS8" t="n">
         <v>2.977313449989428</v>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2442,6 +2468,9 @@
       <c r="BS9" t="n">
         <v>3.217154614818142</v>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2657,6 +2686,9 @@
       <c r="BS10" t="n">
         <v>3.973977275156077</v>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2872,6 +2904,9 @@
       <c r="BS11" t="n">
         <v>4.465269906096864</v>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -3087,6 +3122,9 @@
       <c r="BS12" t="n">
         <v>3.611195463580227</v>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3302,6 +3340,9 @@
       <c r="BS13" t="n">
         <v>2.587882524835884</v>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3517,6 +3558,9 @@
       <c r="BS14" t="n">
         <v>3.40238614748224</v>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3732,6 +3776,9 @@
       <c r="BS15" t="n">
         <v>3.802917099784498</v>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3947,6 +3994,9 @@
       <c r="BS16" t="n">
         <v>3.264000726666566</v>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -4162,6 +4212,9 @@
       <c r="BS17" t="n">
         <v>4.650500039830693</v>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -4377,6 +4430,9 @@
       <c r="BS18" t="n">
         <v>5.468541385298156</v>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -4592,6 +4648,9 @@
       <c r="BS19" t="n">
         <v>3.696400980028304</v>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4807,6 +4866,9 @@
       <c r="BS20" t="n">
         <v>3.874271147647356</v>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -5022,6 +5084,9 @@
       <c r="BS21" t="n">
         <v>4.729062133873818</v>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -5237,6 +5302,9 @@
       <c r="BS22" t="n">
         <v>3.397712399379035</v>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -5452,6 +5520,9 @@
       <c r="BS23" t="n">
         <v>4.549496404555008</v>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -5667,6 +5738,9 @@
       <c r="BS24" t="n">
         <v>5.579937048140746</v>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -5882,6 +5956,9 @@
       <c r="BS25" t="n">
         <v>5.159875689507487</v>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -6097,6 +6174,9 @@
       <c r="BS26" t="n">
         <v>5.493004979803008</v>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -6312,6 +6392,9 @@
       <c r="BS27" t="n">
         <v>5.116278731145229</v>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -6527,6 +6610,9 @@
       <c r="BS28" t="n">
         <v>5.472951276426684</v>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -6742,6 +6828,9 @@
       <c r="BS29" t="n">
         <v>5.075700140836577</v>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -6957,6 +7046,9 @@
       <c r="BS30" t="n">
         <v>5.714122017628949</v>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -7172,6 +7264,9 @@
       <c r="BS31" t="n">
         <v>3.16961682242996</v>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -7387,6 +7482,9 @@
       <c r="BS32" t="n">
         <v>2.496958962250863</v>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -7602,6 +7700,9 @@
       <c r="BS33" t="n">
         <v>3.392249130993591</v>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -7817,6 +7918,9 @@
       <c r="BS34" t="n">
         <v>2.845719318922736</v>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -8032,6 +8136,9 @@
       <c r="BS35" t="n">
         <v>3.792812332917597</v>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -8247,6 +8354,9 @@
       <c r="BS36" t="n">
         <v>4.024672461304993</v>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -8462,6 +8572,9 @@
       <c r="BS37" t="n">
         <v>4.814090758716505</v>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -8677,6 +8790,9 @@
       <c r="BS38" t="n">
         <v>4.663822082579671</v>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -8892,6 +9008,9 @@
       <c r="BS39" t="n">
         <v>4.205106503276868</v>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -9107,6 +9226,9 @@
       <c r="BS40" t="n">
         <v>2.306725024639031</v>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -9322,6 +9444,9 @@
       <c r="BS41" t="n">
         <v>5.159453401241164</v>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -9537,6 +9662,9 @@
       <c r="BS42" t="n">
         <v>3.948415456877841</v>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -9752,6 +9880,9 @@
       <c r="BS43" t="n">
         <v>3.261904550919722</v>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -9967,6 +10098,9 @@
       <c r="BS44" t="n">
         <v>3.739570130828868</v>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -10182,6 +10316,9 @@
       <c r="BS45" t="n">
         <v>4.944691392939625</v>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -10397,6 +10534,9 @@
       <c r="BS46" t="n">
         <v>4.168284750728615</v>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -10612,6 +10752,9 @@
       <c r="BS47" t="n">
         <v>2.711454451590537</v>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -10827,6 +10970,9 @@
       <c r="BS48" t="n">
         <v>4.461385114261725</v>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -11042,6 +11188,9 @@
       <c r="BS49" t="n">
         <v>4.256612793089317</v>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -11257,6 +11406,9 @@
       <c r="BS50" t="n">
         <v>0.4208447164883289</v>
       </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -11472,6 +11624,9 @@
       <c r="BS51" t="n">
         <v>2.892392638296736</v>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -11687,6 +11842,9 @@
       <c r="BS52" t="n">
         <v>5.818092497550191</v>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -11902,6 +12060,9 @@
       <c r="BS53" t="n">
         <v>7.382195020636601</v>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -12117,6 +12278,9 @@
       <c r="BS54" t="n">
         <v>6.300908261068123</v>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -12332,6 +12496,9 @@
       <c r="BS55" t="n">
         <v>1.430588086705287</v>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -12547,6 +12714,9 @@
       <c r="BS56" t="n">
         <v>6.692466432054889</v>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -12762,6 +12932,9 @@
       <c r="BS57" t="n">
         <v>3.447915849205932</v>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -12977,6 +13150,9 @@
       <c r="BS58" t="n">
         <v>3.016940670423491</v>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -13192,6 +13368,9 @@
       <c r="BS59" t="n">
         <v>2.332135759343492</v>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -13407,6 +13586,9 @@
       <c r="BS60" t="n">
         <v>3.1128001327018</v>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -13622,6 +13804,9 @@
       <c r="BS61" t="n">
         <v>4.988967326350847</v>
       </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -13837,6 +14022,9 @@
       <c r="BS62" t="n">
         <v>5.913276459541704</v>
       </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -14052,6 +14240,9 @@
       <c r="BS63" t="n">
         <v>7.158977910286003</v>
       </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -14267,6 +14458,9 @@
       <c r="BS64" t="n">
         <v>8.967054768106724</v>
       </c>
+      <c r="BT64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -14482,6 +14676,9 @@
       <c r="BS65" t="n">
         <v>2.354106403192183</v>
       </c>
+      <c r="BT65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -14697,6 +14894,9 @@
       <c r="BS66" t="n">
         <v>6.105818482812355</v>
       </c>
+      <c r="BT66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -14912,6 +15112,9 @@
       <c r="BS67" t="n">
         <v>3.816773049645358</v>
       </c>
+      <c r="BT67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -15127,6 +15330,9 @@
       <c r="BS68" t="n">
         <v>1.823346852692993</v>
       </c>
+      <c r="BT68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -15342,6 +15548,9 @@
       <c r="BS69" t="n">
         <v>1.852960187388337</v>
       </c>
+      <c r="BT69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -15557,6 +15766,9 @@
       <c r="BS70" t="n">
         <v>2.922499999999992</v>
       </c>
+      <c r="BT70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -15772,6 +15984,9 @@
       <c r="BS71" t="n">
         <v>1.235627963765776</v>
       </c>
+      <c r="BT71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -15987,6 +16202,9 @@
       <c r="BS72" t="n">
         <v>4.876904761904811</v>
       </c>
+      <c r="BT72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -16202,6 +16420,9 @@
       <c r="BS73" t="n">
         <v>4.792882995224971</v>
       </c>
+      <c r="BT73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -16417,6 +16638,9 @@
       <c r="BS74" t="n">
         <v>5.047180589371562</v>
       </c>
+      <c r="BT74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -16632,6 +16856,9 @@
       <c r="BS75" t="n">
         <v>7.079656953490639</v>
       </c>
+      <c r="BT75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -16847,6 +17074,9 @@
       <c r="BS76" t="n">
         <v>8.726448802390834</v>
       </c>
+      <c r="BT76" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -17062,6 +17292,9 @@
       <c r="BS77" t="n">
         <v>5.37891459431812</v>
       </c>
+      <c r="BT77" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -17277,6 +17510,9 @@
       <c r="BS78" t="n">
         <v>7.659199647609279</v>
       </c>
+      <c r="BT78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -17492,6 +17728,9 @@
       <c r="BS79" t="n">
         <v>8.249110238977091</v>
       </c>
+      <c r="BT79" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -17707,6 +17946,9 @@
       <c r="BS80" t="n">
         <v>5.749493767741145</v>
       </c>
+      <c r="BT80" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -17922,6 +18164,9 @@
       <c r="BS81" t="n">
         <v>9.998611742424405</v>
       </c>
+      <c r="BT81" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -18137,6 +18382,9 @@
       <c r="BS82" t="n">
         <v>9.69199478940514</v>
       </c>
+      <c r="BT82" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -18352,6 +18600,9 @@
       <c r="BS83" t="n">
         <v>2.682732716912218</v>
       </c>
+      <c r="BT83" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -18567,6 +18818,9 @@
       <c r="BS84" t="n">
         <v>1.608965124597026</v>
       </c>
+      <c r="BT84" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -18782,6 +19036,9 @@
       <c r="BS85" t="n">
         <v>3.211970726699958</v>
       </c>
+      <c r="BT85" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -18997,6 +19254,9 @@
       <c r="BS86" t="n">
         <v>3.105129320962375</v>
       </c>
+      <c r="BT86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -19212,6 +19472,9 @@
       <c r="BS87" t="n">
         <v>4.259495331197551</v>
       </c>
+      <c r="BT87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -19427,6 +19690,9 @@
       <c r="BS88" t="n">
         <v>7.567192563377308</v>
       </c>
+      <c r="BT88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -19642,6 +19908,9 @@
       <c r="BS89" t="n">
         <v>5.631378720278807</v>
       </c>
+      <c r="BT89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -19857,6 +20126,9 @@
       <c r="BS90" t="n">
         <v>8.055040147380261</v>
       </c>
+      <c r="BT90" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -20072,6 +20344,9 @@
       <c r="BS91" t="n">
         <v>7.287004749679157</v>
       </c>
+      <c r="BT91" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -20287,6 +20562,9 @@
       <c r="BS92" t="n">
         <v>3.574542563904881</v>
       </c>
+      <c r="BT92" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -20502,6 +20780,9 @@
       <c r="BS93" t="n">
         <v>1.01949301899751</v>
       </c>
+      <c r="BT93" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -20717,6 +20998,9 @@
       <c r="BS94" t="n">
         <v>5.379398674242502</v>
       </c>
+      <c r="BT94" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -20932,6 +21216,9 @@
       <c r="BS95" t="n">
         <v>6.685826341135297</v>
       </c>
+      <c r="BT95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -21147,6 +21434,9 @@
       <c r="BS96" t="n">
         <v>7.412981646273726</v>
       </c>
+      <c r="BT96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -21362,6 +21652,9 @@
       <c r="BS97" t="n">
         <v>6.943128953038006</v>
       </c>
+      <c r="BT97" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -21577,6 +21870,9 @@
       <c r="BS98" t="n">
         <v>7.601104920638939</v>
       </c>
+      <c r="BT98" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -21792,6 +22088,9 @@
       <c r="BS99" t="n">
         <v>9.63768173703664</v>
       </c>
+      <c r="BT99" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -22007,6 +22306,9 @@
       <c r="BS100" t="n">
         <v>9.730846504319908</v>
       </c>
+      <c r="BT100" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -22222,6 +22524,9 @@
       <c r="BS101" t="n">
         <v>3.412736786949104</v>
       </c>
+      <c r="BT101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -22437,6 +22742,9 @@
       <c r="BS102" t="n">
         <v>1.985867197717413</v>
       </c>
+      <c r="BT102" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -22652,6 +22960,9 @@
       <c r="BS103" t="n">
         <v>2.591963745749105</v>
       </c>
+      <c r="BT103" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -22867,6 +23178,9 @@
       <c r="BS104" t="n">
         <v>9.158779523524391</v>
       </c>
+      <c r="BT104" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -23082,6 +23396,9 @@
       <c r="BS105" t="n">
         <v>8.835695641219502</v>
       </c>
+      <c r="BT105" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -23297,6 +23614,9 @@
       <c r="BS106" t="n">
         <v>7.164229255681526</v>
       </c>
+      <c r="BT106" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -23512,6 +23832,9 @@
       <c r="BS107" t="n">
         <v>7.961305426459472</v>
       </c>
+      <c r="BT107" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -23727,6 +24050,9 @@
       <c r="BS108" t="n">
         <v>9.004611463986331</v>
       </c>
+      <c r="BT108" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -23942,6 +24268,9 @@
       <c r="BS109" t="n">
         <v>7.466212832185512</v>
       </c>
+      <c r="BT109" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -24157,6 +24486,9 @@
       <c r="BS110" t="n">
         <v>5.439759001241516</v>
       </c>
+      <c r="BT110" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -24372,6 +24704,9 @@
       <c r="BS111" t="n">
         <v>8.035195299754148</v>
       </c>
+      <c r="BT111" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -24587,6 +24922,9 @@
       <c r="BS112" t="n">
         <v>7.848965040132713</v>
       </c>
+      <c r="BT112" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -24802,6 +25140,9 @@
       <c r="BS113" t="n">
         <v>9.921261439544486</v>
       </c>
+      <c r="BT113" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -25017,6 +25358,9 @@
       <c r="BS114" t="n">
         <v>5.912452583810872</v>
       </c>
+      <c r="BT114" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -25232,6 +25576,9 @@
       <c r="BS115" t="n">
         <v>1.556955365885038</v>
       </c>
+      <c r="BT115" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -25447,6 +25794,9 @@
       <c r="BS116" t="n">
         <v>6.056224009814034</v>
       </c>
+      <c r="BT116" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -25662,6 +26012,9 @@
       <c r="BS117" t="n">
         <v>8.450885184573986</v>
       </c>
+      <c r="BT117" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -25877,6 +26230,9 @@
       <c r="BS118" t="n">
         <v>10.15864599119473</v>
       </c>
+      <c r="BT118" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -26092,6 +26448,9 @@
       <c r="BS119" t="n">
         <v>7.911659196007328</v>
       </c>
+      <c r="BT119" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -26307,6 +26666,9 @@
       <c r="BS120" t="n">
         <v>6.023640580377798</v>
       </c>
+      <c r="BT120" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -26522,6 +26884,9 @@
       <c r="BS121" t="n">
         <v>1.546372316387572</v>
       </c>
+      <c r="BT121" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -26737,6 +27102,9 @@
       <c r="BS122" t="n">
         <v>6.183061120516717</v>
       </c>
+      <c r="BT122" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -26952,6 +27320,9 @@
       <c r="BS123" t="n">
         <v>7.633501812376799</v>
       </c>
+      <c r="BT123" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -27167,6 +27538,9 @@
       <c r="BS124" t="n">
         <v>-2.73719713261649</v>
       </c>
+      <c r="BT124" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -27382,6 +27756,9 @@
       <c r="BS125" t="n">
         <v>2.084514415781435</v>
       </c>
+      <c r="BT125" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -27597,6 +27974,9 @@
       <c r="BS126" t="n">
         <v>4.390397875078786</v>
       </c>
+      <c r="BT126" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -27812,6 +28192,9 @@
       <c r="BS127" t="n">
         <v>4.608341137490218</v>
       </c>
+      <c r="BT127" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -28027,6 +28410,9 @@
       <c r="BS128" t="n">
         <v>8.285494123744055</v>
       </c>
+      <c r="BT128" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -28242,6 +28628,9 @@
       <c r="BS129" t="n">
         <v>8.715879116719323</v>
       </c>
+      <c r="BT129" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -28457,6 +28846,9 @@
       <c r="BS130" t="n">
         <v>8.837591588345493</v>
       </c>
+      <c r="BT130" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -28672,6 +29064,9 @@
       <c r="BS131" t="n">
         <v>5.097726770328286</v>
       </c>
+      <c r="BT131" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -28887,6 +29282,9 @@
       <c r="BS132" t="n">
         <v>13.10981060241935</v>
       </c>
+      <c r="BT132" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -29102,6 +29500,9 @@
       <c r="BS133" t="n">
         <v>11.25877465665329</v>
       </c>
+      <c r="BT133" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -29316,6 +29717,9 @@
       </c>
       <c r="BS134" t="n">
         <v>9.34575859278306</v>
+      </c>
+      <c r="BT134" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
